--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913862476461591</v>
+        <v>0.99138624764616</v>
       </c>
       <c r="D2">
         <v>1.010374102848165</v>
       </c>
       <c r="E2">
-        <v>0.9750834597247042</v>
+        <v>0.9750834597247043</v>
       </c>
       <c r="F2">
-        <v>0.9919316121565126</v>
+        <v>0.9919316121565132</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040758220767376</v>
+        <v>1.040758220767377</v>
       </c>
       <c r="J2">
-        <v>1.013827682783175</v>
+        <v>1.013827682783176</v>
       </c>
       <c r="K2">
-        <v>1.021690777413373</v>
+        <v>1.021690777413374</v>
       </c>
       <c r="L2">
-        <v>0.9869011931851805</v>
+        <v>0.9869011931851808</v>
       </c>
       <c r="M2">
-        <v>1.003504508789803</v>
+        <v>1.003504508789804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979064030323751</v>
+        <v>0.9979064030323744</v>
       </c>
       <c r="D3">
         <v>1.015257498946801</v>
       </c>
       <c r="E3">
-        <v>0.9805191913619112</v>
+        <v>0.9805191913619109</v>
       </c>
       <c r="F3">
-        <v>0.998548635599156</v>
+        <v>0.9985486355991554</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042926851464199</v>
+        <v>1.042926851464198</v>
       </c>
       <c r="J3">
         <v>1.018454304782254</v>
@@ -483,10 +483,10 @@
         <v>1.025698809461978</v>
       </c>
       <c r="L3">
-        <v>0.9914075541545125</v>
+        <v>0.9914075541545122</v>
       </c>
       <c r="M3">
-        <v>1.009200120649389</v>
+        <v>1.009200120649388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.018328319065935</v>
       </c>
       <c r="E4">
-        <v>0.9839534630827271</v>
+        <v>0.9839534630827275</v>
       </c>
       <c r="F4">
-        <v>1.002718059143252</v>
+        <v>1.002718059143253</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.028210457753898</v>
       </c>
       <c r="L4">
-        <v>0.9942494931295932</v>
+        <v>0.9942494931295935</v>
       </c>
       <c r="M4">
         <v>1.012783789908421</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003699032189056</v>
+        <v>1.003699032189058</v>
       </c>
       <c r="D5">
-        <v>1.019598953923142</v>
+        <v>1.019598953923144</v>
       </c>
       <c r="E5">
-        <v>0.985378347679563</v>
+        <v>0.9853783476795634</v>
       </c>
       <c r="F5">
-        <v>1.004445381778721</v>
+        <v>1.004445381778722</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044828551328425</v>
       </c>
       <c r="J5">
-        <v>1.022555815592315</v>
+        <v>1.022555815592316</v>
       </c>
       <c r="K5">
-        <v>1.029247636035696</v>
+        <v>1.029247636035698</v>
       </c>
       <c r="L5">
-        <v>0.9954273847892986</v>
+        <v>0.995427384789299</v>
       </c>
       <c r="M5">
-        <v>1.014267187933503</v>
+        <v>1.014267187933504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003982057564119</v>
+        <v>1.003982057564118</v>
       </c>
       <c r="D6">
-        <v>1.019811133735351</v>
+        <v>1.01981113373535</v>
       </c>
       <c r="E6">
-        <v>0.9856165122169538</v>
+        <v>0.985616512216954</v>
       </c>
       <c r="F6">
-        <v>1.00473394916118</v>
+        <v>1.004733949161179</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044920814751431</v>
       </c>
       <c r="J6">
-        <v>1.022755975540451</v>
+        <v>1.02275597554045</v>
       </c>
       <c r="K6">
         <v>1.029420709195944</v>
       </c>
       <c r="L6">
-        <v>0.9956241929430028</v>
+        <v>0.9956241929430029</v>
       </c>
       <c r="M6">
-        <v>1.014514930804882</v>
+        <v>1.014514930804881</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002026755887019</v>
+        <v>1.002026755887018</v>
       </c>
       <c r="D7">
-        <v>1.018345376017376</v>
+        <v>1.018345376017375</v>
       </c>
       <c r="E7">
-        <v>0.9839725754016694</v>
+        <v>0.9839725754016687</v>
       </c>
       <c r="F7">
-        <v>1.002741238191241</v>
+        <v>1.00274123819124</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044282130895147</v>
       </c>
       <c r="J7">
-        <v>1.021372686985867</v>
+        <v>1.021372686985866</v>
       </c>
       <c r="K7">
-        <v>1.028224389031852</v>
+        <v>1.028224389031851</v>
       </c>
       <c r="L7">
-        <v>0.9942652973412303</v>
+        <v>0.9942652973412295</v>
       </c>
       <c r="M7">
-        <v>1.012803700707431</v>
+        <v>1.01280370070743</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936158129791215</v>
+        <v>0.9936158129791217</v>
       </c>
       <c r="D8">
         <v>1.012043527084442</v>
       </c>
       <c r="E8">
-        <v>0.9769382972556353</v>
+        <v>0.9769382972556357</v>
       </c>
       <c r="F8">
-        <v>0.994191960427558</v>
+        <v>0.9941919604275586</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.023062795431173</v>
       </c>
       <c r="L8">
-        <v>0.9884399888821201</v>
+        <v>0.9884399888821206</v>
       </c>
       <c r="M8">
         <v>1.005451184344665</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777929284488007</v>
+        <v>0.9777929284488002</v>
       </c>
       <c r="D9">
         <v>1.000208295645563</v>
       </c>
       <c r="E9">
-        <v>0.9638587345105732</v>
+        <v>0.9638587345105727</v>
       </c>
       <c r="F9">
-        <v>0.9782002068595762</v>
+        <v>0.9782002068595754</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036155926946707</v>
       </c>
       <c r="J9">
-        <v>1.004155005933587</v>
+        <v>1.004155005933586</v>
       </c>
       <c r="K9">
         <v>1.013297994301788</v>
       </c>
       <c r="L9">
-        <v>0.9775667211397295</v>
+        <v>0.977566721139729</v>
       </c>
       <c r="M9">
-        <v>0.991657158016032</v>
+        <v>0.9916571580160313</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9664584629879462</v>
+        <v>0.9664584629879457</v>
       </c>
       <c r="D10">
-        <v>0.9917517138353178</v>
+        <v>0.9917517138353176</v>
       </c>
       <c r="E10">
-        <v>0.9546039945709894</v>
+        <v>0.954603994570989</v>
       </c>
       <c r="F10">
-        <v>0.9668113638437001</v>
+        <v>0.9668113638436996</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032249739691675</v>
       </c>
       <c r="J10">
-        <v>0.9960690951161462</v>
+        <v>0.9960690951161458</v>
       </c>
       <c r="K10">
-        <v>1.006271507920199</v>
+        <v>1.006271507920198</v>
       </c>
       <c r="L10">
-        <v>0.9698442905643663</v>
+        <v>0.9698442905643656</v>
       </c>
       <c r="M10">
-        <v>0.9818068692215555</v>
+        <v>0.981806869221555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.961335065504324</v>
+        <v>0.9613350655043238</v>
       </c>
       <c r="D11">
-        <v>0.9879362171584007</v>
+        <v>0.9879362171584006</v>
       </c>
       <c r="E11">
-        <v>0.95045051991737</v>
+        <v>0.9504505199173695</v>
       </c>
       <c r="F11">
-        <v>0.9616803547537333</v>
+        <v>0.961680354753733</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030467207852394</v>
       </c>
       <c r="J11">
-        <v>0.9924097591289155</v>
+        <v>0.9924097591289153</v>
       </c>
       <c r="K11">
         <v>1.003089282039755</v>
       </c>
       <c r="L11">
-        <v>0.9663715352690385</v>
+        <v>0.9663715352690382</v>
       </c>
       <c r="M11">
-        <v>0.9773630060224434</v>
+        <v>0.9773630060224433</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9593967998561928</v>
+        <v>0.9593967998561925</v>
       </c>
       <c r="D12">
-        <v>0.9864939954023015</v>
+        <v>0.9864939954023013</v>
       </c>
       <c r="E12">
-        <v>0.9488839317511299</v>
+        <v>0.9488839317511296</v>
       </c>
       <c r="F12">
-        <v>0.95974187146407</v>
+        <v>0.9597418714640698</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.0297904235109</v>
       </c>
       <c r="J12">
-        <v>0.9910248235494998</v>
+        <v>0.9910248235494995</v>
       </c>
       <c r="K12">
         <v>1.001884605598722</v>
       </c>
       <c r="L12">
-        <v>0.9650606369521859</v>
+        <v>0.9650606369521854</v>
       </c>
       <c r="M12">
-        <v>0.975683249048609</v>
+        <v>0.9756832490486088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598142068622771</v>
+        <v>0.9598142068622779</v>
       </c>
       <c r="D13">
-        <v>0.986804519680774</v>
+        <v>0.9868045196807748</v>
       </c>
       <c r="E13">
-        <v>0.9492210793787144</v>
+        <v>0.9492210793787149</v>
       </c>
       <c r="F13">
-        <v>0.9601592032376763</v>
+        <v>0.9601592032376771</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029936277053313</v>
       </c>
       <c r="J13">
-        <v>0.9913230934669492</v>
+        <v>0.9913230934669499</v>
       </c>
       <c r="K13">
-        <v>1.002144066931907</v>
+        <v>1.002144066931908</v>
       </c>
       <c r="L13">
-        <v>0.9653428053357838</v>
+        <v>0.9653428053357841</v>
       </c>
       <c r="M13">
-        <v>0.9760449192589196</v>
+        <v>0.9760449192589203</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9611755836813179</v>
+        <v>0.9611755836813197</v>
       </c>
       <c r="D14">
-        <v>0.9878175238168334</v>
+        <v>0.9878175238168353</v>
       </c>
       <c r="E14">
-        <v>0.9503215222702238</v>
+        <v>0.950321522270225</v>
       </c>
       <c r="F14">
-        <v>0.9615208003391554</v>
+        <v>0.9615208003391572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030411570055106</v>
+        <v>1.030411570055107</v>
       </c>
       <c r="J14">
-        <v>0.9922958161689921</v>
+        <v>0.9922958161689939</v>
       </c>
       <c r="K14">
-        <v>1.002990175621824</v>
+        <v>1.002990175621825</v>
       </c>
       <c r="L14">
-        <v>0.9662636135187888</v>
+        <v>0.9662636135187899</v>
       </c>
       <c r="M14">
-        <v>0.9772247646815791</v>
+        <v>0.9772247646815808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9620096170030272</v>
+        <v>0.9620096170030276</v>
       </c>
       <c r="D15">
         <v>0.9884382995540553</v>
@@ -933,7 +933,7 @@
         <v>1.030702438159208</v>
       </c>
       <c r="J15">
-        <v>0.9928916757534045</v>
+        <v>0.9928916757534046</v>
       </c>
       <c r="K15">
         <v>1.003508435786692</v>
@@ -942,7 +942,7 @@
         <v>0.9668281252325066</v>
       </c>
       <c r="M15">
-        <v>0.9779477767400752</v>
+        <v>0.9779477767400754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667937116351419</v>
+        <v>0.9667937116351413</v>
       </c>
       <c r="D16">
-        <v>0.9920015411972322</v>
+        <v>0.9920015411972314</v>
       </c>
       <c r="E16">
-        <v>0.9548764152666419</v>
+        <v>0.9548764152666416</v>
       </c>
       <c r="F16">
-        <v>0.9671474710441229</v>
+        <v>0.9671474710441225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032366039289513</v>
       </c>
       <c r="J16">
-        <v>0.9963084616914502</v>
+        <v>0.9963084616914497</v>
       </c>
       <c r="K16">
         <v>1.006479620398681</v>
       </c>
       <c r="L16">
-        <v>0.9700719179613968</v>
+        <v>0.9700719179613967</v>
       </c>
       <c r="M16">
-        <v>0.9820978424213653</v>
+        <v>0.9820978424213649</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697350572144781</v>
+        <v>0.9697350572144775</v>
       </c>
       <c r="D17">
-        <v>0.9941942481407912</v>
+        <v>0.9941942481407905</v>
       </c>
       <c r="E17">
-        <v>0.9572699296418182</v>
+        <v>0.9572699296418176</v>
       </c>
       <c r="F17">
-        <v>0.9700982772335929</v>
+        <v>0.970098277233592</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033384516906506</v>
       </c>
       <c r="J17">
-        <v>0.9984080946761685</v>
+        <v>0.9984080946761679</v>
       </c>
       <c r="K17">
-        <v>1.008304844788337</v>
+        <v>1.008304844788336</v>
       </c>
       <c r="L17">
-        <v>0.9720710824760108</v>
+        <v>0.9720710824760103</v>
       </c>
       <c r="M17">
-        <v>0.9846517234055971</v>
+        <v>0.9846517234055965</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714301100536572</v>
+        <v>0.9714301100536571</v>
       </c>
       <c r="D18">
-        <v>0.9954585210839209</v>
+        <v>0.9954585210839203</v>
       </c>
       <c r="E18">
-        <v>0.9586520639466806</v>
+        <v>0.9586520639466795</v>
       </c>
       <c r="F18">
-        <v>0.9718003695140148</v>
+        <v>0.9718003695140143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033969857323941</v>
+        <v>1.03396985732394</v>
       </c>
       <c r="J18">
-        <v>0.9996176652196372</v>
+        <v>0.9996176652196371</v>
       </c>
       <c r="K18">
-        <v>1.009356109555092</v>
+        <v>1.009356109555091</v>
       </c>
       <c r="L18">
-        <v>0.9732248421047145</v>
+        <v>0.9732248421047133</v>
       </c>
       <c r="M18">
-        <v>0.9861242912383424</v>
+        <v>0.9861242912383419</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,22 +1067,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720046683891397</v>
+        <v>0.9720046683891398</v>
       </c>
       <c r="D19">
-        <v>0.9958871663673036</v>
+        <v>0.9958871663673037</v>
       </c>
       <c r="E19">
-        <v>0.9591210207076579</v>
+        <v>0.9591210207076574</v>
       </c>
       <c r="F19">
-        <v>0.9723775801110101</v>
+        <v>0.9723775801110099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034167992143619</v>
+        <v>1.034167992143618</v>
       </c>
       <c r="J19">
         <v>1.000027590033281</v>
@@ -1091,7 +1091,7 @@
         <v>1.009712345450431</v>
       </c>
       <c r="L19">
-        <v>0.9736162004135669</v>
+        <v>0.9736162004135664</v>
       </c>
       <c r="M19">
         <v>0.9866235685965078</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694216271849964</v>
+        <v>0.9694216271849968</v>
       </c>
       <c r="D20">
-        <v>0.9939605243897045</v>
+        <v>0.9939605243897049</v>
       </c>
       <c r="E20">
-        <v>0.9570145850906812</v>
+        <v>0.957014585090681</v>
       </c>
       <c r="F20">
-        <v>0.9697836733668891</v>
+        <v>0.9697836733668893</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033276152615573</v>
       </c>
       <c r="J20">
-        <v>0.9981844001409127</v>
+        <v>0.9981844001409131</v>
       </c>
       <c r="K20">
         <v>1.008110408560978</v>
       </c>
       <c r="L20">
-        <v>0.9718578762528465</v>
+        <v>0.9718578762528464</v>
       </c>
       <c r="M20">
-        <v>0.9843794971213949</v>
+        <v>0.9843794971213953</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9607756885053782</v>
+        <v>0.9607756885053789</v>
       </c>
       <c r="D21">
-        <v>0.9875199250122546</v>
+        <v>0.9875199250122554</v>
       </c>
       <c r="E21">
-        <v>0.9499981422587839</v>
+        <v>0.9499981422587844</v>
       </c>
       <c r="F21">
-        <v>0.9611207663583322</v>
+        <v>0.9611207663583331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030272021616394</v>
+        <v>1.030272021616395</v>
       </c>
       <c r="J21">
-        <v>0.9920100996761356</v>
+        <v>0.9920100996761364</v>
       </c>
       <c r="K21">
-        <v>1.00274165748957</v>
+        <v>1.002741657489571</v>
       </c>
       <c r="L21">
-        <v>0.9659930508703705</v>
+        <v>0.9659930508703711</v>
       </c>
       <c r="M21">
-        <v>0.9768781527384124</v>
+        <v>0.9768781527384133</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9551342786184407</v>
+        <v>0.9551342786184424</v>
       </c>
       <c r="D22">
-        <v>0.9833248602396517</v>
+        <v>0.9833248602396532</v>
       </c>
       <c r="E22">
-        <v>0.9454478342648338</v>
+        <v>0.9454478342648348</v>
       </c>
       <c r="F22">
-        <v>0.9554839186812205</v>
+        <v>0.9554839186812222</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028297739190476</v>
+        <v>1.028297739190477</v>
       </c>
       <c r="J22">
-        <v>0.9879782670592808</v>
+        <v>0.9879782670592825</v>
       </c>
       <c r="K22">
-        <v>0.999234054128328</v>
+        <v>0.9992340541283294</v>
       </c>
       <c r="L22">
-        <v>0.962183390435559</v>
+        <v>0.96218339043556</v>
       </c>
       <c r="M22">
-        <v>0.9719920181097564</v>
+        <v>0.9719920181097582</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581454013306353</v>
+        <v>0.9581454013306349</v>
       </c>
       <c r="D23">
-        <v>0.9855632320176714</v>
+        <v>0.9855632320176706</v>
       </c>
       <c r="E23">
-        <v>0.9478738693455889</v>
+        <v>0.9478738693455891</v>
       </c>
       <c r="F23">
-        <v>0.9584910981423346</v>
+        <v>0.9584910981423345</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029352804059981</v>
       </c>
       <c r="J23">
-        <v>0.9901305297629754</v>
+        <v>0.990130529762975</v>
       </c>
       <c r="K23">
-        <v>1.001106628151875</v>
+        <v>1.001106628151874</v>
       </c>
       <c r="L23">
-        <v>0.9642151305924611</v>
+        <v>0.9642151305924612</v>
       </c>
       <c r="M23">
-        <v>0.9745991714073728</v>
+        <v>0.9745991714073727</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695633161255865</v>
+        <v>0.9695633161255862</v>
       </c>
       <c r="D24">
-        <v>0.9940661793680464</v>
+        <v>0.9940661793680461</v>
       </c>
       <c r="E24">
-        <v>0.9571300073125315</v>
+        <v>0.9571300073125313</v>
       </c>
       <c r="F24">
-        <v>0.9699258880291478</v>
+        <v>0.9699258880291477</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033325144649765</v>
       </c>
       <c r="J24">
-        <v>0.9982855246224003</v>
+        <v>0.9982855246223999</v>
       </c>
       <c r="K24">
         <v>1.008198307078658</v>
       </c>
       <c r="L24">
-        <v>0.9719542529196196</v>
+        <v>0.9719542529196197</v>
       </c>
       <c r="M24">
-        <v>0.9845025570375258</v>
+        <v>0.9845025570375256</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820130809280547</v>
+        <v>0.9820130809280553</v>
       </c>
       <c r="D25">
         <v>1.003361839539517</v>
       </c>
       <c r="E25">
-        <v>0.9673284731664993</v>
+        <v>0.9673284731664988</v>
       </c>
       <c r="F25">
-        <v>0.9824543983085194</v>
+        <v>0.9824543983085199</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037595327102104</v>
       </c>
       <c r="J25">
-        <v>1.007161318471518</v>
+        <v>1.007161318471519</v>
       </c>
       <c r="K25">
         <v>1.015908190488525</v>
       </c>
       <c r="L25">
-        <v>0.9804560705248844</v>
+        <v>0.980456070524884</v>
       </c>
       <c r="M25">
-        <v>0.995331333826281</v>
+        <v>0.9953313338262813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.99138624764616</v>
+        <v>0.9913862476461591</v>
       </c>
       <c r="D2">
         <v>1.010374102848165</v>
       </c>
       <c r="E2">
-        <v>0.9750834597247043</v>
+        <v>0.9750834597247042</v>
       </c>
       <c r="F2">
-        <v>0.9919316121565132</v>
+        <v>0.9919316121565126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040758220767377</v>
+        <v>1.040758220767376</v>
       </c>
       <c r="J2">
-        <v>1.013827682783176</v>
+        <v>1.013827682783175</v>
       </c>
       <c r="K2">
-        <v>1.021690777413374</v>
+        <v>1.021690777413373</v>
       </c>
       <c r="L2">
-        <v>0.9869011931851808</v>
+        <v>0.9869011931851805</v>
       </c>
       <c r="M2">
-        <v>1.003504508789804</v>
+        <v>1.003504508789803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979064030323744</v>
+        <v>0.9979064030323751</v>
       </c>
       <c r="D3">
         <v>1.015257498946801</v>
       </c>
       <c r="E3">
-        <v>0.9805191913619109</v>
+        <v>0.9805191913619112</v>
       </c>
       <c r="F3">
-        <v>0.9985486355991554</v>
+        <v>0.998548635599156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042926851464198</v>
+        <v>1.042926851464199</v>
       </c>
       <c r="J3">
         <v>1.018454304782254</v>
@@ -483,10 +483,10 @@
         <v>1.025698809461978</v>
       </c>
       <c r="L3">
-        <v>0.9914075541545122</v>
+        <v>0.9914075541545125</v>
       </c>
       <c r="M3">
-        <v>1.009200120649388</v>
+        <v>1.009200120649389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,10 +503,10 @@
         <v>1.018328319065935</v>
       </c>
       <c r="E4">
-        <v>0.9839534630827275</v>
+        <v>0.9839534630827271</v>
       </c>
       <c r="F4">
-        <v>1.002718059143253</v>
+        <v>1.002718059143252</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.028210457753898</v>
       </c>
       <c r="L4">
-        <v>0.9942494931295935</v>
+        <v>0.9942494931295932</v>
       </c>
       <c r="M4">
         <v>1.012783789908421</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003699032189058</v>
+        <v>1.003699032189056</v>
       </c>
       <c r="D5">
-        <v>1.019598953923144</v>
+        <v>1.019598953923142</v>
       </c>
       <c r="E5">
-        <v>0.9853783476795634</v>
+        <v>0.985378347679563</v>
       </c>
       <c r="F5">
-        <v>1.004445381778722</v>
+        <v>1.004445381778721</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044828551328425</v>
       </c>
       <c r="J5">
-        <v>1.022555815592316</v>
+        <v>1.022555815592315</v>
       </c>
       <c r="K5">
-        <v>1.029247636035698</v>
+        <v>1.029247636035696</v>
       </c>
       <c r="L5">
-        <v>0.995427384789299</v>
+        <v>0.9954273847892986</v>
       </c>
       <c r="M5">
-        <v>1.014267187933504</v>
+        <v>1.014267187933503</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003982057564118</v>
+        <v>1.003982057564119</v>
       </c>
       <c r="D6">
-        <v>1.01981113373535</v>
+        <v>1.019811133735351</v>
       </c>
       <c r="E6">
-        <v>0.985616512216954</v>
+        <v>0.9856165122169538</v>
       </c>
       <c r="F6">
-        <v>1.004733949161179</v>
+        <v>1.00473394916118</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044920814751431</v>
       </c>
       <c r="J6">
-        <v>1.02275597554045</v>
+        <v>1.022755975540451</v>
       </c>
       <c r="K6">
         <v>1.029420709195944</v>
       </c>
       <c r="L6">
-        <v>0.9956241929430029</v>
+        <v>0.9956241929430028</v>
       </c>
       <c r="M6">
-        <v>1.014514930804881</v>
+        <v>1.014514930804882</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002026755887018</v>
+        <v>1.002026755887019</v>
       </c>
       <c r="D7">
-        <v>1.018345376017375</v>
+        <v>1.018345376017376</v>
       </c>
       <c r="E7">
-        <v>0.9839725754016687</v>
+        <v>0.9839725754016694</v>
       </c>
       <c r="F7">
-        <v>1.00274123819124</v>
+        <v>1.002741238191241</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044282130895147</v>
       </c>
       <c r="J7">
-        <v>1.021372686985866</v>
+        <v>1.021372686985867</v>
       </c>
       <c r="K7">
-        <v>1.028224389031851</v>
+        <v>1.028224389031852</v>
       </c>
       <c r="L7">
-        <v>0.9942652973412295</v>
+        <v>0.9942652973412303</v>
       </c>
       <c r="M7">
-        <v>1.01280370070743</v>
+        <v>1.012803700707431</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936158129791217</v>
+        <v>0.9936158129791215</v>
       </c>
       <c r="D8">
         <v>1.012043527084442</v>
       </c>
       <c r="E8">
-        <v>0.9769382972556357</v>
+        <v>0.9769382972556353</v>
       </c>
       <c r="F8">
-        <v>0.9941919604275586</v>
+        <v>0.994191960427558</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1.023062795431173</v>
       </c>
       <c r="L8">
-        <v>0.9884399888821206</v>
+        <v>0.9884399888821201</v>
       </c>
       <c r="M8">
         <v>1.005451184344665</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777929284488002</v>
+        <v>0.9777929284488007</v>
       </c>
       <c r="D9">
         <v>1.000208295645563</v>
       </c>
       <c r="E9">
-        <v>0.9638587345105727</v>
+        <v>0.9638587345105732</v>
       </c>
       <c r="F9">
-        <v>0.9782002068595754</v>
+        <v>0.9782002068595762</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036155926946707</v>
       </c>
       <c r="J9">
-        <v>1.004155005933586</v>
+        <v>1.004155005933587</v>
       </c>
       <c r="K9">
         <v>1.013297994301788</v>
       </c>
       <c r="L9">
-        <v>0.977566721139729</v>
+        <v>0.9775667211397295</v>
       </c>
       <c r="M9">
-        <v>0.9916571580160313</v>
+        <v>0.991657158016032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9664584629879457</v>
+        <v>0.9664584629879462</v>
       </c>
       <c r="D10">
-        <v>0.9917517138353176</v>
+        <v>0.9917517138353178</v>
       </c>
       <c r="E10">
-        <v>0.954603994570989</v>
+        <v>0.9546039945709894</v>
       </c>
       <c r="F10">
-        <v>0.9668113638436996</v>
+        <v>0.9668113638437001</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032249739691675</v>
       </c>
       <c r="J10">
-        <v>0.9960690951161458</v>
+        <v>0.9960690951161462</v>
       </c>
       <c r="K10">
-        <v>1.006271507920198</v>
+        <v>1.006271507920199</v>
       </c>
       <c r="L10">
-        <v>0.9698442905643656</v>
+        <v>0.9698442905643663</v>
       </c>
       <c r="M10">
-        <v>0.981806869221555</v>
+        <v>0.9818068692215555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9613350655043238</v>
+        <v>0.961335065504324</v>
       </c>
       <c r="D11">
-        <v>0.9879362171584006</v>
+        <v>0.9879362171584007</v>
       </c>
       <c r="E11">
-        <v>0.9504505199173695</v>
+        <v>0.95045051991737</v>
       </c>
       <c r="F11">
-        <v>0.961680354753733</v>
+        <v>0.9616803547537333</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030467207852394</v>
       </c>
       <c r="J11">
-        <v>0.9924097591289153</v>
+        <v>0.9924097591289155</v>
       </c>
       <c r="K11">
         <v>1.003089282039755</v>
       </c>
       <c r="L11">
-        <v>0.9663715352690382</v>
+        <v>0.9663715352690385</v>
       </c>
       <c r="M11">
-        <v>0.9773630060224433</v>
+        <v>0.9773630060224434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9593967998561925</v>
+        <v>0.9593967998561928</v>
       </c>
       <c r="D12">
-        <v>0.9864939954023013</v>
+        <v>0.9864939954023015</v>
       </c>
       <c r="E12">
-        <v>0.9488839317511296</v>
+        <v>0.9488839317511299</v>
       </c>
       <c r="F12">
-        <v>0.9597418714640698</v>
+        <v>0.95974187146407</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.0297904235109</v>
       </c>
       <c r="J12">
-        <v>0.9910248235494995</v>
+        <v>0.9910248235494998</v>
       </c>
       <c r="K12">
         <v>1.001884605598722</v>
       </c>
       <c r="L12">
-        <v>0.9650606369521854</v>
+        <v>0.9650606369521859</v>
       </c>
       <c r="M12">
-        <v>0.9756832490486088</v>
+        <v>0.975683249048609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598142068622779</v>
+        <v>0.9598142068622771</v>
       </c>
       <c r="D13">
-        <v>0.9868045196807748</v>
+        <v>0.986804519680774</v>
       </c>
       <c r="E13">
-        <v>0.9492210793787149</v>
+        <v>0.9492210793787144</v>
       </c>
       <c r="F13">
-        <v>0.9601592032376771</v>
+        <v>0.9601592032376763</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029936277053313</v>
       </c>
       <c r="J13">
-        <v>0.9913230934669499</v>
+        <v>0.9913230934669492</v>
       </c>
       <c r="K13">
-        <v>1.002144066931908</v>
+        <v>1.002144066931907</v>
       </c>
       <c r="L13">
-        <v>0.9653428053357841</v>
+        <v>0.9653428053357838</v>
       </c>
       <c r="M13">
-        <v>0.9760449192589203</v>
+        <v>0.9760449192589196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9611755836813197</v>
+        <v>0.9611755836813179</v>
       </c>
       <c r="D14">
-        <v>0.9878175238168353</v>
+        <v>0.9878175238168334</v>
       </c>
       <c r="E14">
-        <v>0.950321522270225</v>
+        <v>0.9503215222702238</v>
       </c>
       <c r="F14">
-        <v>0.9615208003391572</v>
+        <v>0.9615208003391554</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030411570055107</v>
+        <v>1.030411570055106</v>
       </c>
       <c r="J14">
-        <v>0.9922958161689939</v>
+        <v>0.9922958161689921</v>
       </c>
       <c r="K14">
-        <v>1.002990175621825</v>
+        <v>1.002990175621824</v>
       </c>
       <c r="L14">
-        <v>0.9662636135187899</v>
+        <v>0.9662636135187888</v>
       </c>
       <c r="M14">
-        <v>0.9772247646815808</v>
+        <v>0.9772247646815791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9620096170030276</v>
+        <v>0.9620096170030272</v>
       </c>
       <c r="D15">
         <v>0.9884382995540553</v>
@@ -933,7 +933,7 @@
         <v>1.030702438159208</v>
       </c>
       <c r="J15">
-        <v>0.9928916757534046</v>
+        <v>0.9928916757534045</v>
       </c>
       <c r="K15">
         <v>1.003508435786692</v>
@@ -942,7 +942,7 @@
         <v>0.9668281252325066</v>
       </c>
       <c r="M15">
-        <v>0.9779477767400754</v>
+        <v>0.9779477767400752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667937116351413</v>
+        <v>0.9667937116351419</v>
       </c>
       <c r="D16">
-        <v>0.9920015411972314</v>
+        <v>0.9920015411972322</v>
       </c>
       <c r="E16">
-        <v>0.9548764152666416</v>
+        <v>0.9548764152666419</v>
       </c>
       <c r="F16">
-        <v>0.9671474710441225</v>
+        <v>0.9671474710441229</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032366039289513</v>
       </c>
       <c r="J16">
-        <v>0.9963084616914497</v>
+        <v>0.9963084616914502</v>
       </c>
       <c r="K16">
         <v>1.006479620398681</v>
       </c>
       <c r="L16">
-        <v>0.9700719179613967</v>
+        <v>0.9700719179613968</v>
       </c>
       <c r="M16">
-        <v>0.9820978424213649</v>
+        <v>0.9820978424213653</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697350572144775</v>
+        <v>0.9697350572144781</v>
       </c>
       <c r="D17">
-        <v>0.9941942481407905</v>
+        <v>0.9941942481407912</v>
       </c>
       <c r="E17">
-        <v>0.9572699296418176</v>
+        <v>0.9572699296418182</v>
       </c>
       <c r="F17">
-        <v>0.970098277233592</v>
+        <v>0.9700982772335929</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033384516906506</v>
       </c>
       <c r="J17">
-        <v>0.9984080946761679</v>
+        <v>0.9984080946761685</v>
       </c>
       <c r="K17">
-        <v>1.008304844788336</v>
+        <v>1.008304844788337</v>
       </c>
       <c r="L17">
-        <v>0.9720710824760103</v>
+        <v>0.9720710824760108</v>
       </c>
       <c r="M17">
-        <v>0.9846517234055965</v>
+        <v>0.9846517234055971</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714301100536571</v>
+        <v>0.9714301100536572</v>
       </c>
       <c r="D18">
-        <v>0.9954585210839203</v>
+        <v>0.9954585210839209</v>
       </c>
       <c r="E18">
-        <v>0.9586520639466795</v>
+        <v>0.9586520639466806</v>
       </c>
       <c r="F18">
-        <v>0.9718003695140143</v>
+        <v>0.9718003695140148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03396985732394</v>
+        <v>1.033969857323941</v>
       </c>
       <c r="J18">
-        <v>0.9996176652196371</v>
+        <v>0.9996176652196372</v>
       </c>
       <c r="K18">
-        <v>1.009356109555091</v>
+        <v>1.009356109555092</v>
       </c>
       <c r="L18">
-        <v>0.9732248421047133</v>
+        <v>0.9732248421047145</v>
       </c>
       <c r="M18">
-        <v>0.9861242912383419</v>
+        <v>0.9861242912383424</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,22 +1067,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720046683891398</v>
+        <v>0.9720046683891397</v>
       </c>
       <c r="D19">
-        <v>0.9958871663673037</v>
+        <v>0.9958871663673036</v>
       </c>
       <c r="E19">
-        <v>0.9591210207076574</v>
+        <v>0.9591210207076579</v>
       </c>
       <c r="F19">
-        <v>0.9723775801110099</v>
+        <v>0.9723775801110101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034167992143618</v>
+        <v>1.034167992143619</v>
       </c>
       <c r="J19">
         <v>1.000027590033281</v>
@@ -1091,7 +1091,7 @@
         <v>1.009712345450431</v>
       </c>
       <c r="L19">
-        <v>0.9736162004135664</v>
+        <v>0.9736162004135669</v>
       </c>
       <c r="M19">
         <v>0.9866235685965078</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694216271849968</v>
+        <v>0.9694216271849964</v>
       </c>
       <c r="D20">
-        <v>0.9939605243897049</v>
+        <v>0.9939605243897045</v>
       </c>
       <c r="E20">
-        <v>0.957014585090681</v>
+        <v>0.9570145850906812</v>
       </c>
       <c r="F20">
-        <v>0.9697836733668893</v>
+        <v>0.9697836733668891</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033276152615573</v>
       </c>
       <c r="J20">
-        <v>0.9981844001409131</v>
+        <v>0.9981844001409127</v>
       </c>
       <c r="K20">
         <v>1.008110408560978</v>
       </c>
       <c r="L20">
-        <v>0.9718578762528464</v>
+        <v>0.9718578762528465</v>
       </c>
       <c r="M20">
-        <v>0.9843794971213953</v>
+        <v>0.9843794971213949</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9607756885053789</v>
+        <v>0.9607756885053782</v>
       </c>
       <c r="D21">
-        <v>0.9875199250122554</v>
+        <v>0.9875199250122546</v>
       </c>
       <c r="E21">
-        <v>0.9499981422587844</v>
+        <v>0.9499981422587839</v>
       </c>
       <c r="F21">
-        <v>0.9611207663583331</v>
+        <v>0.9611207663583322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030272021616395</v>
+        <v>1.030272021616394</v>
       </c>
       <c r="J21">
-        <v>0.9920100996761364</v>
+        <v>0.9920100996761356</v>
       </c>
       <c r="K21">
-        <v>1.002741657489571</v>
+        <v>1.00274165748957</v>
       </c>
       <c r="L21">
-        <v>0.9659930508703711</v>
+        <v>0.9659930508703705</v>
       </c>
       <c r="M21">
-        <v>0.9768781527384133</v>
+        <v>0.9768781527384124</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9551342786184424</v>
+        <v>0.9551342786184407</v>
       </c>
       <c r="D22">
-        <v>0.9833248602396532</v>
+        <v>0.9833248602396517</v>
       </c>
       <c r="E22">
-        <v>0.9454478342648348</v>
+        <v>0.9454478342648338</v>
       </c>
       <c r="F22">
-        <v>0.9554839186812222</v>
+        <v>0.9554839186812205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028297739190477</v>
+        <v>1.028297739190476</v>
       </c>
       <c r="J22">
-        <v>0.9879782670592825</v>
+        <v>0.9879782670592808</v>
       </c>
       <c r="K22">
-        <v>0.9992340541283294</v>
+        <v>0.999234054128328</v>
       </c>
       <c r="L22">
-        <v>0.96218339043556</v>
+        <v>0.962183390435559</v>
       </c>
       <c r="M22">
-        <v>0.9719920181097582</v>
+        <v>0.9719920181097564</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581454013306349</v>
+        <v>0.9581454013306353</v>
       </c>
       <c r="D23">
-        <v>0.9855632320176706</v>
+        <v>0.9855632320176714</v>
       </c>
       <c r="E23">
-        <v>0.9478738693455891</v>
+        <v>0.9478738693455889</v>
       </c>
       <c r="F23">
-        <v>0.9584910981423345</v>
+        <v>0.9584910981423346</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029352804059981</v>
       </c>
       <c r="J23">
-        <v>0.990130529762975</v>
+        <v>0.9901305297629754</v>
       </c>
       <c r="K23">
-        <v>1.001106628151874</v>
+        <v>1.001106628151875</v>
       </c>
       <c r="L23">
-        <v>0.9642151305924612</v>
+        <v>0.9642151305924611</v>
       </c>
       <c r="M23">
-        <v>0.9745991714073727</v>
+        <v>0.9745991714073728</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695633161255862</v>
+        <v>0.9695633161255865</v>
       </c>
       <c r="D24">
-        <v>0.9940661793680461</v>
+        <v>0.9940661793680464</v>
       </c>
       <c r="E24">
-        <v>0.9571300073125313</v>
+        <v>0.9571300073125315</v>
       </c>
       <c r="F24">
-        <v>0.9699258880291477</v>
+        <v>0.9699258880291478</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033325144649765</v>
       </c>
       <c r="J24">
-        <v>0.9982855246223999</v>
+        <v>0.9982855246224003</v>
       </c>
       <c r="K24">
         <v>1.008198307078658</v>
       </c>
       <c r="L24">
-        <v>0.9719542529196197</v>
+        <v>0.9719542529196196</v>
       </c>
       <c r="M24">
-        <v>0.9845025570375256</v>
+        <v>0.9845025570375258</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820130809280553</v>
+        <v>0.9820130809280547</v>
       </c>
       <c r="D25">
         <v>1.003361839539517</v>
       </c>
       <c r="E25">
-        <v>0.9673284731664988</v>
+        <v>0.9673284731664993</v>
       </c>
       <c r="F25">
-        <v>0.9824543983085199</v>
+        <v>0.9824543983085194</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037595327102104</v>
       </c>
       <c r="J25">
-        <v>1.007161318471519</v>
+        <v>1.007161318471518</v>
       </c>
       <c r="K25">
         <v>1.015908190488525</v>
       </c>
       <c r="L25">
-        <v>0.980456070524884</v>
+        <v>0.9804560705248844</v>
       </c>
       <c r="M25">
-        <v>0.9953313338262813</v>
+        <v>0.995331333826281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913862476461591</v>
+        <v>0.9913910631679863</v>
       </c>
       <c r="D2">
-        <v>1.010374102848165</v>
+        <v>1.010378064675494</v>
       </c>
       <c r="E2">
-        <v>0.9750834597247042</v>
+        <v>0.9750871173892562</v>
       </c>
       <c r="F2">
-        <v>0.9919316121565126</v>
+        <v>0.9919356067102817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040758220767376</v>
+        <v>1.040760445144545</v>
       </c>
       <c r="J2">
-        <v>1.013827682783175</v>
+        <v>1.013832350801352</v>
       </c>
       <c r="K2">
-        <v>1.021690777413373</v>
+        <v>1.021694685463498</v>
       </c>
       <c r="L2">
-        <v>0.9869011931851805</v>
+        <v>0.9869047965295555</v>
       </c>
       <c r="M2">
-        <v>1.003504508789803</v>
+        <v>1.003508446542462</v>
+      </c>
+      <c r="N2">
+        <v>1.011439155288926</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979064030323751</v>
+        <v>0.997907872340732</v>
       </c>
       <c r="D3">
-        <v>1.015257498946801</v>
+        <v>1.015258862621776</v>
       </c>
       <c r="E3">
-        <v>0.9805191913619112</v>
+        <v>0.9805214876185433</v>
       </c>
       <c r="F3">
-        <v>0.998548635599156</v>
+        <v>0.9985500837045171</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042926851464199</v>
+        <v>1.04292760943815</v>
       </c>
       <c r="J3">
-        <v>1.018454304782254</v>
+        <v>1.018455733806513</v>
       </c>
       <c r="K3">
-        <v>1.025698809461978</v>
+        <v>1.025700156335195</v>
       </c>
       <c r="L3">
-        <v>0.9914075541545125</v>
+        <v>0.9914098195450747</v>
       </c>
       <c r="M3">
-        <v>1.009200120649389</v>
+        <v>1.009201550158604</v>
+      </c>
+      <c r="N3">
+        <v>1.014604209704442</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002004000194977</v>
+        <v>1.002003397285862</v>
       </c>
       <c r="D4">
-        <v>1.018328319065935</v>
+        <v>1.018328070414149</v>
       </c>
       <c r="E4">
-        <v>0.9839534630827271</v>
+        <v>0.9839549240351013</v>
       </c>
       <c r="F4">
-        <v>1.002718059143252</v>
+        <v>1.002717934128582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044274680569991</v>
+        <v>1.04427452658492</v>
       </c>
       <c r="J4">
-        <v>1.021356581990119</v>
+        <v>1.021355994420241</v>
       </c>
       <c r="K4">
-        <v>1.028210457753898</v>
+        <v>1.028210211971117</v>
       </c>
       <c r="L4">
-        <v>0.9942494931295932</v>
+        <v>0.9942509357252592</v>
       </c>
       <c r="M4">
-        <v>1.012783789908421</v>
+        <v>1.012783666392437</v>
+      </c>
+      <c r="N4">
+        <v>1.016588769314762</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003699032189056</v>
+        <v>1.003697578598149</v>
       </c>
       <c r="D5">
-        <v>1.019598953923142</v>
+        <v>1.019598042667804</v>
       </c>
       <c r="E5">
-        <v>0.985378347679563</v>
+        <v>0.9853794675306814</v>
       </c>
       <c r="F5">
-        <v>1.004445381778721</v>
+        <v>1.004444611827722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044828551328425</v>
+        <v>1.044828022111401</v>
       </c>
       <c r="J5">
-        <v>1.022555815592315</v>
+        <v>1.022554397810904</v>
       </c>
       <c r="K5">
-        <v>1.029247636035696</v>
+        <v>1.029246735000573</v>
       </c>
       <c r="L5">
-        <v>0.9954273847892986</v>
+        <v>0.9954284909737061</v>
       </c>
       <c r="M5">
-        <v>1.014267187933503</v>
+        <v>1.014266426942969</v>
+      </c>
+      <c r="N5">
+        <v>1.017408577679319</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003982057564119</v>
+        <v>1.003980462292328</v>
       </c>
       <c r="D6">
-        <v>1.019811133735351</v>
+        <v>1.01981011208396</v>
       </c>
       <c r="E6">
-        <v>0.9856165122169538</v>
+        <v>0.9856175753623018</v>
       </c>
       <c r="F6">
-        <v>1.00473394916118</v>
+        <v>1.004733071844907</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044920814751431</v>
+        <v>1.044920222991072</v>
       </c>
       <c r="J6">
-        <v>1.022755975540451</v>
+        <v>1.022754419354502</v>
       </c>
       <c r="K6">
-        <v>1.029420709195944</v>
+        <v>1.029419698947928</v>
       </c>
       <c r="L6">
-        <v>0.9956241929430028</v>
+        <v>0.9956252431776182</v>
       </c>
       <c r="M6">
-        <v>1.014514930804882</v>
+        <v>1.01451406364737</v>
+      </c>
+      <c r="N6">
+        <v>1.017545395828425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002026755887019</v>
+        <v>1.002026141532811</v>
       </c>
       <c r="D7">
-        <v>1.018345376017376</v>
+        <v>1.018345118453627</v>
       </c>
       <c r="E7">
-        <v>0.9839725754016694</v>
+        <v>0.9839740317577692</v>
       </c>
       <c r="F7">
-        <v>1.002741238191241</v>
+        <v>1.002741104496258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044282130895147</v>
+        <v>1.04428197186501</v>
       </c>
       <c r="J7">
-        <v>1.021372686985867</v>
+        <v>1.021372088255403</v>
       </c>
       <c r="K7">
-        <v>1.028224389031852</v>
+        <v>1.028224134438821</v>
       </c>
       <c r="L7">
-        <v>0.9942652973412303</v>
+        <v>0.99426673540544</v>
       </c>
       <c r="M7">
-        <v>1.012803700707431</v>
+        <v>1.012803568614564</v>
+      </c>
+      <c r="N7">
+        <v>1.016599779739797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936158129791215</v>
+        <v>0.9936194772374064</v>
       </c>
       <c r="D8">
-        <v>1.012043527084442</v>
+        <v>1.01204659579485</v>
       </c>
       <c r="E8">
-        <v>0.9769382972556353</v>
+        <v>0.9769414848326202</v>
       </c>
       <c r="F8">
-        <v>0.994191960427558</v>
+        <v>0.9941950780229127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041502915102116</v>
+        <v>1.041504635829849</v>
       </c>
       <c r="J8">
-        <v>1.015410841800832</v>
+        <v>1.015414397882494</v>
       </c>
       <c r="K8">
-        <v>1.023062795431173</v>
+        <v>1.023065823805292</v>
       </c>
       <c r="L8">
-        <v>0.9884399888821201</v>
+        <v>0.9884431306621636</v>
       </c>
       <c r="M8">
-        <v>1.005451184344665</v>
+        <v>1.005454259086442</v>
+      </c>
+      <c r="N8">
+        <v>1.012522367364131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9777929284488007</v>
+        <v>0.9778049361735098</v>
       </c>
       <c r="D9">
-        <v>1.000208295645563</v>
+        <v>1.000217817506754</v>
       </c>
       <c r="E9">
-        <v>0.9638587345105732</v>
+        <v>0.9638653663223758</v>
       </c>
       <c r="F9">
-        <v>0.9782002068595762</v>
+        <v>0.9782096998130608</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036155926946707</v>
+        <v>1.036161277258177</v>
       </c>
       <c r="J9">
-        <v>1.004155005933587</v>
+        <v>1.004166562043116</v>
       </c>
       <c r="K9">
-        <v>1.013297994301788</v>
+        <v>1.013307361761927</v>
       </c>
       <c r="L9">
-        <v>0.9775667211397295</v>
+        <v>0.9775732346257884</v>
       </c>
       <c r="M9">
-        <v>0.991657158016032</v>
+        <v>0.9916664879544443</v>
+      </c>
+      <c r="N9">
+        <v>1.004817656612959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9664584629879462</v>
+        <v>0.9664767233008607</v>
       </c>
       <c r="D10">
-        <v>0.9917517138353178</v>
+        <v>0.9917660403582075</v>
       </c>
       <c r="E10">
-        <v>0.9546039945709894</v>
+        <v>0.9546132595515777</v>
       </c>
       <c r="F10">
-        <v>0.9668113638437001</v>
+        <v>0.9668256637874136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032249739691675</v>
+        <v>1.032257779029205</v>
       </c>
       <c r="J10">
-        <v>0.9960690951161462</v>
+        <v>0.9960865571151567</v>
       </c>
       <c r="K10">
-        <v>1.006271507920199</v>
+        <v>1.006285570140173</v>
       </c>
       <c r="L10">
-        <v>0.9698442905643663</v>
+        <v>0.9698533666273437</v>
       </c>
       <c r="M10">
-        <v>0.9818068692215555</v>
+        <v>0.9818208871729502</v>
+      </c>
+      <c r="N10">
+        <v>0.9992789896096488</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.961335065504324</v>
+        <v>0.9613562382220621</v>
       </c>
       <c r="D11">
-        <v>0.9879362171584007</v>
+        <v>0.9879527719337693</v>
       </c>
       <c r="E11">
-        <v>0.95045051991737</v>
+        <v>0.9504610250123707</v>
       </c>
       <c r="F11">
-        <v>0.9616803547537333</v>
+        <v>0.9616969019760889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030467207852394</v>
+        <v>1.030476490719411</v>
       </c>
       <c r="J11">
-        <v>0.9924097591289155</v>
+        <v>0.9924299459162211</v>
       </c>
       <c r="K11">
-        <v>1.003089282039755</v>
+        <v>1.003105514544375</v>
       </c>
       <c r="L11">
-        <v>0.9663715352690385</v>
+        <v>0.9663818138911185</v>
       </c>
       <c r="M11">
-        <v>0.9773630060224434</v>
+        <v>0.9773792074433454</v>
+      </c>
+      <c r="N11">
+        <v>0.9967717034956637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9593967998561928</v>
+        <v>0.959419089410345</v>
       </c>
       <c r="D12">
-        <v>0.9864939954023015</v>
+        <v>0.9865114029743245</v>
       </c>
       <c r="E12">
-        <v>0.9488839317511299</v>
+        <v>0.9488949145533919</v>
       </c>
       <c r="F12">
-        <v>0.95974187146407</v>
+        <v>0.959759281813247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0297904235109</v>
+        <v>1.029800181731658</v>
       </c>
       <c r="J12">
-        <v>0.9910248235494998</v>
+        <v>0.9910460508393688</v>
       </c>
       <c r="K12">
-        <v>1.001884605598722</v>
+        <v>1.001901667566295</v>
       </c>
       <c r="L12">
-        <v>0.9650606369521859</v>
+        <v>0.9650713781021735</v>
       </c>
       <c r="M12">
-        <v>0.975683249048609</v>
+        <v>0.9757002877231736</v>
+      </c>
+      <c r="N12">
+        <v>0.9958226878904181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598142068622771</v>
+        <v>0.9598362551896645</v>
       </c>
       <c r="D13">
-        <v>0.986804519680774</v>
+        <v>0.9868217431360193</v>
       </c>
       <c r="E13">
-        <v>0.9492210793787144</v>
+        <v>0.9492319589016296</v>
       </c>
       <c r="F13">
-        <v>0.9601592032376763</v>
+        <v>0.9601764270963737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029936277053313</v>
+        <v>1.029945932672596</v>
       </c>
       <c r="J13">
-        <v>0.9913230934669492</v>
+        <v>0.9913440962229886</v>
       </c>
       <c r="K13">
-        <v>1.002144066931907</v>
+        <v>1.002160949873747</v>
       </c>
       <c r="L13">
-        <v>0.9653428053357838</v>
+        <v>0.9653534465213401</v>
       </c>
       <c r="M13">
-        <v>0.9760449192589196</v>
+        <v>0.9760617770970589</v>
+      </c>
+      <c r="N13">
+        <v>0.9960270787543276</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9611755836813179</v>
+        <v>0.9611968479752232</v>
       </c>
       <c r="D14">
-        <v>0.9878175238168334</v>
+        <v>0.9878341485535367</v>
       </c>
       <c r="E14">
-        <v>0.9503215222702238</v>
+        <v>0.9503320664912025</v>
       </c>
       <c r="F14">
-        <v>0.9615208003391554</v>
+        <v>0.9615374183065497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030411570055106</v>
+        <v>1.030420891930697</v>
       </c>
       <c r="J14">
-        <v>0.9922958161689921</v>
+        <v>0.9923160883647819</v>
       </c>
       <c r="K14">
-        <v>1.002990175621824</v>
+        <v>1.003006476197315</v>
       </c>
       <c r="L14">
-        <v>0.9662636135187888</v>
+        <v>0.9662739300383584</v>
       </c>
       <c r="M14">
-        <v>0.9772247646815791</v>
+        <v>0.9772410347552395</v>
+      </c>
+      <c r="N14">
+        <v>0.9966936267975914</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9620096170030272</v>
+        <v>0.9620304030101274</v>
       </c>
       <c r="D15">
-        <v>0.9884382995540553</v>
+        <v>0.9884545588250946</v>
       </c>
       <c r="E15">
-        <v>0.9509963284342415</v>
+        <v>0.9510066683945807</v>
       </c>
       <c r="F15">
-        <v>0.9623553222004998</v>
+        <v>0.9623715707338191</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030702438159208</v>
+        <v>1.030711556237625</v>
       </c>
       <c r="J15">
-        <v>0.9928916757534045</v>
+        <v>0.9929115016949571</v>
       </c>
       <c r="K15">
-        <v>1.003508435786692</v>
+        <v>1.003524380724922</v>
       </c>
       <c r="L15">
-        <v>0.9668281252325066</v>
+        <v>0.9668382438757191</v>
       </c>
       <c r="M15">
-        <v>0.9779477767400752</v>
+        <v>0.9779636882496527</v>
+      </c>
+      <c r="N15">
+        <v>0.9971019217348854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667937116351419</v>
+        <v>0.9668117833265588</v>
       </c>
       <c r="D16">
-        <v>0.9920015411972322</v>
+        <v>0.9920157231910227</v>
       </c>
       <c r="E16">
-        <v>0.9548764152666419</v>
+        <v>0.9548856002184902</v>
       </c>
       <c r="F16">
-        <v>0.9671474710441229</v>
+        <v>0.9671616256205766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032366039289513</v>
+        <v>1.032373997893402</v>
       </c>
       <c r="J16">
-        <v>0.9963084616914502</v>
+        <v>0.9963257466484385</v>
       </c>
       <c r="K16">
-        <v>1.006479620398681</v>
+        <v>1.006493541698229</v>
       </c>
       <c r="L16">
-        <v>0.9700719179613968</v>
+        <v>0.9700809163262111</v>
       </c>
       <c r="M16">
-        <v>0.9820978424213653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9821117189549808</v>
+      </c>
+      <c r="N16">
+        <v>0.9994429840272026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697350572144781</v>
+        <v>0.9697514839509117</v>
       </c>
       <c r="D17">
-        <v>0.9941942481407912</v>
+        <v>0.9942071686032441</v>
       </c>
       <c r="E17">
-        <v>0.9572699296418182</v>
+        <v>0.9572784181922768</v>
       </c>
       <c r="F17">
-        <v>0.9700982772335929</v>
+        <v>0.9701111649983313</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033384516906506</v>
+        <v>1.033391770421803</v>
       </c>
       <c r="J17">
-        <v>0.9984080946761685</v>
+        <v>0.9984238327096686</v>
       </c>
       <c r="K17">
-        <v>1.008304844788337</v>
+        <v>1.008317535264941</v>
       </c>
       <c r="L17">
-        <v>0.9720710824760108</v>
+        <v>0.9720794042367004</v>
       </c>
       <c r="M17">
-        <v>0.9846517234055971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9846643666231308</v>
+      </c>
+      <c r="N17">
+        <v>1.000881401212738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714301100536572</v>
+        <v>0.9714455967734095</v>
       </c>
       <c r="D18">
-        <v>0.9954585210839209</v>
+        <v>0.9954707197570976</v>
       </c>
       <c r="E18">
-        <v>0.9586520639466806</v>
+        <v>0.9586601557842233</v>
       </c>
       <c r="F18">
-        <v>0.9718003695140148</v>
+        <v>0.9718125341049383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033969857323941</v>
+        <v>1.033976707093669</v>
       </c>
       <c r="J18">
-        <v>0.9996176652196372</v>
+        <v>0.9996325168766379</v>
       </c>
       <c r="K18">
-        <v>1.009356109555092</v>
+        <v>1.009368095171016</v>
       </c>
       <c r="L18">
-        <v>0.9732248421047145</v>
+        <v>0.9732327780393391</v>
       </c>
       <c r="M18">
-        <v>0.9861242912383424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9861362296585283</v>
+      </c>
+      <c r="N18">
+        <v>1.001709985061601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720046683891397</v>
+        <v>0.9720198377702083</v>
       </c>
       <c r="D19">
-        <v>0.9958871663673036</v>
+        <v>0.9958991212292887</v>
       </c>
       <c r="E19">
-        <v>0.9591210207076579</v>
+        <v>0.9591289788282954</v>
       </c>
       <c r="F19">
-        <v>0.9723775801110101</v>
+        <v>0.9723895006911194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034167992143619</v>
+        <v>1.034174705478792</v>
       </c>
       <c r="J19">
-        <v>1.000027590033281</v>
+        <v>1.000042142068782</v>
       </c>
       <c r="K19">
-        <v>1.009712345450431</v>
+        <v>1.009724092867343</v>
       </c>
       <c r="L19">
-        <v>0.9736162004135669</v>
+        <v>0.9736240062363191</v>
       </c>
       <c r="M19">
-        <v>0.9866235685965078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9866352690837566</v>
+      </c>
+      <c r="N19">
+        <v>1.001990780869955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694216271849964</v>
+        <v>0.9694382283685037</v>
       </c>
       <c r="D20">
-        <v>0.9939605243897045</v>
+        <v>0.993973578730631</v>
       </c>
       <c r="E20">
-        <v>0.9570145850906812</v>
+        <v>0.9570231473634209</v>
       </c>
       <c r="F20">
-        <v>0.9697836733668891</v>
+        <v>0.9697966953976106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033276152615573</v>
+        <v>1.033283480991828</v>
       </c>
       <c r="J20">
-        <v>0.9981844001409127</v>
+        <v>0.9982003024764927</v>
       </c>
       <c r="K20">
-        <v>1.008110408560978</v>
+        <v>1.008123229724643</v>
       </c>
       <c r="L20">
-        <v>0.9718578762528465</v>
+        <v>0.9718662696812778</v>
       </c>
       <c r="M20">
-        <v>0.9843794971213949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9843922711333852</v>
+      </c>
+      <c r="N20">
+        <v>1.000728159563197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9607756885053782</v>
+        <v>0.9607971826726812</v>
       </c>
       <c r="D21">
-        <v>0.9875199250122546</v>
+        <v>0.9875367253372653</v>
       </c>
       <c r="E21">
-        <v>0.9499981422587839</v>
+        <v>0.9500087847282148</v>
       </c>
       <c r="F21">
-        <v>0.9611207663583322</v>
+        <v>0.9611375619311144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030272021616394</v>
+        <v>1.030281441386081</v>
       </c>
       <c r="J21">
-        <v>0.9920100996761356</v>
+        <v>0.9920305861913177</v>
       </c>
       <c r="K21">
-        <v>1.00274165748957</v>
+        <v>1.002758128889952</v>
       </c>
       <c r="L21">
-        <v>0.9659930508703705</v>
+        <v>0.9660034625419242</v>
       </c>
       <c r="M21">
-        <v>0.9768781527384124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9768945951424342</v>
+      </c>
+      <c r="N21">
+        <v>0.9964978449560726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9551342786184407</v>
+        <v>0.9551590545830418</v>
       </c>
       <c r="D22">
-        <v>0.9833248602396517</v>
+        <v>0.9833441629890309</v>
       </c>
       <c r="E22">
-        <v>0.9454478342648338</v>
+        <v>0.9454598847103644</v>
       </c>
       <c r="F22">
-        <v>0.9554839186812205</v>
+        <v>0.9555032532492509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028297739190476</v>
+        <v>1.028308552695046</v>
       </c>
       <c r="J22">
-        <v>0.9879782670592808</v>
+        <v>0.9880018021171248</v>
       </c>
       <c r="K22">
-        <v>0.999234054128328</v>
+        <v>0.999252957175509</v>
       </c>
       <c r="L22">
-        <v>0.962183390435559</v>
+        <v>0.9621951639013964</v>
       </c>
       <c r="M22">
-        <v>0.9719920181097564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.972010920622992</v>
+      </c>
+      <c r="N22">
+        <v>0.9937349098587993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581454013306353</v>
+        <v>0.9581684164719383</v>
       </c>
       <c r="D23">
-        <v>0.9855632320176714</v>
+        <v>0.9855811931295402</v>
       </c>
       <c r="E23">
-        <v>0.9478738693455889</v>
+        <v>0.947885163126914</v>
       </c>
       <c r="F23">
-        <v>0.9584910981423346</v>
+        <v>0.9585090696444581</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029352804059981</v>
+        <v>1.02936287066157</v>
       </c>
       <c r="J23">
-        <v>0.9901305297629754</v>
+        <v>0.9901524317475338</v>
       </c>
       <c r="K23">
-        <v>1.001106628151875</v>
+        <v>1.001124228177045</v>
       </c>
       <c r="L23">
-        <v>0.9642151305924611</v>
+        <v>0.9642261726303047</v>
       </c>
       <c r="M23">
-        <v>0.9745991714073728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9746167540102533</v>
+      </c>
+      <c r="N23">
+        <v>0.9952098567053452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695633161255865</v>
+        <v>0.9695798384241548</v>
       </c>
       <c r="D24">
-        <v>0.9940661793680464</v>
+        <v>0.9940791731718804</v>
       </c>
       <c r="E24">
-        <v>0.9571300073125315</v>
+        <v>0.9571385362441837</v>
       </c>
       <c r="F24">
-        <v>0.9699258880291478</v>
+        <v>0.96993884934248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033325144649765</v>
+        <v>1.03333243917645</v>
       </c>
       <c r="J24">
-        <v>0.9982855246224003</v>
+        <v>0.9983013526679918</v>
       </c>
       <c r="K24">
-        <v>1.008198307078658</v>
+        <v>1.008211069150313</v>
       </c>
       <c r="L24">
-        <v>0.9719542529196196</v>
+        <v>0.9719626139373491</v>
       </c>
       <c r="M24">
-        <v>0.9845025570375258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9845152719043238</v>
+      </c>
+      <c r="N24">
+        <v>1.000797434973179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820130809280547</v>
+        <v>0.9820228222987216</v>
       </c>
       <c r="D25">
-        <v>1.003361839539517</v>
+        <v>1.003369613088179</v>
       </c>
       <c r="E25">
-        <v>0.9673284731664993</v>
+        <v>0.9673341611135977</v>
       </c>
       <c r="F25">
-        <v>0.9824543983085194</v>
+        <v>0.9824621550026141</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037595327102104</v>
+        <v>1.037599696192719</v>
       </c>
       <c r="J25">
-        <v>1.007161318471518</v>
+        <v>1.007170714966375</v>
       </c>
       <c r="K25">
-        <v>1.015908190488525</v>
+        <v>1.015915844394072</v>
       </c>
       <c r="L25">
-        <v>0.9804560705248844</v>
+        <v>0.9804616623122271</v>
       </c>
       <c r="M25">
-        <v>0.995331333826281</v>
+        <v>0.9953389645222451</v>
+      </c>
+      <c r="N25">
+        <v>1.006876201589491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913910631679863</v>
+        <v>1.026894389354375</v>
       </c>
       <c r="D2">
-        <v>1.010378064675494</v>
+        <v>1.043052663311694</v>
       </c>
       <c r="E2">
-        <v>0.9750871173892562</v>
+        <v>1.035717453474574</v>
       </c>
       <c r="F2">
-        <v>0.9919356067102817</v>
+        <v>1.048198542166811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040760445144545</v>
+        <v>1.053790572861687</v>
       </c>
       <c r="J2">
-        <v>1.013832350801352</v>
+        <v>1.048299407608392</v>
       </c>
       <c r="K2">
-        <v>1.021694685463498</v>
+        <v>1.0539431017162</v>
       </c>
       <c r="L2">
-        <v>0.9869047965295555</v>
+        <v>1.046700641811697</v>
       </c>
       <c r="M2">
-        <v>1.003508446542462</v>
+        <v>1.059024878446171</v>
       </c>
       <c r="N2">
-        <v>1.011439155288926</v>
+        <v>1.049788113008819</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997907872340732</v>
+        <v>1.034373336711123</v>
       </c>
       <c r="D3">
-        <v>1.015258862621776</v>
+        <v>1.048870661127605</v>
       </c>
       <c r="E3">
-        <v>0.9805214876185433</v>
+        <v>1.041461353944316</v>
       </c>
       <c r="F3">
-        <v>0.9985500837045171</v>
+        <v>1.05433928479381</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04292760943815</v>
+        <v>1.056198098614366</v>
       </c>
       <c r="J3">
-        <v>1.018455733806513</v>
+        <v>1.053968876861775</v>
       </c>
       <c r="K3">
-        <v>1.025700156335195</v>
+        <v>1.058914206114683</v>
       </c>
       <c r="L3">
-        <v>0.9914098195450747</v>
+        <v>1.05158985147519</v>
       </c>
       <c r="M3">
-        <v>1.009201550158604</v>
+        <v>1.064321071717694</v>
       </c>
       <c r="N3">
-        <v>1.014604209704442</v>
+        <v>1.055465633558839</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002003397285862</v>
+        <v>1.039073309131625</v>
       </c>
       <c r="D4">
-        <v>1.018328070414149</v>
+        <v>1.052530040416713</v>
       </c>
       <c r="E4">
-        <v>0.9839549240351013</v>
+        <v>1.045083666580854</v>
       </c>
       <c r="F4">
-        <v>1.002717934128582</v>
+        <v>1.058207166040396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04427452658492</v>
+        <v>1.057699724613945</v>
       </c>
       <c r="J4">
-        <v>1.021355994420241</v>
+        <v>1.057527706024237</v>
       </c>
       <c r="K4">
-        <v>1.028210211971117</v>
+        <v>1.062033263489114</v>
       </c>
       <c r="L4">
-        <v>0.9942509357252592</v>
+        <v>1.054666795896531</v>
       </c>
       <c r="M4">
-        <v>1.012783666392437</v>
+        <v>1.067650392188462</v>
       </c>
       <c r="N4">
-        <v>1.016588769314762</v>
+        <v>1.059029516666915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003697578598149</v>
+        <v>1.041017611061789</v>
       </c>
       <c r="D5">
-        <v>1.019598042667804</v>
+        <v>1.054044521970427</v>
       </c>
       <c r="E5">
-        <v>0.9853794675306814</v>
+        <v>1.046585046928663</v>
       </c>
       <c r="F5">
-        <v>1.004444611827722</v>
+        <v>1.059809243041435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044828022111401</v>
+        <v>1.058318138262642</v>
       </c>
       <c r="J5">
-        <v>1.022554397810904</v>
+        <v>1.05899890397625</v>
       </c>
       <c r="K5">
-        <v>1.029246735000573</v>
+        <v>1.063322299910732</v>
       </c>
       <c r="L5">
-        <v>0.9954284909737061</v>
+        <v>1.055940614508774</v>
       </c>
       <c r="M5">
-        <v>1.014266426942969</v>
+        <v>1.069027818960564</v>
       </c>
       <c r="N5">
-        <v>1.017408577679319</v>
+        <v>1.060502803888768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003980462292328</v>
+        <v>1.041342266709752</v>
       </c>
       <c r="D6">
-        <v>1.01981011208396</v>
+        <v>1.054297442591345</v>
       </c>
       <c r="E6">
-        <v>0.9856175753623018</v>
+        <v>1.046835909966154</v>
       </c>
       <c r="F6">
-        <v>1.004733071844907</v>
+        <v>1.060076868490213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044920222991072</v>
+        <v>1.058421234106841</v>
       </c>
       <c r="J6">
-        <v>1.022754419354502</v>
+        <v>1.05924449911348</v>
       </c>
       <c r="K6">
-        <v>1.029419698947928</v>
+        <v>1.063537463719056</v>
       </c>
       <c r="L6">
-        <v>0.9956252431776182</v>
+        <v>1.056153365765666</v>
       </c>
       <c r="M6">
-        <v>1.01451406364737</v>
+        <v>1.069257824150681</v>
       </c>
       <c r="N6">
-        <v>1.017545395828425</v>
+        <v>1.060748747799263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002026141532811</v>
+        <v>1.039099410740868</v>
       </c>
       <c r="D7">
-        <v>1.018345118453627</v>
+        <v>1.05255036937368</v>
       </c>
       <c r="E7">
-        <v>0.9839740317577692</v>
+        <v>1.045103810881598</v>
       </c>
       <c r="F7">
-        <v>1.002741104496258</v>
+        <v>1.058228665654988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04428197186501</v>
+        <v>1.05770803771678</v>
       </c>
       <c r="J7">
-        <v>1.021372088255403</v>
+        <v>1.05754746053782</v>
       </c>
       <c r="K7">
-        <v>1.028224134438821</v>
+        <v>1.062050573499289</v>
       </c>
       <c r="L7">
-        <v>0.99426673540544</v>
+        <v>1.054683892943077</v>
       </c>
       <c r="M7">
-        <v>1.012803568614564</v>
+        <v>1.067668883268627</v>
       </c>
       <c r="N7">
-        <v>1.016599779739797</v>
+        <v>1.059049299234173</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936194772374064</v>
+        <v>1.029451935585806</v>
       </c>
       <c r="D8">
-        <v>1.01204659579485</v>
+        <v>1.04504147769415</v>
       </c>
       <c r="E8">
-        <v>0.9769414848326202</v>
+        <v>1.037678895843309</v>
       </c>
       <c r="F8">
-        <v>0.9941950780229127</v>
+        <v>1.05029651234165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041504635829849</v>
+        <v>1.054616212437836</v>
       </c>
       <c r="J8">
-        <v>1.015414397882494</v>
+        <v>1.050238978425855</v>
       </c>
       <c r="K8">
-        <v>1.023065823805292</v>
+        <v>1.055644033289389</v>
       </c>
       <c r="L8">
-        <v>0.9884431306621636</v>
+        <v>1.048371569677915</v>
       </c>
       <c r="M8">
-        <v>1.005454259086442</v>
+        <v>1.060835704914666</v>
       </c>
       <c r="N8">
-        <v>1.012522367364131</v>
+        <v>1.051730438239314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9778049361735098</v>
+        <v>1.011294427207955</v>
       </c>
       <c r="D9">
-        <v>1.000217817506754</v>
+        <v>1.030940557939274</v>
       </c>
       <c r="E9">
-        <v>0.9638653663223758</v>
+        <v>1.023815499118827</v>
       </c>
       <c r="F9">
-        <v>0.9782096998130608</v>
+        <v>1.035446179500337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036161277258177</v>
+        <v>1.048708575480468</v>
       </c>
       <c r="J9">
-        <v>1.004166562043116</v>
+        <v>1.036454558772725</v>
       </c>
       <c r="K9">
-        <v>1.013307361761927</v>
+        <v>1.043550827533904</v>
       </c>
       <c r="L9">
-        <v>0.9775732346257884</v>
+        <v>1.036533652022938</v>
       </c>
       <c r="M9">
-        <v>0.9916664879544443</v>
+        <v>1.04798920188778</v>
       </c>
       <c r="N9">
-        <v>1.004817656612959</v>
+        <v>1.037926443129183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9664767233008607</v>
+        <v>0.9982703811889405</v>
       </c>
       <c r="D10">
-        <v>0.9917660403582075</v>
+        <v>1.020856707272931</v>
       </c>
       <c r="E10">
-        <v>0.9546132595515777</v>
+        <v>1.013960190769142</v>
       </c>
       <c r="F10">
-        <v>0.9668256637874136</v>
+        <v>1.024858866319667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032257779029205</v>
+        <v>1.044415896528976</v>
       </c>
       <c r="J10">
-        <v>0.9960865571151567</v>
+        <v>1.026552791107156</v>
       </c>
       <c r="K10">
-        <v>1.006285570140173</v>
+        <v>1.034859328802122</v>
       </c>
       <c r="L10">
-        <v>0.9698533666273437</v>
+        <v>1.028081882761708</v>
       </c>
       <c r="M10">
-        <v>0.9818208871729502</v>
+        <v>1.038793337738419</v>
       </c>
       <c r="N10">
-        <v>0.9992789896096488</v>
+        <v>1.028010613817779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9613562382220621</v>
+        <v>0.9923760411760191</v>
       </c>
       <c r="D11">
-        <v>0.9879527719337693</v>
+        <v>1.016302564251003</v>
       </c>
       <c r="E11">
-        <v>0.9504610250123707</v>
+        <v>1.00952434294366</v>
       </c>
       <c r="F11">
-        <v>0.9616969019760889</v>
+        <v>1.020085466339414</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030476490719411</v>
+        <v>1.042461305524569</v>
       </c>
       <c r="J11">
-        <v>0.9924299459162211</v>
+        <v>1.022069461539832</v>
       </c>
       <c r="K11">
-        <v>1.003105514544375</v>
+        <v>1.030923450400579</v>
       </c>
       <c r="L11">
-        <v>0.9663818138911185</v>
+        <v>1.024268851859887</v>
       </c>
       <c r="M11">
-        <v>0.9773792074433454</v>
+        <v>1.034638286801878</v>
       </c>
       <c r="N11">
-        <v>0.9967717034956637</v>
+        <v>1.023520917408225</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.959419089410345</v>
+        <v>0.9901447119942256</v>
       </c>
       <c r="D12">
-        <v>0.9865114029743245</v>
+        <v>1.014580227607553</v>
       </c>
       <c r="E12">
-        <v>0.9488949145533919</v>
+        <v>1.007849121505041</v>
       </c>
       <c r="F12">
-        <v>0.959759281813247</v>
+        <v>1.018281469494494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029800181731658</v>
+        <v>1.041719730425755</v>
       </c>
       <c r="J12">
-        <v>0.9910460508393688</v>
+        <v>1.020372102112748</v>
       </c>
       <c r="K12">
-        <v>1.001901667566295</v>
+        <v>1.029433324812766</v>
       </c>
       <c r="L12">
-        <v>0.9650713781021735</v>
+        <v>1.022827474028708</v>
       </c>
       <c r="M12">
-        <v>0.9757002877231736</v>
+        <v>1.033066611003243</v>
       </c>
       <c r="N12">
-        <v>0.9958226878904181</v>
+        <v>1.021821147536064</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598362551896645</v>
+        <v>0.9906252994577639</v>
       </c>
       <c r="D13">
-        <v>0.9868217431360193</v>
+        <v>1.014951108899945</v>
       </c>
       <c r="E13">
-        <v>0.9492319589016296</v>
+        <v>1.00820974796585</v>
       </c>
       <c r="F13">
-        <v>0.9601764270963737</v>
+        <v>1.018669877553703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029945932672596</v>
+        <v>1.041879524749725</v>
       </c>
       <c r="J13">
-        <v>0.9913440962229886</v>
+        <v>1.020737687847101</v>
       </c>
       <c r="K13">
-        <v>1.002160949873747</v>
+        <v>1.029754275829419</v>
       </c>
       <c r="L13">
-        <v>0.9653534465213401</v>
+        <v>1.023137822932316</v>
       </c>
       <c r="M13">
-        <v>0.9760617770970589</v>
+        <v>1.033405061510976</v>
       </c>
       <c r="N13">
-        <v>0.9960270787543276</v>
+        <v>1.022187252444093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9611968479752232</v>
+        <v>0.9921924763587802</v>
       </c>
       <c r="D14">
-        <v>0.9878341485535367</v>
+        <v>1.016160837822814</v>
       </c>
       <c r="E14">
-        <v>0.9503320664912025</v>
+        <v>1.00938644459556</v>
       </c>
       <c r="F14">
-        <v>0.9615374183065497</v>
+        <v>1.019936994485901</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030420891930697</v>
+        <v>1.04240033116951</v>
       </c>
       <c r="J14">
-        <v>0.9923160883647819</v>
+        <v>1.021929827548177</v>
       </c>
       <c r="K14">
-        <v>1.003006476197315</v>
+        <v>1.030800864825055</v>
       </c>
       <c r="L14">
-        <v>0.9662739300383584</v>
+        <v>1.024150230596865</v>
       </c>
       <c r="M14">
-        <v>0.9772410347552395</v>
+        <v>1.034508963244424</v>
       </c>
       <c r="N14">
-        <v>0.9966936267975914</v>
+        <v>1.023381085120286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9620304030101274</v>
+        <v>0.9931523961239647</v>
       </c>
       <c r="D15">
-        <v>0.9884545588250946</v>
+        <v>1.01690203975597</v>
       </c>
       <c r="E15">
-        <v>0.9510066683945807</v>
+        <v>1.010107723740787</v>
       </c>
       <c r="F15">
-        <v>0.9623715707338191</v>
+        <v>1.020713525210531</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030711556237625</v>
+        <v>1.042719119254367</v>
       </c>
       <c r="J15">
-        <v>0.9929115016949571</v>
+        <v>1.022660012559109</v>
       </c>
       <c r="K15">
-        <v>1.003524380724922</v>
+        <v>1.031441898128196</v>
       </c>
       <c r="L15">
-        <v>0.9668382438757191</v>
+        <v>1.024770624932972</v>
       </c>
       <c r="M15">
-        <v>0.9779636882496527</v>
+        <v>1.035185289609838</v>
       </c>
       <c r="N15">
-        <v>0.9971019217348854</v>
+        <v>1.024112307077685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668117833265588</v>
+        <v>0.9986559012108172</v>
       </c>
       <c r="D16">
-        <v>0.9920157231910227</v>
+        <v>1.021154787039883</v>
       </c>
       <c r="E16">
-        <v>0.9548856002184902</v>
+        <v>1.014250849213665</v>
       </c>
       <c r="F16">
-        <v>0.9671616256205766</v>
+        <v>1.025171468489704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032373997893402</v>
+        <v>1.044543501839541</v>
       </c>
       <c r="J16">
-        <v>0.9963257466484385</v>
+        <v>1.026845992253117</v>
       </c>
       <c r="K16">
-        <v>1.006493541698229</v>
+        <v>1.035116720925497</v>
       </c>
       <c r="L16">
-        <v>0.9700809163262111</v>
+        <v>1.02833154411585</v>
       </c>
       <c r="M16">
-        <v>0.9821117189549808</v>
+        <v>1.039065257276354</v>
       </c>
       <c r="N16">
-        <v>0.9994429840272026</v>
+        <v>1.028304231342998</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697514839509117</v>
+        <v>1.002037460981494</v>
       </c>
       <c r="D17">
-        <v>0.9942071686032441</v>
+        <v>1.023770471929983</v>
       </c>
       <c r="E17">
-        <v>0.9572784181922768</v>
+        <v>1.016803126456301</v>
       </c>
       <c r="F17">
-        <v>0.9701111649983313</v>
+        <v>1.027915510786205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033391770421803</v>
+        <v>1.045661459989007</v>
       </c>
       <c r="J17">
-        <v>0.9984238327096686</v>
+        <v>1.029417567103451</v>
       </c>
       <c r="K17">
-        <v>1.008317535264941</v>
+        <v>1.037374171518328</v>
       </c>
       <c r="L17">
-        <v>0.9720794042367004</v>
+        <v>1.030522813667057</v>
       </c>
       <c r="M17">
-        <v>0.9846643666231308</v>
+        <v>1.041451165339853</v>
       </c>
       <c r="N17">
-        <v>1.000881401212738</v>
+        <v>1.030879458124584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714455967734095</v>
+        <v>1.003985546848388</v>
       </c>
       <c r="D18">
-        <v>0.9954707197570976</v>
+        <v>1.025278225197769</v>
       </c>
       <c r="E18">
-        <v>0.9586601557842233</v>
+        <v>1.018275740423224</v>
       </c>
       <c r="F18">
-        <v>0.9718125341049383</v>
+        <v>1.029498013812191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033976707093669</v>
+        <v>1.046304384811617</v>
       </c>
       <c r="J18">
-        <v>0.9996325168766379</v>
+        <v>1.030898826009369</v>
       </c>
       <c r="K18">
-        <v>1.009368095171016</v>
+        <v>1.038674437002562</v>
       </c>
       <c r="L18">
-        <v>0.9732327780393391</v>
+        <v>1.031786295142014</v>
       </c>
       <c r="M18">
-        <v>0.9861362296585283</v>
+        <v>1.042826284290828</v>
       </c>
       <c r="N18">
-        <v>1.001709985061601</v>
+        <v>1.03236282058805</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9720198377702083</v>
+        <v>1.004645771142219</v>
       </c>
       <c r="D19">
-        <v>0.9958991212292887</v>
+        <v>1.025789359990687</v>
       </c>
       <c r="E19">
-        <v>0.9591289788282954</v>
+        <v>1.018775199042197</v>
       </c>
       <c r="F19">
-        <v>0.9723895006911194</v>
+        <v>1.030034617056717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034174705478792</v>
+        <v>1.046522084444042</v>
       </c>
       <c r="J19">
-        <v>1.000042142068782</v>
+        <v>1.031400800362765</v>
       </c>
       <c r="K19">
-        <v>1.009724092867343</v>
+        <v>1.039115065027134</v>
       </c>
       <c r="L19">
-        <v>0.9736240062363191</v>
+        <v>1.032214682000805</v>
       </c>
       <c r="M19">
-        <v>0.9866352690837566</v>
+        <v>1.043292423612927</v>
       </c>
       <c r="N19">
-        <v>1.001990780869955</v>
+        <v>1.032865507802605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694382283685037</v>
+        <v>1.001677191927742</v>
       </c>
       <c r="D20">
-        <v>0.993973578730631</v>
+        <v>1.023491705614819</v>
       </c>
       <c r="E20">
-        <v>0.9570231473634209</v>
+        <v>1.016530970485495</v>
       </c>
       <c r="F20">
-        <v>0.9697966953976106</v>
+        <v>1.027622985452038</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033283480991828</v>
+        <v>1.045542469144049</v>
       </c>
       <c r="J20">
-        <v>0.9982003024764927</v>
+        <v>1.029143613385007</v>
       </c>
       <c r="K20">
-        <v>1.008123229724643</v>
+        <v>1.037133687180613</v>
       </c>
       <c r="L20">
-        <v>0.9718662696812778</v>
+        <v>1.030289240125059</v>
       </c>
       <c r="M20">
-        <v>0.9843922711333852</v>
+        <v>1.041196906507459</v>
       </c>
       <c r="N20">
-        <v>1.000728159563197</v>
+        <v>1.030605115360436</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9607971826726812</v>
+        <v>0.9917321701626073</v>
       </c>
       <c r="D21">
-        <v>0.9875367253372653</v>
+        <v>1.015805472760965</v>
       </c>
       <c r="E21">
-        <v>0.9500087847282148</v>
+        <v>1.009040716700008</v>
       </c>
       <c r="F21">
-        <v>0.9611375619311144</v>
+        <v>1.019564736360795</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030281441386081</v>
+        <v>1.042247406005488</v>
       </c>
       <c r="J21">
-        <v>0.9920305861913177</v>
+        <v>1.021579679737294</v>
       </c>
       <c r="K21">
-        <v>1.002758128889952</v>
+        <v>1.030493467564871</v>
       </c>
       <c r="L21">
-        <v>0.9660034625419242</v>
+        <v>1.02385281060861</v>
       </c>
       <c r="M21">
-        <v>0.9768945951424342</v>
+        <v>1.034184692854218</v>
       </c>
       <c r="N21">
-        <v>0.9964978449560726</v>
+        <v>1.023030440059348</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9551590545830418</v>
+        <v>0.9852347136183371</v>
       </c>
       <c r="D22">
-        <v>0.9833441629890309</v>
+        <v>1.010793578432646</v>
       </c>
       <c r="E22">
-        <v>0.9454598847103644</v>
+        <v>1.00417057718851</v>
       </c>
       <c r="F22">
-        <v>0.9555032532492509</v>
+        <v>1.014317661433801</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028308552695046</v>
+        <v>1.040085000829568</v>
       </c>
       <c r="J22">
-        <v>0.9880018021171248</v>
+        <v>1.016636933467928</v>
       </c>
       <c r="K22">
-        <v>0.999252957175509</v>
+        <v>1.026154202630745</v>
       </c>
       <c r="L22">
-        <v>0.9621951639013964</v>
+        <v>1.019659864421212</v>
       </c>
       <c r="M22">
-        <v>0.972010920622992</v>
+        <v>1.029610720366641</v>
       </c>
       <c r="N22">
-        <v>0.9937349098587993</v>
+        <v>1.018080674523339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581684164719383</v>
+        <v>0.9887036633808489</v>
       </c>
       <c r="D23">
-        <v>0.9855811931295402</v>
+        <v>1.013468395576779</v>
       </c>
       <c r="E23">
-        <v>0.947885163126914</v>
+        <v>1.006768389309241</v>
       </c>
       <c r="F23">
-        <v>0.9585090696444581</v>
+        <v>1.017117283800138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02936287066157</v>
+        <v>1.041240352242951</v>
       </c>
       <c r="J23">
-        <v>0.9901524317475338</v>
+        <v>1.019275873408725</v>
       </c>
       <c r="K23">
-        <v>1.001124228177045</v>
+        <v>1.028470936071892</v>
       </c>
       <c r="L23">
-        <v>0.9642261726303047</v>
+        <v>1.021897211961934</v>
       </c>
       <c r="M23">
-        <v>0.9746167540102533</v>
+        <v>1.032051962131271</v>
       </c>
       <c r="N23">
-        <v>0.9952098567053452</v>
+        <v>1.020723362061543</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695798384241548</v>
+        <v>1.001840056895608</v>
       </c>
       <c r="D24">
-        <v>0.9940791731718804</v>
+        <v>1.023617723340777</v>
       </c>
       <c r="E24">
-        <v>0.9571385362441837</v>
+        <v>1.016653995599017</v>
       </c>
       <c r="F24">
-        <v>0.96993884934248</v>
+        <v>1.027755220651883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03333243917645</v>
+        <v>1.045596264210352</v>
       </c>
       <c r="J24">
-        <v>0.9983013526679918</v>
+        <v>1.029267458862961</v>
       </c>
       <c r="K24">
-        <v>1.008211069150313</v>
+        <v>1.037242402422389</v>
       </c>
       <c r="L24">
-        <v>0.9719626139373491</v>
+        <v>1.030394827075826</v>
       </c>
       <c r="M24">
-        <v>0.9845152719043238</v>
+        <v>1.041311846076338</v>
       </c>
       <c r="N24">
-        <v>1.000797434973179</v>
+        <v>1.030729136713174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820228222987216</v>
+        <v>1.016139281867905</v>
       </c>
       <c r="D25">
-        <v>1.003369613088179</v>
+        <v>1.034698516325642</v>
       </c>
       <c r="E25">
-        <v>0.9673341611135977</v>
+        <v>1.027500491380935</v>
       </c>
       <c r="F25">
-        <v>0.9824621550026141</v>
+        <v>1.039398448211936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037599696192719</v>
+        <v>1.050294656600782</v>
       </c>
       <c r="J25">
-        <v>1.007170714966375</v>
+        <v>1.040135440394381</v>
       </c>
       <c r="K25">
-        <v>1.015915844394072</v>
+        <v>1.046781045026316</v>
       </c>
       <c r="L25">
-        <v>0.9804616623122271</v>
+        <v>1.039686386801201</v>
       </c>
       <c r="M25">
-        <v>0.9953389645222451</v>
+        <v>1.051414460096761</v>
       </c>
       <c r="N25">
-        <v>1.006876201589491</v>
+        <v>1.041612552024943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026894389354375</v>
+        <v>1.002780370624218</v>
       </c>
       <c r="D2">
-        <v>1.043052663311694</v>
+        <v>1.023979105339272</v>
       </c>
       <c r="E2">
-        <v>1.035717453474574</v>
+        <v>1.023718994423217</v>
       </c>
       <c r="F2">
-        <v>1.048198542166811</v>
+        <v>1.031679511374817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053790572861687</v>
+        <v>1.045681115668443</v>
       </c>
       <c r="J2">
-        <v>1.048299407608392</v>
+        <v>1.024878238117796</v>
       </c>
       <c r="K2">
-        <v>1.0539431017162</v>
+        <v>1.035114183093054</v>
       </c>
       <c r="L2">
-        <v>1.046700641811697</v>
+        <v>1.034857487346275</v>
       </c>
       <c r="M2">
-        <v>1.059024878446171</v>
+        <v>1.042714461249098</v>
       </c>
       <c r="N2">
-        <v>1.049788113008819</v>
+        <v>1.011824119897293</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034373336711123</v>
+        <v>1.008030211880785</v>
       </c>
       <c r="D3">
-        <v>1.048870661127605</v>
+        <v>1.027797253389451</v>
       </c>
       <c r="E3">
-        <v>1.041461353944316</v>
+        <v>1.028005634256171</v>
       </c>
       <c r="F3">
-        <v>1.05433928479381</v>
+        <v>1.036039203829973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056198098614366</v>
+        <v>1.046936532526135</v>
       </c>
       <c r="J3">
-        <v>1.053968876861775</v>
+        <v>1.028304333525315</v>
       </c>
       <c r="K3">
-        <v>1.058914206114683</v>
+        <v>1.038086400474865</v>
       </c>
       <c r="L3">
-        <v>1.05158985147519</v>
+        <v>1.038292291637999</v>
       </c>
       <c r="M3">
-        <v>1.064321071717694</v>
+        <v>1.046230822336248</v>
       </c>
       <c r="N3">
-        <v>1.055465633558839</v>
+        <v>1.013001601353434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039073309131625</v>
+        <v>1.011351403474822</v>
       </c>
       <c r="D4">
-        <v>1.052530040416713</v>
+        <v>1.030215945494168</v>
       </c>
       <c r="E4">
-        <v>1.045083666580854</v>
+        <v>1.030728466188803</v>
       </c>
       <c r="F4">
-        <v>1.058207166040396</v>
+        <v>1.038804831739262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057699724613945</v>
+        <v>1.047720457853936</v>
       </c>
       <c r="J4">
-        <v>1.057527706024237</v>
+        <v>1.030469129845823</v>
       </c>
       <c r="K4">
-        <v>1.062033263489114</v>
+        <v>1.039962871226415</v>
       </c>
       <c r="L4">
-        <v>1.054666795896531</v>
+        <v>1.040469648732325</v>
       </c>
       <c r="M4">
-        <v>1.067650392188462</v>
+        <v>1.048456431833313</v>
       </c>
       <c r="N4">
-        <v>1.059029516666915</v>
+        <v>1.013745048488678</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041017611061789</v>
+        <v>1.012730212389547</v>
       </c>
       <c r="D5">
-        <v>1.054044521970427</v>
+        <v>1.031220776026391</v>
       </c>
       <c r="E5">
-        <v>1.046585046928663</v>
+        <v>1.031861416904137</v>
       </c>
       <c r="F5">
-        <v>1.059809243041435</v>
+        <v>1.039954732682334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058318138262642</v>
+        <v>1.04804339073774</v>
       </c>
       <c r="J5">
-        <v>1.05899890397625</v>
+        <v>1.031367175239903</v>
       </c>
       <c r="K5">
-        <v>1.063322299910732</v>
+        <v>1.040740917095053</v>
       </c>
       <c r="L5">
-        <v>1.055940614508774</v>
+        <v>1.041374575642389</v>
       </c>
       <c r="M5">
-        <v>1.069027818960564</v>
+        <v>1.049380590016943</v>
       </c>
       <c r="N5">
-        <v>1.060502803888768</v>
+        <v>1.014053321141128</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041342266709752</v>
+        <v>1.012960719358958</v>
       </c>
       <c r="D6">
-        <v>1.054297442591345</v>
+        <v>1.031388800843506</v>
       </c>
       <c r="E6">
-        <v>1.046835909966154</v>
+        <v>1.032050969525946</v>
       </c>
       <c r="F6">
-        <v>1.060076868490213</v>
+        <v>1.040147071095503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058421234106841</v>
+        <v>1.048097228688344</v>
       </c>
       <c r="J6">
-        <v>1.05924449911348</v>
+        <v>1.031517267664285</v>
       </c>
       <c r="K6">
-        <v>1.063537463719056</v>
+        <v>1.040870930171823</v>
       </c>
       <c r="L6">
-        <v>1.056153365765666</v>
+        <v>1.041525915805597</v>
       </c>
       <c r="M6">
-        <v>1.069257824150681</v>
+        <v>1.049535098169143</v>
       </c>
       <c r="N6">
-        <v>1.060748747799263</v>
+        <v>1.014104835063738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039099410740868</v>
+        <v>1.011369894702166</v>
       </c>
       <c r="D7">
-        <v>1.05255036937368</v>
+        <v>1.030229418628439</v>
       </c>
       <c r="E7">
-        <v>1.045103810881598</v>
+        <v>1.030743650221846</v>
       </c>
       <c r="F7">
-        <v>1.058228665654988</v>
+        <v>1.038820246315246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05770803771678</v>
+        <v>1.047724798725448</v>
       </c>
       <c r="J7">
-        <v>1.05754746053782</v>
+        <v>1.030481176294392</v>
       </c>
       <c r="K7">
-        <v>1.062050573499289</v>
+        <v>1.039973309562546</v>
       </c>
       <c r="L7">
-        <v>1.054683892943077</v>
+        <v>1.040481780913624</v>
       </c>
       <c r="M7">
-        <v>1.067668883268627</v>
+        <v>1.04846882508959</v>
       </c>
       <c r="N7">
-        <v>1.059049299234173</v>
+        <v>1.013749184241855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029451935585806</v>
+        <v>1.004570727273243</v>
       </c>
       <c r="D8">
-        <v>1.04504147769415</v>
+        <v>1.025280485361882</v>
       </c>
       <c r="E8">
-        <v>1.037678895843309</v>
+        <v>1.02517851075077</v>
       </c>
       <c r="F8">
-        <v>1.05029651234165</v>
+        <v>1.033164661197907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054616212437836</v>
+        <v>1.046111380099629</v>
       </c>
       <c r="J8">
-        <v>1.050238978425855</v>
+        <v>1.026047168182369</v>
       </c>
       <c r="K8">
-        <v>1.055644033289389</v>
+        <v>1.036128567877033</v>
       </c>
       <c r="L8">
-        <v>1.048371569677915</v>
+        <v>1.036027890936893</v>
       </c>
       <c r="M8">
-        <v>1.060835704914666</v>
+        <v>1.043913380849812</v>
       </c>
       <c r="N8">
-        <v>1.051730438239314</v>
+        <v>1.012225969360989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011294427207955</v>
+        <v>0.9919741400366292</v>
       </c>
       <c r="D9">
-        <v>1.030940557939274</v>
+        <v>1.016141307038782</v>
       </c>
       <c r="E9">
-        <v>1.023815499118827</v>
+        <v>1.014960126928436</v>
       </c>
       <c r="F9">
-        <v>1.035446179500337</v>
+        <v>1.022751177095863</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048708575480468</v>
+        <v>1.043042417471471</v>
       </c>
       <c r="J9">
-        <v>1.036454558772725</v>
+        <v>1.017813530587329</v>
       </c>
       <c r="K9">
-        <v>1.043550827533904</v>
+        <v>1.028977820702322</v>
       </c>
       <c r="L9">
-        <v>1.036533652022938</v>
+        <v>1.027815061411662</v>
       </c>
       <c r="M9">
-        <v>1.04798920188778</v>
+        <v>1.035485609927576</v>
       </c>
       <c r="N9">
-        <v>1.037926443129183</v>
+        <v>1.009393401040086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9982703811889405</v>
+        <v>0.9831097778464142</v>
       </c>
       <c r="D10">
-        <v>1.020856707272931</v>
+        <v>1.009735621972696</v>
       </c>
       <c r="E10">
-        <v>1.013960190769142</v>
+        <v>1.007838039450685</v>
       </c>
       <c r="F10">
-        <v>1.024858866319667</v>
+        <v>1.01547276815854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044415896528976</v>
+        <v>1.040832059702558</v>
       </c>
       <c r="J10">
-        <v>1.026552791107156</v>
+        <v>1.012009929086898</v>
       </c>
       <c r="K10">
-        <v>1.034859328802122</v>
+        <v>1.023931293808658</v>
       </c>
       <c r="L10">
-        <v>1.028081882761708</v>
+        <v>1.022067203209467</v>
       </c>
       <c r="M10">
-        <v>1.038793337738419</v>
+        <v>1.029568165854187</v>
       </c>
       <c r="N10">
-        <v>1.028010613817779</v>
+        <v>1.007394559531244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923760411760191</v>
+        <v>0.9791477208547927</v>
       </c>
       <c r="D11">
-        <v>1.016302564251003</v>
+        <v>1.006879952262704</v>
       </c>
       <c r="E11">
-        <v>1.00952434294366</v>
+        <v>1.004672576255483</v>
       </c>
       <c r="F11">
-        <v>1.020085466339414</v>
+        <v>1.012232825295251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042461305524569</v>
+        <v>1.039832889869094</v>
       </c>
       <c r="J11">
-        <v>1.022069461539832</v>
+        <v>1.009414465762891</v>
       </c>
       <c r="K11">
-        <v>1.030923450400579</v>
+        <v>1.021673278696979</v>
       </c>
       <c r="L11">
-        <v>1.024268851859887</v>
+        <v>1.019506909340705</v>
       </c>
       <c r="M11">
-        <v>1.034638286801878</v>
+        <v>1.026927677729994</v>
       </c>
       <c r="N11">
-        <v>1.023520917408225</v>
+        <v>1.006500221924826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901447119942256</v>
+        <v>0.9776562307560593</v>
       </c>
       <c r="D12">
-        <v>1.014580227607553</v>
+        <v>1.005806196553185</v>
       </c>
       <c r="E12">
-        <v>1.007849121505041</v>
+        <v>1.003483784867725</v>
       </c>
       <c r="F12">
-        <v>1.018281469494494</v>
+        <v>1.011015294903978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041719730425755</v>
+        <v>1.039455146692236</v>
       </c>
       <c r="J12">
-        <v>1.020372102112748</v>
+        <v>1.008437273986231</v>
       </c>
       <c r="K12">
-        <v>1.029433324812766</v>
+        <v>1.020822998037759</v>
       </c>
       <c r="L12">
-        <v>1.022827474028708</v>
+        <v>1.018544544035127</v>
       </c>
       <c r="M12">
-        <v>1.033066611003243</v>
+        <v>1.025934458870904</v>
       </c>
       <c r="N12">
-        <v>1.021821147536064</v>
+        <v>1.006163450183967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9906252994577639</v>
+        <v>0.9779770773613874</v>
       </c>
       <c r="D13">
-        <v>1.014951108899945</v>
+        <v>1.006037122725665</v>
       </c>
       <c r="E13">
-        <v>1.00820974796585</v>
+        <v>1.003739385414305</v>
       </c>
       <c r="F13">
-        <v>1.018669877553703</v>
+        <v>1.011277109580355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041879524749725</v>
+        <v>1.039536477720835</v>
       </c>
       <c r="J13">
-        <v>1.020737687847101</v>
+        <v>1.008647491105622</v>
       </c>
       <c r="K13">
-        <v>1.029754275829419</v>
+        <v>1.021005919284025</v>
       </c>
       <c r="L13">
-        <v>1.023137822932316</v>
+        <v>1.018751499233335</v>
       </c>
       <c r="M13">
-        <v>1.033405061510976</v>
+        <v>1.026148081344844</v>
       </c>
       <c r="N13">
-        <v>1.022187252444093</v>
+        <v>1.006235900030957</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9921924763587802</v>
+        <v>0.9790248452484275</v>
       </c>
       <c r="D14">
-        <v>1.016160837822814</v>
+        <v>1.006791465503375</v>
       </c>
       <c r="E14">
-        <v>1.00938644459556</v>
+        <v>1.004574580044315</v>
       </c>
       <c r="F14">
-        <v>1.019936994485901</v>
+        <v>1.012132475745617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04240033116951</v>
+        <v>1.039801802019505</v>
       </c>
       <c r="J14">
-        <v>1.021929827548177</v>
+        <v>1.009333962896083</v>
       </c>
       <c r="K14">
-        <v>1.030800864825055</v>
+        <v>1.021603233621954</v>
       </c>
       <c r="L14">
-        <v>1.024150230596865</v>
+        <v>1.01942759542137</v>
       </c>
       <c r="M14">
-        <v>1.034508963244424</v>
+        <v>1.026845835494116</v>
       </c>
       <c r="N14">
-        <v>1.023381085120286</v>
+        <v>1.006472479077501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9931523961239647</v>
+        <v>0.9796677470444221</v>
       </c>
       <c r="D15">
-        <v>1.01690203975597</v>
+        <v>1.007254491553718</v>
       </c>
       <c r="E15">
-        <v>1.010107723740787</v>
+        <v>1.005087425477259</v>
       </c>
       <c r="F15">
-        <v>1.020713525210531</v>
+        <v>1.01265760552819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042719119254367</v>
+        <v>1.039964392625177</v>
       </c>
       <c r="J15">
-        <v>1.022660012559109</v>
+        <v>1.009755159247639</v>
       </c>
       <c r="K15">
-        <v>1.031441898128196</v>
+        <v>1.021969708676693</v>
       </c>
       <c r="L15">
-        <v>1.024770624932972</v>
+        <v>1.019842635974477</v>
       </c>
       <c r="M15">
-        <v>1.035185289609838</v>
+        <v>1.027274077427053</v>
       </c>
       <c r="N15">
-        <v>1.024112307077685</v>
+        <v>1.006617629372674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9986559012108172</v>
+        <v>0.9833700181233547</v>
       </c>
       <c r="D16">
-        <v>1.021154787039883</v>
+        <v>1.009923356405318</v>
       </c>
       <c r="E16">
-        <v>1.014250849213665</v>
+        <v>1.008046340297643</v>
       </c>
       <c r="F16">
-        <v>1.025171468489704</v>
+        <v>1.015685864429712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044543501839541</v>
+        <v>1.040897461011695</v>
       </c>
       <c r="J16">
-        <v>1.026845992253117</v>
+        <v>1.012180382882177</v>
       </c>
       <c r="K16">
-        <v>1.035116720925497</v>
+        <v>1.024079565262409</v>
       </c>
       <c r="L16">
-        <v>1.02833154411585</v>
+        <v>1.022235564119152</v>
       </c>
       <c r="M16">
-        <v>1.039065257276354</v>
+        <v>1.02974170236596</v>
       </c>
       <c r="N16">
-        <v>1.028304231342998</v>
+        <v>1.007453286049918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002037460981494</v>
+        <v>0.9856584014467411</v>
       </c>
       <c r="D17">
-        <v>1.023770471929983</v>
+        <v>1.011575030611725</v>
       </c>
       <c r="E17">
-        <v>1.016803126456301</v>
+        <v>1.009880047159508</v>
       </c>
       <c r="F17">
-        <v>1.027915510786205</v>
+        <v>1.017561214494847</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045661459989007</v>
+        <v>1.041471291626822</v>
       </c>
       <c r="J17">
-        <v>1.029417567103451</v>
+        <v>1.013679085090257</v>
       </c>
       <c r="K17">
-        <v>1.037374171518328</v>
+        <v>1.025383106459695</v>
       </c>
       <c r="L17">
-        <v>1.030522813667057</v>
+        <v>1.023717032984801</v>
       </c>
       <c r="M17">
-        <v>1.041451165339853</v>
+        <v>1.031268182306338</v>
       </c>
       <c r="N17">
-        <v>1.030879458124584</v>
+        <v>1.007969587616327</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003985546848388</v>
+        <v>0.9869813260024205</v>
       </c>
       <c r="D18">
-        <v>1.025278225197769</v>
+        <v>1.012530567154928</v>
       </c>
       <c r="E18">
-        <v>1.018275740423224</v>
+        <v>1.010941801987986</v>
       </c>
       <c r="F18">
-        <v>1.029498013812191</v>
+        <v>1.018646607709953</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046304384811617</v>
+        <v>1.041801958666213</v>
       </c>
       <c r="J18">
-        <v>1.030898826009369</v>
+        <v>1.014545348467144</v>
       </c>
       <c r="K18">
-        <v>1.038674437002562</v>
+        <v>1.026136456153823</v>
       </c>
       <c r="L18">
-        <v>1.031786295142014</v>
+        <v>1.024574301210119</v>
       </c>
       <c r="M18">
-        <v>1.042826284290828</v>
+        <v>1.032151055859669</v>
       </c>
       <c r="N18">
-        <v>1.03236282058805</v>
+        <v>1.008267973797554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004645771142219</v>
+        <v>0.9874304343064338</v>
       </c>
       <c r="D19">
-        <v>1.025789359990687</v>
+        <v>1.012855068623993</v>
       </c>
       <c r="E19">
-        <v>1.018775199042197</v>
+        <v>1.011302529027678</v>
       </c>
       <c r="F19">
-        <v>1.030034617056717</v>
+        <v>1.019015285885959</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046522084444042</v>
+        <v>1.041914030882551</v>
       </c>
       <c r="J19">
-        <v>1.031400800362765</v>
+        <v>1.014839402447686</v>
       </c>
       <c r="K19">
-        <v>1.039115065027134</v>
+        <v>1.026392162101822</v>
       </c>
       <c r="L19">
-        <v>1.032214682000805</v>
+        <v>1.024865464293833</v>
       </c>
       <c r="M19">
-        <v>1.043292423612927</v>
+        <v>1.032450841077206</v>
       </c>
       <c r="N19">
-        <v>1.032865507802605</v>
+        <v>1.008369254081763</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001677191927742</v>
+        <v>0.9854141138179968</v>
       </c>
       <c r="D20">
-        <v>1.023491705614819</v>
+        <v>1.011398639306345</v>
       </c>
       <c r="E20">
-        <v>1.016530970485495</v>
+        <v>1.009684121349698</v>
       </c>
       <c r="F20">
-        <v>1.027622985452038</v>
+        <v>1.017360888510568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045542469144049</v>
+        <v>1.041410144766065</v>
       </c>
       <c r="J20">
-        <v>1.029143613385007</v>
+        <v>1.013519111200207</v>
       </c>
       <c r="K20">
-        <v>1.037133687180613</v>
+        <v>1.025243975453221</v>
       </c>
       <c r="L20">
-        <v>1.030289240125059</v>
+        <v>1.023558798035421</v>
       </c>
       <c r="M20">
-        <v>1.041196906507459</v>
+        <v>1.031105185555702</v>
       </c>
       <c r="N20">
-        <v>1.030605115360436</v>
+        <v>1.007914480917385</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917321701626073</v>
+        <v>0.9787168607434407</v>
       </c>
       <c r="D21">
-        <v>1.015805472760965</v>
+        <v>1.006569696184099</v>
       </c>
       <c r="E21">
-        <v>1.009040716700008</v>
+        <v>1.004329001108501</v>
       </c>
       <c r="F21">
-        <v>1.019564736360795</v>
+        <v>1.011880986898129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042247406005488</v>
+        <v>1.039723855429158</v>
       </c>
       <c r="J21">
-        <v>1.021579679737294</v>
+        <v>1.009132182448551</v>
       </c>
       <c r="K21">
-        <v>1.030493467564871</v>
+        <v>1.021427663516853</v>
       </c>
       <c r="L21">
-        <v>1.02385281060861</v>
+        <v>1.019228820760965</v>
       </c>
       <c r="M21">
-        <v>1.034184692854218</v>
+        <v>1.026640712950395</v>
       </c>
       <c r="N21">
-        <v>1.023030440059348</v>
+        <v>1.00640294079669</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852347136183371</v>
+        <v>0.9743907624311864</v>
       </c>
       <c r="D22">
-        <v>1.010793578432646</v>
+        <v>1.003457745367289</v>
       </c>
       <c r="E22">
-        <v>1.00417057718851</v>
+        <v>1.000886413279778</v>
       </c>
       <c r="F22">
-        <v>1.014317661433801</v>
+        <v>1.00835370010923</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040085000829568</v>
+        <v>1.038625233067659</v>
       </c>
       <c r="J22">
-        <v>1.016636933467928</v>
+        <v>1.006297624053103</v>
       </c>
       <c r="K22">
-        <v>1.026154202630745</v>
+        <v>1.018961013453043</v>
       </c>
       <c r="L22">
-        <v>1.019659864421212</v>
+        <v>1.016440330578499</v>
       </c>
       <c r="M22">
-        <v>1.029610720366641</v>
+        <v>1.023761465363988</v>
       </c>
       <c r="N22">
-        <v>1.018080674523339</v>
+        <v>1.005425970475865</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887036633808489</v>
+        <v>0.976695468994829</v>
       </c>
       <c r="D23">
-        <v>1.013468395576779</v>
+        <v>1.005114889772524</v>
       </c>
       <c r="E23">
-        <v>1.006768389309241</v>
+        <v>1.002718825486398</v>
       </c>
       <c r="F23">
-        <v>1.017117283800138</v>
+        <v>1.010231623992974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041240352242951</v>
+        <v>1.039211373880448</v>
       </c>
       <c r="J23">
-        <v>1.019275873408725</v>
+        <v>1.007807771897587</v>
       </c>
       <c r="K23">
-        <v>1.028470936071892</v>
+        <v>1.020275216604704</v>
       </c>
       <c r="L23">
-        <v>1.021897211961934</v>
+        <v>1.017925046021329</v>
       </c>
       <c r="M23">
-        <v>1.032051962131271</v>
+        <v>1.025294898139967</v>
       </c>
       <c r="N23">
-        <v>1.020723362061543</v>
+        <v>1.005946489649432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001840056895608</v>
+        <v>0.9855245334149129</v>
       </c>
       <c r="D24">
-        <v>1.023617723340777</v>
+        <v>1.011478367172786</v>
       </c>
       <c r="E24">
-        <v>1.016653995599017</v>
+        <v>1.009772675887124</v>
       </c>
       <c r="F24">
-        <v>1.027755220651883</v>
+        <v>1.017451433306398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045596264210352</v>
+        <v>1.04143778685997</v>
       </c>
       <c r="J24">
-        <v>1.029267458862961</v>
+        <v>1.013591420887959</v>
       </c>
       <c r="K24">
-        <v>1.037242402422389</v>
+        <v>1.025306864303587</v>
       </c>
       <c r="L24">
-        <v>1.030394827075826</v>
+        <v>1.023630318713011</v>
       </c>
       <c r="M24">
-        <v>1.041311846076338</v>
+        <v>1.031178859887778</v>
       </c>
       <c r="N24">
-        <v>1.030729136713174</v>
+        <v>1.007939389785623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016139281867905</v>
+        <v>0.9953087951536502</v>
       </c>
       <c r="D25">
-        <v>1.034698516325642</v>
+        <v>1.018556705740534</v>
       </c>
       <c r="E25">
-        <v>1.027500491380935</v>
+        <v>1.017653882081959</v>
       </c>
       <c r="F25">
-        <v>1.039398448211936</v>
+        <v>1.025499821663131</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050294656600782</v>
+        <v>1.043863819081031</v>
       </c>
       <c r="J25">
-        <v>1.040135440394381</v>
+        <v>1.019995075069482</v>
       </c>
       <c r="K25">
-        <v>1.046781045026316</v>
+        <v>1.030873624012795</v>
       </c>
       <c r="L25">
-        <v>1.039686386801201</v>
+        <v>1.029984189020177</v>
       </c>
       <c r="M25">
-        <v>1.051414460096761</v>
+        <v>1.037714774394902</v>
       </c>
       <c r="N25">
-        <v>1.041612552024943</v>
+        <v>1.010144329237118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002780370624218</v>
+        <v>1.038151829842275</v>
       </c>
       <c r="D2">
-        <v>1.023979105339272</v>
+        <v>1.04505869851694</v>
       </c>
       <c r="E2">
-        <v>1.023718994423217</v>
+        <v>1.053246545436338</v>
       </c>
       <c r="F2">
-        <v>1.031679511374817</v>
+        <v>1.058929423793294</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045681115668443</v>
+        <v>1.037420701745724</v>
       </c>
       <c r="J2">
-        <v>1.024878238117796</v>
+        <v>1.043250822113248</v>
       </c>
       <c r="K2">
-        <v>1.035114183093054</v>
+        <v>1.047828004073361</v>
       </c>
       <c r="L2">
-        <v>1.034857487346275</v>
+        <v>1.055993043092899</v>
       </c>
       <c r="M2">
-        <v>1.042714461249098</v>
+        <v>1.06166031593714</v>
       </c>
       <c r="N2">
-        <v>1.011824119897293</v>
+        <v>1.018287057393064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008030211880785</v>
+        <v>1.039253874869203</v>
       </c>
       <c r="D3">
-        <v>1.027797253389451</v>
+        <v>1.045880264076009</v>
       </c>
       <c r="E3">
-        <v>1.028005634256171</v>
+        <v>1.054220975566197</v>
       </c>
       <c r="F3">
-        <v>1.036039203829973</v>
+        <v>1.059900039681179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046936532526135</v>
+        <v>1.037619459843677</v>
       </c>
       <c r="J3">
-        <v>1.028304333525315</v>
+        <v>1.043996776375574</v>
       </c>
       <c r="K3">
-        <v>1.038086400474865</v>
+        <v>1.048460906723066</v>
       </c>
       <c r="L3">
-        <v>1.038292291637999</v>
+        <v>1.056780066166635</v>
       </c>
       <c r="M3">
-        <v>1.046230822336248</v>
+        <v>1.062444665075708</v>
       </c>
       <c r="N3">
-        <v>1.013001601353434</v>
+        <v>1.018539599046028</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011351403474822</v>
+        <v>1.039967132775646</v>
       </c>
       <c r="D4">
-        <v>1.030215945494168</v>
+        <v>1.046411895899369</v>
       </c>
       <c r="E4">
-        <v>1.030728466188803</v>
+        <v>1.05485238543627</v>
       </c>
       <c r="F4">
-        <v>1.038804831739262</v>
+        <v>1.060528621524585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047720457853936</v>
+        <v>1.037746758894377</v>
       </c>
       <c r="J4">
-        <v>1.030469129845823</v>
+        <v>1.044479068051359</v>
       </c>
       <c r="K4">
-        <v>1.039962871226415</v>
+        <v>1.04886981203379</v>
       </c>
       <c r="L4">
-        <v>1.040469648732325</v>
+        <v>1.0572895910033</v>
       </c>
       <c r="M4">
-        <v>1.048456431833313</v>
+        <v>1.062952098460688</v>
       </c>
       <c r="N4">
-        <v>1.013745048488678</v>
+        <v>1.01870274988206</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012730212389547</v>
+        <v>1.040267025275157</v>
       </c>
       <c r="D5">
-        <v>1.031220776026391</v>
+        <v>1.046635399033182</v>
       </c>
       <c r="E5">
-        <v>1.031861416904137</v>
+        <v>1.055118042106836</v>
       </c>
       <c r="F5">
-        <v>1.039954732682334</v>
+        <v>1.060793003201836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04804339073774</v>
+        <v>1.037799961362054</v>
       </c>
       <c r="J5">
-        <v>1.031367175239903</v>
+        <v>1.044681729758987</v>
       </c>
       <c r="K5">
-        <v>1.040740917095053</v>
+        <v>1.049041565803924</v>
       </c>
       <c r="L5">
-        <v>1.041374575642389</v>
+        <v>1.057503858890709</v>
       </c>
       <c r="M5">
-        <v>1.049380590016943</v>
+        <v>1.063165400683013</v>
       </c>
       <c r="N5">
-        <v>1.014053321141128</v>
+        <v>1.018771275967578</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012960719358958</v>
+        <v>1.040317380834286</v>
       </c>
       <c r="D6">
-        <v>1.031388800843506</v>
+        <v>1.046672926474655</v>
       </c>
       <c r="E6">
-        <v>1.032050969525946</v>
+        <v>1.055162659439149</v>
       </c>
       <c r="F6">
-        <v>1.040147071095503</v>
+        <v>1.060837401411175</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048097228688344</v>
+        <v>1.037808875866652</v>
       </c>
       <c r="J6">
-        <v>1.031517267664285</v>
+        <v>1.044715752050323</v>
       </c>
       <c r="K6">
-        <v>1.040870930171823</v>
+        <v>1.049070395208961</v>
       </c>
       <c r="L6">
-        <v>1.041525915805597</v>
+        <v>1.057539839127201</v>
       </c>
       <c r="M6">
-        <v>1.049535098169143</v>
+        <v>1.063201213714252</v>
       </c>
       <c r="N6">
-        <v>1.014104835063738</v>
+        <v>1.018782778127614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011369894702166</v>
+        <v>1.039971139800745</v>
       </c>
       <c r="D7">
-        <v>1.030229418628439</v>
+        <v>1.046414882339866</v>
       </c>
       <c r="E7">
-        <v>1.030743650221846</v>
+        <v>1.054855934321752</v>
       </c>
       <c r="F7">
-        <v>1.038820246315246</v>
+        <v>1.060532153711719</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047724798725448</v>
+        <v>1.037747471022694</v>
       </c>
       <c r="J7">
-        <v>1.030481176294392</v>
+        <v>1.044481776395492</v>
       </c>
       <c r="K7">
-        <v>1.039973309562546</v>
+        <v>1.048872107606049</v>
       </c>
       <c r="L7">
-        <v>1.040481780913624</v>
+        <v>1.057292453811941</v>
       </c>
       <c r="M7">
-        <v>1.04846882508959</v>
+        <v>1.062954948705555</v>
       </c>
       <c r="N7">
-        <v>1.013749184241855</v>
+        <v>1.018703665776855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004570727273243</v>
+        <v>1.038524237952697</v>
       </c>
       <c r="D8">
-        <v>1.025280485361882</v>
+        <v>1.045336345106742</v>
       </c>
       <c r="E8">
-        <v>1.02517851075077</v>
+        <v>1.053575674270584</v>
       </c>
       <c r="F8">
-        <v>1.033164661197907</v>
+        <v>1.059257338168413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046111380099629</v>
+        <v>1.037488144213014</v>
       </c>
       <c r="J8">
-        <v>1.026047168182369</v>
+        <v>1.043503001607683</v>
       </c>
       <c r="K8">
-        <v>1.036128567877033</v>
+        <v>1.048042025668014</v>
       </c>
       <c r="L8">
-        <v>1.036027890936893</v>
+        <v>1.05625896532678</v>
       </c>
       <c r="M8">
-        <v>1.043913380849812</v>
+        <v>1.061925409335924</v>
       </c>
       <c r="N8">
-        <v>1.012225969360989</v>
+        <v>1.018372458868414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9919741400366292</v>
+        <v>1.035975831420586</v>
       </c>
       <c r="D9">
-        <v>1.016141307038782</v>
+        <v>1.043436035458829</v>
       </c>
       <c r="E9">
-        <v>1.014960126928436</v>
+        <v>1.0513265285944</v>
       </c>
       <c r="F9">
-        <v>1.022751177095863</v>
+        <v>1.057015025818063</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043042417471471</v>
+        <v>1.037021150075941</v>
       </c>
       <c r="J9">
-        <v>1.017813530587329</v>
+        <v>1.041775292196236</v>
       </c>
       <c r="K9">
-        <v>1.028977820702322</v>
+        <v>1.046574545226015</v>
       </c>
       <c r="L9">
-        <v>1.027815061411662</v>
+        <v>1.054439906697188</v>
       </c>
       <c r="M9">
-        <v>1.035485609927576</v>
+        <v>1.060110540121086</v>
       </c>
       <c r="N9">
-        <v>1.009393401040086</v>
+        <v>1.017786841851843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9831097778464142</v>
+        <v>1.034277690733791</v>
       </c>
       <c r="D10">
-        <v>1.009735621972696</v>
+        <v>1.042169338762099</v>
       </c>
       <c r="E10">
-        <v>1.007838039450685</v>
+        <v>1.049831735530615</v>
       </c>
       <c r="F10">
-        <v>1.01547276815854</v>
+        <v>1.055522926925956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040832059702558</v>
+        <v>1.036703093587203</v>
       </c>
       <c r="J10">
-        <v>1.012009929086898</v>
+        <v>1.040621489343516</v>
       </c>
       <c r="K10">
-        <v>1.023931293808658</v>
+        <v>1.045593038865726</v>
       </c>
       <c r="L10">
-        <v>1.022067203209467</v>
+        <v>1.053228632099609</v>
       </c>
       <c r="M10">
-        <v>1.029568165854187</v>
+        <v>1.058900192476281</v>
       </c>
       <c r="N10">
-        <v>1.007394559531244</v>
+        <v>1.017395102484092</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9791477208547927</v>
+        <v>1.033542560121018</v>
       </c>
       <c r="D11">
-        <v>1.006879952262704</v>
+        <v>1.041620893635873</v>
       </c>
       <c r="E11">
-        <v>1.004672576255483</v>
+        <v>1.049185581654331</v>
       </c>
       <c r="F11">
-        <v>1.012232825295251</v>
+        <v>1.054877496954948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039832889869094</v>
+        <v>1.036563778852135</v>
       </c>
       <c r="J11">
-        <v>1.009414465762891</v>
+        <v>1.040121407599226</v>
       </c>
       <c r="K11">
-        <v>1.021673278696979</v>
+        <v>1.04516728391952</v>
       </c>
       <c r="L11">
-        <v>1.019506909340705</v>
+        <v>1.05270448260906</v>
       </c>
       <c r="M11">
-        <v>1.026927677729994</v>
+        <v>1.058376000862988</v>
       </c>
       <c r="N11">
-        <v>1.006500221924826</v>
+        <v>1.017225161607419</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9776562307560593</v>
+        <v>1.033269525623616</v>
       </c>
       <c r="D12">
-        <v>1.005806196553185</v>
+        <v>1.04141718360493</v>
       </c>
       <c r="E12">
-        <v>1.003483784867725</v>
+        <v>1.048945737394036</v>
       </c>
       <c r="F12">
-        <v>1.011015294903978</v>
+        <v>1.054637854965315</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039455146692236</v>
+        <v>1.03651179182651</v>
       </c>
       <c r="J12">
-        <v>1.008437273986231</v>
+        <v>1.039935583236568</v>
       </c>
       <c r="K12">
-        <v>1.020822998037759</v>
+        <v>1.045009026192575</v>
       </c>
       <c r="L12">
-        <v>1.018544544035127</v>
+        <v>1.052509841738105</v>
       </c>
       <c r="M12">
-        <v>1.025934458870904</v>
+        <v>1.058181277628473</v>
       </c>
       <c r="N12">
-        <v>1.006163450183967</v>
+        <v>1.017161990747365</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9779770773613874</v>
+        <v>1.033328091295177</v>
       </c>
       <c r="D13">
-        <v>1.006037122725665</v>
+        <v>1.041460879778036</v>
       </c>
       <c r="E13">
-        <v>1.003739385414305</v>
+        <v>1.048997177278049</v>
       </c>
       <c r="F13">
-        <v>1.011277109580355</v>
+        <v>1.054689254478063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039536477720835</v>
+        <v>1.036522954047318</v>
       </c>
       <c r="J13">
-        <v>1.008647491105622</v>
+        <v>1.039975446439357</v>
       </c>
       <c r="K13">
-        <v>1.021005919284025</v>
+        <v>1.045042978139364</v>
       </c>
       <c r="L13">
-        <v>1.018751499233335</v>
+        <v>1.052551590524041</v>
       </c>
       <c r="M13">
-        <v>1.026148081344844</v>
+        <v>1.058223047102159</v>
       </c>
       <c r="N13">
-        <v>1.006235900030957</v>
+        <v>1.017175543248007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9790248452484275</v>
+        <v>1.03351999048272</v>
       </c>
       <c r="D14">
-        <v>1.006791465503375</v>
+        <v>1.041604054757563</v>
       </c>
       <c r="E14">
-        <v>1.004574580044315</v>
+        <v>1.049165752661988</v>
       </c>
       <c r="F14">
-        <v>1.012132475745617</v>
+        <v>1.05485768604203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039801802019505</v>
+        <v>1.036559486469612</v>
       </c>
       <c r="J14">
-        <v>1.009333962896083</v>
+        <v>1.040106048762833</v>
       </c>
       <c r="K14">
-        <v>1.021603233621954</v>
+        <v>1.045154204598095</v>
       </c>
       <c r="L14">
-        <v>1.01942759542137</v>
+        <v>1.052688392478996</v>
       </c>
       <c r="M14">
-        <v>1.026845835494116</v>
+        <v>1.05835990528624</v>
       </c>
       <c r="N14">
-        <v>1.006472479077501</v>
+        <v>1.017219940847794</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796677470444221</v>
+        <v>1.033638229298335</v>
       </c>
       <c r="D15">
-        <v>1.007254491553718</v>
+        <v>1.041692270517088</v>
       </c>
       <c r="E15">
-        <v>1.005087425477259</v>
+        <v>1.049269639541819</v>
       </c>
       <c r="F15">
-        <v>1.01265760552819</v>
+        <v>1.054961475478514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039964392625177</v>
+        <v>1.03658196359247</v>
       </c>
       <c r="J15">
-        <v>1.009755159247639</v>
+        <v>1.040186507659007</v>
       </c>
       <c r="K15">
-        <v>1.021969708676693</v>
+        <v>1.045222719872757</v>
       </c>
       <c r="L15">
-        <v>1.019842635974477</v>
+        <v>1.05277268752768</v>
       </c>
       <c r="M15">
-        <v>1.027274077427053</v>
+        <v>1.058444226136267</v>
       </c>
       <c r="N15">
-        <v>1.006617629372674</v>
+        <v>1.017247289415844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9833700181233547</v>
+        <v>1.034326482575875</v>
       </c>
       <c r="D16">
-        <v>1.009923356405318</v>
+        <v>1.042205738202302</v>
       </c>
       <c r="E16">
-        <v>1.008046340297643</v>
+        <v>1.049874641890483</v>
       </c>
       <c r="F16">
-        <v>1.015685864429712</v>
+        <v>1.055565775906197</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040897461011695</v>
+        <v>1.036712305874962</v>
       </c>
       <c r="J16">
-        <v>1.012180382882177</v>
+        <v>1.040654668061741</v>
       </c>
       <c r="K16">
-        <v>1.024079565262409</v>
+        <v>1.045621278906322</v>
       </c>
       <c r="L16">
-        <v>1.022235564119152</v>
+        <v>1.053263425385007</v>
       </c>
       <c r="M16">
-        <v>1.02974170236596</v>
+        <v>1.058934979205816</v>
       </c>
       <c r="N16">
-        <v>1.007453286049918</v>
+        <v>1.017406374268773</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9856584014467411</v>
+        <v>1.034758252220894</v>
       </c>
       <c r="D17">
-        <v>1.011575030611725</v>
+        <v>1.042527834729034</v>
       </c>
       <c r="E17">
-        <v>1.009880047159508</v>
+        <v>1.050254439167447</v>
       </c>
       <c r="F17">
-        <v>1.017561214494847</v>
+        <v>1.055945014288006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041471291626822</v>
+        <v>1.036793639463517</v>
       </c>
       <c r="J17">
-        <v>1.013679085090257</v>
+        <v>1.040948204875733</v>
       </c>
       <c r="K17">
-        <v>1.025383106459695</v>
+        <v>1.045871082160179</v>
       </c>
       <c r="L17">
-        <v>1.023717032984801</v>
+        <v>1.053571343728187</v>
       </c>
       <c r="M17">
-        <v>1.031268182306338</v>
+        <v>1.059242788292768</v>
       </c>
       <c r="N17">
-        <v>1.007969587616327</v>
+        <v>1.01750607968806</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9869813260024205</v>
+        <v>1.035010113125821</v>
       </c>
       <c r="D18">
-        <v>1.012530567154928</v>
+        <v>1.042715712292123</v>
       </c>
       <c r="E18">
-        <v>1.010941801987986</v>
+        <v>1.050476074721585</v>
       </c>
       <c r="F18">
-        <v>1.018646607709953</v>
+        <v>1.056166281142451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041801958666213</v>
+        <v>1.036840926142818</v>
       </c>
       <c r="J18">
-        <v>1.014545348467144</v>
+        <v>1.041119373861583</v>
       </c>
       <c r="K18">
-        <v>1.026136456153823</v>
+        <v>1.046016715192607</v>
       </c>
       <c r="L18">
-        <v>1.024574301210119</v>
+        <v>1.053750980102283</v>
       </c>
       <c r="M18">
-        <v>1.032151055859669</v>
+        <v>1.05942231815409</v>
       </c>
       <c r="N18">
-        <v>1.008267973797554</v>
+        <v>1.017564205758935</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9874304343064338</v>
+        <v>1.035095994084197</v>
       </c>
       <c r="D19">
-        <v>1.012855068623993</v>
+        <v>1.042779774368717</v>
       </c>
       <c r="E19">
-        <v>1.011302529027678</v>
+        <v>1.050551664718193</v>
       </c>
       <c r="F19">
-        <v>1.019015285885959</v>
+        <v>1.056241738181756</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041914030882551</v>
+        <v>1.036857023581392</v>
       </c>
       <c r="J19">
-        <v>1.014839402447686</v>
+        <v>1.041177730247794</v>
       </c>
       <c r="K19">
-        <v>1.026392162101822</v>
+        <v>1.046066359907649</v>
       </c>
       <c r="L19">
-        <v>1.024865464293833</v>
+        <v>1.053812237015907</v>
       </c>
       <c r="M19">
-        <v>1.032450841077206</v>
+        <v>1.059483531495088</v>
       </c>
       <c r="N19">
-        <v>1.008369254081763</v>
+        <v>1.017584020085463</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9854141138179968</v>
+        <v>1.034711925672667</v>
       </c>
       <c r="D20">
-        <v>1.011398639306345</v>
+        <v>1.042493276391621</v>
       </c>
       <c r="E20">
-        <v>1.009684121349698</v>
+        <v>1.050213679521994</v>
       </c>
       <c r="F20">
-        <v>1.017360888510568</v>
+        <v>1.055904319024743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041410144766065</v>
+        <v>1.036784929048919</v>
       </c>
       <c r="J20">
-        <v>1.013519111200207</v>
+        <v>1.040916715918879</v>
       </c>
       <c r="K20">
-        <v>1.025243975453221</v>
+        <v>1.045844288181999</v>
       </c>
       <c r="L20">
-        <v>1.023558798035421</v>
+        <v>1.053538303606671</v>
       </c>
       <c r="M20">
-        <v>1.031105185555702</v>
+        <v>1.059209764319526</v>
       </c>
       <c r="N20">
-        <v>1.007914480917385</v>
+        <v>1.017495385385245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9787168607434407</v>
+        <v>1.033463480249292</v>
       </c>
       <c r="D21">
-        <v>1.006569696184099</v>
+        <v>1.041561893100216</v>
       </c>
       <c r="E21">
-        <v>1.004329001108501</v>
+        <v>1.049116106824268</v>
       </c>
       <c r="F21">
-        <v>1.011880986898129</v>
+        <v>1.054808084395637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039723855429158</v>
+        <v>1.036548735187047</v>
       </c>
       <c r="J21">
-        <v>1.009132182448551</v>
+        <v>1.040067591614013</v>
       </c>
       <c r="K21">
-        <v>1.021427663516853</v>
+        <v>1.045121454306331</v>
       </c>
       <c r="L21">
-        <v>1.019228820760965</v>
+        <v>1.052648106285309</v>
       </c>
       <c r="M21">
-        <v>1.026640712950395</v>
+        <v>1.058319604376895</v>
       </c>
       <c r="N21">
-        <v>1.00640294079669</v>
+        <v>1.017206868164857</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9743907624311864</v>
+        <v>1.03267868170056</v>
       </c>
       <c r="D22">
-        <v>1.003457745367289</v>
+        <v>1.040976335657027</v>
       </c>
       <c r="E22">
-        <v>1.000886413279778</v>
+        <v>1.048426980366647</v>
       </c>
       <c r="F22">
-        <v>1.00835370010923</v>
+        <v>1.054119413737135</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038625233067659</v>
+        <v>1.0363988461302</v>
       </c>
       <c r="J22">
-        <v>1.006297624053103</v>
+        <v>1.039533298417084</v>
       </c>
       <c r="K22">
-        <v>1.018961013453043</v>
+        <v>1.044666324073229</v>
       </c>
       <c r="L22">
-        <v>1.016440330578499</v>
+        <v>1.052088702588455</v>
       </c>
       <c r="M22">
-        <v>1.023761465363988</v>
+        <v>1.057759838133026</v>
       </c>
       <c r="N22">
-        <v>1.005425970475865</v>
+        <v>1.017025192599501</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976695468994829</v>
+        <v>1.033094704378513</v>
       </c>
       <c r="D23">
-        <v>1.005114889772524</v>
+        <v>1.041286746772172</v>
       </c>
       <c r="E23">
-        <v>1.002718825486398</v>
+        <v>1.048792208046498</v>
       </c>
       <c r="F23">
-        <v>1.010231623992974</v>
+        <v>1.054484436367079</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039211373880448</v>
+        <v>1.036478436340096</v>
       </c>
       <c r="J23">
-        <v>1.007807771897587</v>
+        <v>1.039816576690666</v>
       </c>
       <c r="K23">
-        <v>1.020275216604704</v>
+        <v>1.044907659314904</v>
       </c>
       <c r="L23">
-        <v>1.017925046021329</v>
+        <v>1.05238522461104</v>
       </c>
       <c r="M23">
-        <v>1.025294898139967</v>
+        <v>1.058056588970471</v>
       </c>
       <c r="N23">
-        <v>1.005946489649432</v>
+        <v>1.017121528131688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9855245334149129</v>
+        <v>1.034732858592994</v>
       </c>
       <c r="D24">
-        <v>1.011478367172786</v>
+        <v>1.042508891804016</v>
       </c>
       <c r="E24">
-        <v>1.009772675887124</v>
+        <v>1.050232096723053</v>
       </c>
       <c r="F24">
-        <v>1.017451433306398</v>
+        <v>1.055922707266187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04143778685997</v>
+        <v>1.036788865385615</v>
       </c>
       <c r="J24">
-        <v>1.013591420887959</v>
+        <v>1.04093094456529</v>
       </c>
       <c r="K24">
-        <v>1.025306864303587</v>
+        <v>1.045856395452829</v>
       </c>
       <c r="L24">
-        <v>1.023630318713011</v>
+        <v>1.053553232913969</v>
       </c>
       <c r="M24">
-        <v>1.031178859887778</v>
+        <v>1.059224686462289</v>
       </c>
       <c r="N24">
-        <v>1.007939389785623</v>
+        <v>1.017500217774303</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9953087951536502</v>
+        <v>1.036634513453806</v>
       </c>
       <c r="D25">
-        <v>1.018556705740534</v>
+        <v>1.043927282495904</v>
       </c>
       <c r="E25">
-        <v>1.017653882081959</v>
+        <v>1.051907172306743</v>
       </c>
       <c r="F25">
-        <v>1.025499821663131</v>
+        <v>1.05759423064282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043863819081031</v>
+        <v>1.037143066019343</v>
       </c>
       <c r="J25">
-        <v>1.019995075069482</v>
+        <v>1.04222229907313</v>
       </c>
       <c r="K25">
-        <v>1.030873624012795</v>
+        <v>1.046954487199109</v>
       </c>
       <c r="L25">
-        <v>1.029984189020177</v>
+        <v>1.054909927091071</v>
       </c>
       <c r="M25">
-        <v>1.037714774394902</v>
+        <v>1.060579806052637</v>
       </c>
       <c r="N25">
-        <v>1.010144329237118</v>
+        <v>1.017938472594447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038151829842275</v>
+        <v>1.002780370624219</v>
       </c>
       <c r="D2">
-        <v>1.04505869851694</v>
+        <v>1.023979105339273</v>
       </c>
       <c r="E2">
-        <v>1.053246545436338</v>
+        <v>1.023718994423218</v>
       </c>
       <c r="F2">
-        <v>1.058929423793294</v>
+        <v>1.031679511374818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037420701745724</v>
+        <v>1.045681115668444</v>
       </c>
       <c r="J2">
-        <v>1.043250822113248</v>
+        <v>1.024878238117797</v>
       </c>
       <c r="K2">
-        <v>1.047828004073361</v>
+        <v>1.035114183093055</v>
       </c>
       <c r="L2">
-        <v>1.055993043092899</v>
+        <v>1.034857487346276</v>
       </c>
       <c r="M2">
-        <v>1.06166031593714</v>
+        <v>1.042714461249098</v>
       </c>
       <c r="N2">
-        <v>1.018287057393064</v>
+        <v>1.011824119897293</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039253874869203</v>
+        <v>1.008030211880784</v>
       </c>
       <c r="D3">
-        <v>1.045880264076009</v>
+        <v>1.02779725338945</v>
       </c>
       <c r="E3">
-        <v>1.054220975566197</v>
+        <v>1.02800563425617</v>
       </c>
       <c r="F3">
-        <v>1.059900039681179</v>
+        <v>1.036039203829971</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037619459843677</v>
+        <v>1.046936532526134</v>
       </c>
       <c r="J3">
-        <v>1.043996776375574</v>
+        <v>1.028304333525314</v>
       </c>
       <c r="K3">
-        <v>1.048460906723066</v>
+        <v>1.038086400474864</v>
       </c>
       <c r="L3">
-        <v>1.056780066166635</v>
+        <v>1.038292291637998</v>
       </c>
       <c r="M3">
-        <v>1.062444665075708</v>
+        <v>1.046230822336247</v>
       </c>
       <c r="N3">
-        <v>1.018539599046028</v>
+        <v>1.013001601353434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039967132775646</v>
+        <v>1.011351403474822</v>
       </c>
       <c r="D4">
-        <v>1.046411895899369</v>
+        <v>1.030215945494169</v>
       </c>
       <c r="E4">
-        <v>1.05485238543627</v>
+        <v>1.030728466188803</v>
       </c>
       <c r="F4">
-        <v>1.060528621524585</v>
+        <v>1.038804831739262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037746758894377</v>
+        <v>1.047720457853936</v>
       </c>
       <c r="J4">
-        <v>1.044479068051359</v>
+        <v>1.030469129845823</v>
       </c>
       <c r="K4">
-        <v>1.04886981203379</v>
+        <v>1.039962871226415</v>
       </c>
       <c r="L4">
-        <v>1.0572895910033</v>
+        <v>1.040469648732325</v>
       </c>
       <c r="M4">
-        <v>1.062952098460688</v>
+        <v>1.048456431833313</v>
       </c>
       <c r="N4">
-        <v>1.01870274988206</v>
+        <v>1.013745048488678</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040267025275157</v>
+        <v>1.012730212389548</v>
       </c>
       <c r="D5">
-        <v>1.046635399033182</v>
+        <v>1.031220776026392</v>
       </c>
       <c r="E5">
-        <v>1.055118042106836</v>
+        <v>1.031861416904138</v>
       </c>
       <c r="F5">
-        <v>1.060793003201836</v>
+        <v>1.039954732682335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037799961362054</v>
+        <v>1.04804339073774</v>
       </c>
       <c r="J5">
-        <v>1.044681729758987</v>
+        <v>1.031367175239904</v>
       </c>
       <c r="K5">
-        <v>1.049041565803924</v>
+        <v>1.040740917095054</v>
       </c>
       <c r="L5">
-        <v>1.057503858890709</v>
+        <v>1.04137457564239</v>
       </c>
       <c r="M5">
-        <v>1.063165400683013</v>
+        <v>1.049380590016943</v>
       </c>
       <c r="N5">
-        <v>1.018771275967578</v>
+        <v>1.014053321141128</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040317380834286</v>
+        <v>1.012960719358958</v>
       </c>
       <c r="D6">
-        <v>1.046672926474655</v>
+        <v>1.031388800843506</v>
       </c>
       <c r="E6">
-        <v>1.055162659439149</v>
+        <v>1.032050969525947</v>
       </c>
       <c r="F6">
-        <v>1.060837401411175</v>
+        <v>1.040147071095503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037808875866652</v>
+        <v>1.048097228688344</v>
       </c>
       <c r="J6">
-        <v>1.044715752050323</v>
+        <v>1.031517267664285</v>
       </c>
       <c r="K6">
-        <v>1.049070395208961</v>
+        <v>1.040870930171823</v>
       </c>
       <c r="L6">
-        <v>1.057539839127201</v>
+        <v>1.041525915805598</v>
       </c>
       <c r="M6">
-        <v>1.063201213714252</v>
+        <v>1.049535098169143</v>
       </c>
       <c r="N6">
-        <v>1.018782778127614</v>
+        <v>1.014104835063738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039971139800745</v>
+        <v>1.011369894702166</v>
       </c>
       <c r="D7">
-        <v>1.046414882339866</v>
+        <v>1.030229418628439</v>
       </c>
       <c r="E7">
-        <v>1.054855934321752</v>
+        <v>1.030743650221846</v>
       </c>
       <c r="F7">
-        <v>1.060532153711719</v>
+        <v>1.038820246315246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037747471022694</v>
+        <v>1.047724798725448</v>
       </c>
       <c r="J7">
-        <v>1.044481776395492</v>
+        <v>1.030481176294393</v>
       </c>
       <c r="K7">
-        <v>1.048872107606049</v>
+        <v>1.039973309562546</v>
       </c>
       <c r="L7">
-        <v>1.057292453811941</v>
+        <v>1.040481780913625</v>
       </c>
       <c r="M7">
-        <v>1.062954948705555</v>
+        <v>1.048468825089591</v>
       </c>
       <c r="N7">
-        <v>1.018703665776855</v>
+        <v>1.013749184241855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038524237952697</v>
+        <v>1.004570727273244</v>
       </c>
       <c r="D8">
-        <v>1.045336345106742</v>
+        <v>1.025280485361882</v>
       </c>
       <c r="E8">
-        <v>1.053575674270584</v>
+        <v>1.025178510750771</v>
       </c>
       <c r="F8">
-        <v>1.059257338168413</v>
+        <v>1.033164661197909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037488144213014</v>
+        <v>1.046111380099629</v>
       </c>
       <c r="J8">
-        <v>1.043503001607683</v>
+        <v>1.02604716818237</v>
       </c>
       <c r="K8">
-        <v>1.048042025668014</v>
+        <v>1.036128567877034</v>
       </c>
       <c r="L8">
-        <v>1.05625896532678</v>
+        <v>1.036027890936894</v>
       </c>
       <c r="M8">
-        <v>1.061925409335924</v>
+        <v>1.043913380849813</v>
       </c>
       <c r="N8">
-        <v>1.018372458868414</v>
+        <v>1.012225969360989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035975831420586</v>
+        <v>0.9919741400366288</v>
       </c>
       <c r="D9">
-        <v>1.043436035458829</v>
+        <v>1.016141307038782</v>
       </c>
       <c r="E9">
-        <v>1.0513265285944</v>
+        <v>1.014960126928435</v>
       </c>
       <c r="F9">
-        <v>1.057015025818063</v>
+        <v>1.022751177095861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037021150075941</v>
+        <v>1.04304241747147</v>
       </c>
       <c r="J9">
-        <v>1.041775292196236</v>
+        <v>1.017813530587328</v>
       </c>
       <c r="K9">
-        <v>1.046574545226015</v>
+        <v>1.028977820702321</v>
       </c>
       <c r="L9">
-        <v>1.054439906697188</v>
+        <v>1.027815061411661</v>
       </c>
       <c r="M9">
-        <v>1.060110540121086</v>
+        <v>1.035485609927576</v>
       </c>
       <c r="N9">
-        <v>1.017786841851843</v>
+        <v>1.009393401040086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034277690733791</v>
+        <v>0.9831097778464144</v>
       </c>
       <c r="D10">
-        <v>1.042169338762099</v>
+        <v>1.009735621972696</v>
       </c>
       <c r="E10">
-        <v>1.049831735530615</v>
+        <v>1.007838039450685</v>
       </c>
       <c r="F10">
-        <v>1.055522926925956</v>
+        <v>1.01547276815854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036703093587203</v>
+        <v>1.040832059702558</v>
       </c>
       <c r="J10">
-        <v>1.040621489343516</v>
+        <v>1.012009929086898</v>
       </c>
       <c r="K10">
-        <v>1.045593038865726</v>
+        <v>1.023931293808658</v>
       </c>
       <c r="L10">
-        <v>1.053228632099609</v>
+        <v>1.022067203209467</v>
       </c>
       <c r="M10">
-        <v>1.058900192476281</v>
+        <v>1.029568165854188</v>
       </c>
       <c r="N10">
-        <v>1.017395102484092</v>
+        <v>1.007394559531244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033542560121018</v>
+        <v>0.9791477208547927</v>
       </c>
       <c r="D11">
-        <v>1.041620893635873</v>
+        <v>1.006879952262704</v>
       </c>
       <c r="E11">
-        <v>1.049185581654331</v>
+        <v>1.004672576255483</v>
       </c>
       <c r="F11">
-        <v>1.054877496954948</v>
+        <v>1.012232825295251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036563778852135</v>
+        <v>1.039832889869094</v>
       </c>
       <c r="J11">
-        <v>1.040121407599226</v>
+        <v>1.009414465762891</v>
       </c>
       <c r="K11">
-        <v>1.04516728391952</v>
+        <v>1.021673278696979</v>
       </c>
       <c r="L11">
-        <v>1.05270448260906</v>
+        <v>1.019506909340705</v>
       </c>
       <c r="M11">
-        <v>1.058376000862988</v>
+        <v>1.026927677729993</v>
       </c>
       <c r="N11">
-        <v>1.017225161607419</v>
+        <v>1.006500221924826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033269525623616</v>
+        <v>0.9776562307560602</v>
       </c>
       <c r="D12">
-        <v>1.04141718360493</v>
+        <v>1.005806196553186</v>
       </c>
       <c r="E12">
-        <v>1.048945737394036</v>
+        <v>1.003483784867726</v>
       </c>
       <c r="F12">
-        <v>1.054637854965315</v>
+        <v>1.011015294903979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03651179182651</v>
+        <v>1.039455146692237</v>
       </c>
       <c r="J12">
-        <v>1.039935583236568</v>
+        <v>1.008437273986232</v>
       </c>
       <c r="K12">
-        <v>1.045009026192575</v>
+        <v>1.02082299803776</v>
       </c>
       <c r="L12">
-        <v>1.052509841738105</v>
+        <v>1.018544544035128</v>
       </c>
       <c r="M12">
-        <v>1.058181277628473</v>
+        <v>1.025934458870905</v>
       </c>
       <c r="N12">
-        <v>1.017161990747365</v>
+        <v>1.006163450183967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033328091295177</v>
+        <v>0.9779770773613879</v>
       </c>
       <c r="D13">
-        <v>1.041460879778036</v>
+        <v>1.006037122725665</v>
       </c>
       <c r="E13">
-        <v>1.048997177278049</v>
+        <v>1.003739385414305</v>
       </c>
       <c r="F13">
-        <v>1.054689254478063</v>
+        <v>1.011277109580355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036522954047318</v>
+        <v>1.039536477720836</v>
       </c>
       <c r="J13">
-        <v>1.039975446439357</v>
+        <v>1.008647491105622</v>
       </c>
       <c r="K13">
-        <v>1.045042978139364</v>
+        <v>1.021005919284025</v>
       </c>
       <c r="L13">
-        <v>1.052551590524041</v>
+        <v>1.018751499233336</v>
       </c>
       <c r="M13">
-        <v>1.058223047102159</v>
+        <v>1.026148081344844</v>
       </c>
       <c r="N13">
-        <v>1.017175543248007</v>
+        <v>1.006235900030958</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03351999048272</v>
+        <v>0.9790248452484269</v>
       </c>
       <c r="D14">
-        <v>1.041604054757563</v>
+        <v>1.006791465503374</v>
       </c>
       <c r="E14">
-        <v>1.049165752661988</v>
+        <v>1.004574580044315</v>
       </c>
       <c r="F14">
-        <v>1.05485768604203</v>
+        <v>1.012132475745617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036559486469612</v>
+        <v>1.039801802019504</v>
       </c>
       <c r="J14">
-        <v>1.040106048762833</v>
+        <v>1.009333962896083</v>
       </c>
       <c r="K14">
-        <v>1.045154204598095</v>
+        <v>1.021603233621954</v>
       </c>
       <c r="L14">
-        <v>1.052688392478996</v>
+        <v>1.01942759542137</v>
       </c>
       <c r="M14">
-        <v>1.05835990528624</v>
+        <v>1.026845835494116</v>
       </c>
       <c r="N14">
-        <v>1.017219940847794</v>
+        <v>1.0064724790775</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033638229298335</v>
+        <v>0.9796677470444221</v>
       </c>
       <c r="D15">
-        <v>1.041692270517088</v>
+        <v>1.007254491553718</v>
       </c>
       <c r="E15">
-        <v>1.049269639541819</v>
+        <v>1.005087425477259</v>
       </c>
       <c r="F15">
-        <v>1.054961475478514</v>
+        <v>1.01265760552819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03658196359247</v>
+        <v>1.039964392625177</v>
       </c>
       <c r="J15">
-        <v>1.040186507659007</v>
+        <v>1.009755159247639</v>
       </c>
       <c r="K15">
-        <v>1.045222719872757</v>
+        <v>1.021969708676693</v>
       </c>
       <c r="L15">
-        <v>1.05277268752768</v>
+        <v>1.019842635974477</v>
       </c>
       <c r="M15">
-        <v>1.058444226136267</v>
+        <v>1.027274077427053</v>
       </c>
       <c r="N15">
-        <v>1.017247289415844</v>
+        <v>1.006617629372673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034326482575875</v>
+        <v>0.983370018123354</v>
       </c>
       <c r="D16">
-        <v>1.042205738202302</v>
+        <v>1.009923356405317</v>
       </c>
       <c r="E16">
-        <v>1.049874641890483</v>
+        <v>1.008046340297642</v>
       </c>
       <c r="F16">
-        <v>1.055565775906197</v>
+        <v>1.015685864429712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036712305874962</v>
+        <v>1.040897461011695</v>
       </c>
       <c r="J16">
-        <v>1.040654668061741</v>
+        <v>1.012180382882176</v>
       </c>
       <c r="K16">
-        <v>1.045621278906322</v>
+        <v>1.024079565262409</v>
       </c>
       <c r="L16">
-        <v>1.053263425385007</v>
+        <v>1.022235564119152</v>
       </c>
       <c r="M16">
-        <v>1.058934979205816</v>
+        <v>1.029741702365959</v>
       </c>
       <c r="N16">
-        <v>1.017406374268773</v>
+        <v>1.007453286049918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034758252220894</v>
+        <v>0.9856584014467414</v>
       </c>
       <c r="D17">
-        <v>1.042527834729034</v>
+        <v>1.011575030611726</v>
       </c>
       <c r="E17">
-        <v>1.050254439167447</v>
+        <v>1.009880047159509</v>
       </c>
       <c r="F17">
-        <v>1.055945014288006</v>
+        <v>1.017561214494848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036793639463517</v>
+        <v>1.041471291626822</v>
       </c>
       <c r="J17">
-        <v>1.040948204875733</v>
+        <v>1.013679085090257</v>
       </c>
       <c r="K17">
-        <v>1.045871082160179</v>
+        <v>1.025383106459696</v>
       </c>
       <c r="L17">
-        <v>1.053571343728187</v>
+        <v>1.023717032984801</v>
       </c>
       <c r="M17">
-        <v>1.059242788292768</v>
+        <v>1.031268182306339</v>
       </c>
       <c r="N17">
-        <v>1.01750607968806</v>
+        <v>1.007969587616327</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035010113125821</v>
+        <v>0.9869813260024211</v>
       </c>
       <c r="D18">
-        <v>1.042715712292123</v>
+        <v>1.012530567154929</v>
       </c>
       <c r="E18">
-        <v>1.050476074721585</v>
+        <v>1.010941801987986</v>
       </c>
       <c r="F18">
-        <v>1.056166281142451</v>
+        <v>1.018646607709954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036840926142818</v>
+        <v>1.041801958666214</v>
       </c>
       <c r="J18">
-        <v>1.041119373861583</v>
+        <v>1.014545348467145</v>
       </c>
       <c r="K18">
-        <v>1.046016715192607</v>
+        <v>1.026136456153824</v>
       </c>
       <c r="L18">
-        <v>1.053750980102283</v>
+        <v>1.02457430121012</v>
       </c>
       <c r="M18">
-        <v>1.05942231815409</v>
+        <v>1.03215105585967</v>
       </c>
       <c r="N18">
-        <v>1.017564205758935</v>
+        <v>1.008267973797555</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035095994084197</v>
+        <v>0.9874304343064335</v>
       </c>
       <c r="D19">
-        <v>1.042779774368717</v>
+        <v>1.012855068623993</v>
       </c>
       <c r="E19">
-        <v>1.050551664718193</v>
+        <v>1.011302529027678</v>
       </c>
       <c r="F19">
-        <v>1.056241738181756</v>
+        <v>1.019015285885959</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036857023581392</v>
+        <v>1.041914030882551</v>
       </c>
       <c r="J19">
-        <v>1.041177730247794</v>
+        <v>1.014839402447686</v>
       </c>
       <c r="K19">
-        <v>1.046066359907649</v>
+        <v>1.026392162101822</v>
       </c>
       <c r="L19">
-        <v>1.053812237015907</v>
+        <v>1.024865464293833</v>
       </c>
       <c r="M19">
-        <v>1.059483531495088</v>
+        <v>1.032450841077206</v>
       </c>
       <c r="N19">
-        <v>1.017584020085463</v>
+        <v>1.008369254081763</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034711925672667</v>
+        <v>0.9854141138179969</v>
       </c>
       <c r="D20">
-        <v>1.042493276391621</v>
+        <v>1.011398639306346</v>
       </c>
       <c r="E20">
-        <v>1.050213679521994</v>
+        <v>1.009684121349698</v>
       </c>
       <c r="F20">
-        <v>1.055904319024743</v>
+        <v>1.017360888510569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036784929048919</v>
+        <v>1.041410144766065</v>
       </c>
       <c r="J20">
-        <v>1.040916715918879</v>
+        <v>1.013519111200207</v>
       </c>
       <c r="K20">
-        <v>1.045844288181999</v>
+        <v>1.025243975453221</v>
       </c>
       <c r="L20">
-        <v>1.053538303606671</v>
+        <v>1.023558798035421</v>
       </c>
       <c r="M20">
-        <v>1.059209764319526</v>
+        <v>1.031105185555702</v>
       </c>
       <c r="N20">
-        <v>1.017495385385245</v>
+        <v>1.007914480917385</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033463480249292</v>
+        <v>0.9787168607434408</v>
       </c>
       <c r="D21">
-        <v>1.041561893100216</v>
+        <v>1.006569696184099</v>
       </c>
       <c r="E21">
-        <v>1.049116106824268</v>
+        <v>1.004329001108502</v>
       </c>
       <c r="F21">
-        <v>1.054808084395637</v>
+        <v>1.011880986898129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036548735187047</v>
+        <v>1.039723855429159</v>
       </c>
       <c r="J21">
-        <v>1.040067591614013</v>
+        <v>1.009132182448551</v>
       </c>
       <c r="K21">
-        <v>1.045121454306331</v>
+        <v>1.021427663516853</v>
       </c>
       <c r="L21">
-        <v>1.052648106285309</v>
+        <v>1.019228820760965</v>
       </c>
       <c r="M21">
-        <v>1.058319604376895</v>
+        <v>1.026640712950395</v>
       </c>
       <c r="N21">
-        <v>1.017206868164857</v>
+        <v>1.006402940796691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03267868170056</v>
+        <v>0.9743907624311867</v>
       </c>
       <c r="D22">
-        <v>1.040976335657027</v>
+        <v>1.003457745367289</v>
       </c>
       <c r="E22">
-        <v>1.048426980366647</v>
+        <v>1.000886413279778</v>
       </c>
       <c r="F22">
-        <v>1.054119413737135</v>
+        <v>1.00835370010923</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0363988461302</v>
+        <v>1.038625233067659</v>
       </c>
       <c r="J22">
-        <v>1.039533298417084</v>
+        <v>1.006297624053103</v>
       </c>
       <c r="K22">
-        <v>1.044666324073229</v>
+        <v>1.018961013453043</v>
       </c>
       <c r="L22">
-        <v>1.052088702588455</v>
+        <v>1.0164403305785</v>
       </c>
       <c r="M22">
-        <v>1.057759838133026</v>
+        <v>1.023761465363988</v>
       </c>
       <c r="N22">
-        <v>1.017025192599501</v>
+        <v>1.005425970475865</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033094704378513</v>
+        <v>0.9766954689948277</v>
       </c>
       <c r="D23">
-        <v>1.041286746772172</v>
+        <v>1.005114889772522</v>
       </c>
       <c r="E23">
-        <v>1.048792208046498</v>
+        <v>1.002718825486397</v>
       </c>
       <c r="F23">
-        <v>1.054484436367079</v>
+        <v>1.010231623992973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036478436340096</v>
+        <v>1.039211373880447</v>
       </c>
       <c r="J23">
-        <v>1.039816576690666</v>
+        <v>1.007807771897586</v>
       </c>
       <c r="K23">
-        <v>1.044907659314904</v>
+        <v>1.020275216604703</v>
       </c>
       <c r="L23">
-        <v>1.05238522461104</v>
+        <v>1.017925046021329</v>
       </c>
       <c r="M23">
-        <v>1.058056588970471</v>
+        <v>1.025294898139966</v>
       </c>
       <c r="N23">
-        <v>1.017121528131688</v>
+        <v>1.005946489649432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034732858592994</v>
+        <v>0.9855245334149143</v>
       </c>
       <c r="D24">
-        <v>1.042508891804016</v>
+        <v>1.011478367172788</v>
       </c>
       <c r="E24">
-        <v>1.050232096723053</v>
+        <v>1.009772675887125</v>
       </c>
       <c r="F24">
-        <v>1.055922707266187</v>
+        <v>1.0174514333064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036788865385615</v>
+        <v>1.04143778685997</v>
       </c>
       <c r="J24">
-        <v>1.04093094456529</v>
+        <v>1.01359142088796</v>
       </c>
       <c r="K24">
-        <v>1.045856395452829</v>
+        <v>1.025306864303588</v>
       </c>
       <c r="L24">
-        <v>1.053553232913969</v>
+        <v>1.023630318713012</v>
       </c>
       <c r="M24">
-        <v>1.059224686462289</v>
+        <v>1.031178859887779</v>
       </c>
       <c r="N24">
-        <v>1.017500217774303</v>
+        <v>1.007939389785623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036634513453806</v>
+        <v>0.9953087951536504</v>
       </c>
       <c r="D25">
-        <v>1.043927282495904</v>
+        <v>1.018556705740534</v>
       </c>
       <c r="E25">
-        <v>1.051907172306743</v>
+        <v>1.01765388208196</v>
       </c>
       <c r="F25">
-        <v>1.05759423064282</v>
+        <v>1.025499821663132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037143066019343</v>
+        <v>1.043863819081031</v>
       </c>
       <c r="J25">
-        <v>1.04222229907313</v>
+        <v>1.019995075069482</v>
       </c>
       <c r="K25">
-        <v>1.046954487199109</v>
+        <v>1.030873624012795</v>
       </c>
       <c r="L25">
-        <v>1.054909927091071</v>
+        <v>1.029984189020178</v>
       </c>
       <c r="M25">
-        <v>1.060579806052637</v>
+        <v>1.037714774394903</v>
       </c>
       <c r="N25">
-        <v>1.017938472594447</v>
+        <v>1.010144329237118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002780370624219</v>
+        <v>1.02385252665418</v>
       </c>
       <c r="D2">
-        <v>1.023979105339273</v>
+        <v>1.040863039847352</v>
       </c>
       <c r="E2">
-        <v>1.023718994423218</v>
+        <v>1.035159357818757</v>
       </c>
       <c r="F2">
-        <v>1.031679511374818</v>
+        <v>1.046403845023093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045681115668444</v>
+        <v>1.054309213953303</v>
       </c>
       <c r="J2">
-        <v>1.024878238117797</v>
+        <v>1.045342488468074</v>
       </c>
       <c r="K2">
-        <v>1.035114183093055</v>
+        <v>1.051780994145902</v>
       </c>
       <c r="L2">
-        <v>1.034857487346276</v>
+        <v>1.046149670216321</v>
       </c>
       <c r="M2">
-        <v>1.042714461249098</v>
+        <v>1.057252448622983</v>
       </c>
       <c r="N2">
-        <v>1.011824119897293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018691778739565</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053883741475393</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047683872613186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008030211880784</v>
+        <v>1.027540412339953</v>
       </c>
       <c r="D3">
-        <v>1.02779725338945</v>
+        <v>1.043351647959042</v>
       </c>
       <c r="E3">
-        <v>1.02800563425617</v>
+        <v>1.038156123757923</v>
       </c>
       <c r="F3">
-        <v>1.036039203829971</v>
+        <v>1.049117881987123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046936532526134</v>
+        <v>1.05523787667167</v>
       </c>
       <c r="J3">
-        <v>1.028304333525314</v>
+        <v>1.047307450948076</v>
       </c>
       <c r="K3">
-        <v>1.038086400474864</v>
+        <v>1.05345833046139</v>
       </c>
       <c r="L3">
-        <v>1.038292291637998</v>
+        <v>1.048323001499835</v>
       </c>
       <c r="M3">
-        <v>1.046230822336247</v>
+        <v>1.059158617936243</v>
       </c>
       <c r="N3">
-        <v>1.013001601353434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019369820671128</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055392317837873</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04886723421685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011351403474822</v>
+        <v>1.029886171924836</v>
       </c>
       <c r="D4">
-        <v>1.030215945494169</v>
+        <v>1.044939048526068</v>
       </c>
       <c r="E4">
-        <v>1.030728466188803</v>
+        <v>1.040071925945809</v>
       </c>
       <c r="F4">
-        <v>1.038804831739262</v>
+        <v>1.050851667891937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047720457853936</v>
+        <v>1.055821503790538</v>
       </c>
       <c r="J4">
-        <v>1.030469129845823</v>
+        <v>1.048555096325159</v>
       </c>
       <c r="K4">
-        <v>1.039962871226415</v>
+        <v>1.054523743547905</v>
       </c>
       <c r="L4">
-        <v>1.040469648732325</v>
+        <v>1.049709626599069</v>
       </c>
       <c r="M4">
-        <v>1.048456431833313</v>
+        <v>1.06037278033446</v>
       </c>
       <c r="N4">
-        <v>1.013745048488678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019800267025508</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056353226035351</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049621438428343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012730212389548</v>
+        <v>1.030866771161907</v>
       </c>
       <c r="D5">
-        <v>1.031220776026392</v>
+        <v>1.045605553879889</v>
       </c>
       <c r="E5">
-        <v>1.031861416904138</v>
+        <v>1.040874761653224</v>
       </c>
       <c r="F5">
-        <v>1.039954732682335</v>
+        <v>1.051578427910224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04804339073774</v>
+        <v>1.056065373847125</v>
       </c>
       <c r="J5">
-        <v>1.031367175239904</v>
+        <v>1.049077819725207</v>
       </c>
       <c r="K5">
-        <v>1.040740917095054</v>
+        <v>1.054971436702447</v>
       </c>
       <c r="L5">
-        <v>1.04137457564239</v>
+        <v>1.050290800004422</v>
       </c>
       <c r="M5">
-        <v>1.049380590016943</v>
+        <v>1.060881773913036</v>
       </c>
       <c r="N5">
-        <v>1.014053321141128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01998107540541</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056756051609266</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049945062991415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012960719358958</v>
+        <v>1.031035589426358</v>
       </c>
       <c r="D6">
-        <v>1.031388800843506</v>
+        <v>1.045722643269736</v>
       </c>
       <c r="E6">
-        <v>1.032050969525947</v>
+        <v>1.041012733882995</v>
       </c>
       <c r="F6">
-        <v>1.040147071095503</v>
+        <v>1.051703921387153</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048097228688344</v>
+        <v>1.056109231372319</v>
       </c>
       <c r="J6">
-        <v>1.031517267664285</v>
+        <v>1.049169873775643</v>
       </c>
       <c r="K6">
-        <v>1.040870930171823</v>
+        <v>1.05505176815544</v>
       </c>
       <c r="L6">
-        <v>1.041525915805598</v>
+        <v>1.050391565179244</v>
       </c>
       <c r="M6">
-        <v>1.049535098169143</v>
+        <v>1.060970705653313</v>
       </c>
       <c r="N6">
-        <v>1.014104835063738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020013505665077</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056826433574247</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050010491366458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011369894702166</v>
+        <v>1.029912020098505</v>
       </c>
       <c r="D7">
-        <v>1.030229418628439</v>
+        <v>1.044962732896118</v>
       </c>
       <c r="E7">
-        <v>1.030743650221846</v>
+        <v>1.040092091907665</v>
       </c>
       <c r="F7">
-        <v>1.038820246315246</v>
+        <v>1.050871547453638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047724798725448</v>
+        <v>1.055833254581003</v>
       </c>
       <c r="J7">
-        <v>1.030481176294393</v>
+        <v>1.048574511142132</v>
       </c>
       <c r="K7">
-        <v>1.039973309562546</v>
+        <v>1.054544341751432</v>
       </c>
       <c r="L7">
-        <v>1.040481780913625</v>
+        <v>1.049726724347237</v>
       </c>
       <c r="M7">
-        <v>1.048468825089591</v>
+        <v>1.060389638969577</v>
       </c>
       <c r="N7">
-        <v>1.013749184241855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019808590714924</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056366568229406</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049655850719548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004570727273244</v>
+        <v>1.02512342054571</v>
       </c>
       <c r="D8">
-        <v>1.025280485361882</v>
+        <v>1.041727314131854</v>
       </c>
       <c r="E8">
-        <v>1.025178510750771</v>
+        <v>1.03618898951935</v>
       </c>
       <c r="F8">
-        <v>1.033164661197909</v>
+        <v>1.04733851415806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046111380099629</v>
+        <v>1.054637319098904</v>
       </c>
       <c r="J8">
-        <v>1.02604716818237</v>
+        <v>1.046027124933173</v>
       </c>
       <c r="K8">
-        <v>1.036128567877034</v>
+        <v>1.052370239182495</v>
       </c>
       <c r="L8">
-        <v>1.036027890936894</v>
+        <v>1.046900093837145</v>
       </c>
       <c r="M8">
-        <v>1.043913380849813</v>
+        <v>1.057913275930738</v>
       </c>
       <c r="N8">
-        <v>1.012225969360989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018930149336715</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054406732322542</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048123129850636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9919741400366288</v>
+        <v>1.016341170421132</v>
       </c>
       <c r="D9">
-        <v>1.016141307038782</v>
+        <v>1.035820791237026</v>
       </c>
       <c r="E9">
-        <v>1.014960126928435</v>
+        <v>1.029110340016843</v>
       </c>
       <c r="F9">
-        <v>1.022751177095861</v>
+        <v>1.040918650692393</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04304241747147</v>
+        <v>1.0523808057851</v>
       </c>
       <c r="J9">
-        <v>1.017813530587328</v>
+        <v>1.041329789093766</v>
       </c>
       <c r="K9">
-        <v>1.028977820702321</v>
+        <v>1.048358255960028</v>
       </c>
       <c r="L9">
-        <v>1.027815061411661</v>
+        <v>1.041748140089713</v>
       </c>
       <c r="M9">
-        <v>1.035485609927576</v>
+        <v>1.053380989286437</v>
       </c>
       <c r="N9">
-        <v>1.009393401040086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017307129947492</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050819790290413</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045283318774097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9831097778464144</v>
+        <v>1.010312188346274</v>
       </c>
       <c r="D10">
-        <v>1.009735621972696</v>
+        <v>1.031815556518098</v>
       </c>
       <c r="E10">
-        <v>1.007838039450685</v>
+        <v>1.024353953294969</v>
       </c>
       <c r="F10">
-        <v>1.01547276815854</v>
+        <v>1.036617473272834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040832059702558</v>
+        <v>1.050821518558324</v>
       </c>
       <c r="J10">
-        <v>1.012009929086898</v>
+        <v>1.038122555283467</v>
       </c>
       <c r="K10">
-        <v>1.023931293808658</v>
+        <v>1.045633187698527</v>
       </c>
       <c r="L10">
-        <v>1.022067203209467</v>
+        <v>1.038296984652285</v>
       </c>
       <c r="M10">
-        <v>1.029568165854188</v>
+        <v>1.050355631217359</v>
       </c>
       <c r="N10">
-        <v>1.007394559531244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016206063544095</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04847627386696</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043373192004515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9791477208547927</v>
+        <v>1.00813324837346</v>
       </c>
       <c r="D11">
-        <v>1.006879952262704</v>
+        <v>1.030547196206145</v>
       </c>
       <c r="E11">
-        <v>1.004672576255483</v>
+        <v>1.023036497053305</v>
       </c>
       <c r="F11">
-        <v>1.012232825295251</v>
+        <v>1.035575288462492</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039832889869094</v>
+        <v>1.050442487269608</v>
       </c>
       <c r="J11">
-        <v>1.009414465762891</v>
+        <v>1.037171545758085</v>
       </c>
       <c r="K11">
-        <v>1.021673278696979</v>
+        <v>1.04491514818263</v>
       </c>
       <c r="L11">
-        <v>1.019506909340705</v>
+        <v>1.037536673236005</v>
       </c>
       <c r="M11">
-        <v>1.026927677729993</v>
+        <v>1.049856107854207</v>
       </c>
       <c r="N11">
-        <v>1.006500221924826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015937914428208</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04851217677443</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042898014000919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9776562307560602</v>
+        <v>1.007495686570891</v>
       </c>
       <c r="D12">
-        <v>1.005806196553186</v>
+        <v>1.030251488197995</v>
       </c>
       <c r="E12">
-        <v>1.003483784867726</v>
+        <v>1.022832857747302</v>
       </c>
       <c r="F12">
-        <v>1.011015294903979</v>
+        <v>1.035499116221411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039455146692237</v>
+        <v>1.05041583877831</v>
       </c>
       <c r="J12">
-        <v>1.008437273986232</v>
+        <v>1.036986168760738</v>
       </c>
       <c r="K12">
-        <v>1.02082299803776</v>
+        <v>1.044821194196283</v>
       </c>
       <c r="L12">
-        <v>1.018544544035128</v>
+        <v>1.037535311250469</v>
       </c>
       <c r="M12">
-        <v>1.025934458870905</v>
+        <v>1.04997641006665</v>
       </c>
       <c r="N12">
-        <v>1.006163450183967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01592025550401</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048930322373524</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042831586799881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +1016,105 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9779770773613879</v>
+        <v>1.00801936569649</v>
       </c>
       <c r="D13">
-        <v>1.006037122725665</v>
+        <v>1.030703856601398</v>
       </c>
       <c r="E13">
-        <v>1.003739385414305</v>
+        <v>1.023487810243275</v>
       </c>
       <c r="F13">
-        <v>1.011277109580355</v>
+        <v>1.036182558692043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039536477720836</v>
+        <v>1.050673885766466</v>
       </c>
       <c r="J13">
-        <v>1.008647491105622</v>
+        <v>1.037396772164814</v>
       </c>
       <c r="K13">
-        <v>1.021005919284025</v>
+        <v>1.045223406597406</v>
       </c>
       <c r="L13">
-        <v>1.018751499233336</v>
+        <v>1.038135871924537</v>
       </c>
       <c r="M13">
-        <v>1.026148081344844</v>
+        <v>1.050606085233112</v>
       </c>
       <c r="N13">
-        <v>1.006235900030958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016102916471497</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049702292720446</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043113492437806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9790248452484269</v>
+        <v>1.008913677169608</v>
       </c>
       <c r="D14">
-        <v>1.006791465503374</v>
+        <v>1.031361350297305</v>
       </c>
       <c r="E14">
-        <v>1.004574580044315</v>
+        <v>1.024335119826382</v>
       </c>
       <c r="F14">
-        <v>1.012132475745617</v>
+        <v>1.037005817916597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039801802019504</v>
+        <v>1.05098413483733</v>
       </c>
       <c r="J14">
-        <v>1.009333962896083</v>
+        <v>1.037955412752875</v>
       </c>
       <c r="K14">
-        <v>1.021603233621954</v>
+        <v>1.04573134543988</v>
       </c>
       <c r="L14">
-        <v>1.01942759542137</v>
+        <v>1.038828641212233</v>
       </c>
       <c r="M14">
-        <v>1.026845835494116</v>
+        <v>1.05127814662154</v>
       </c>
       <c r="N14">
-        <v>1.0064724790775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016322133170499</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050405452277793</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043474023917974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9796677470444221</v>
+        <v>1.009389549654643</v>
       </c>
       <c r="D15">
-        <v>1.007254491553718</v>
+        <v>1.031692102168544</v>
       </c>
       <c r="E15">
-        <v>1.005087425477259</v>
+        <v>1.024738479829352</v>
       </c>
       <c r="F15">
-        <v>1.01265760552819</v>
+        <v>1.0373843706662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039964392625177</v>
+        <v>1.051126499048774</v>
       </c>
       <c r="J15">
-        <v>1.009755159247639</v>
+        <v>1.03822810427738</v>
       </c>
       <c r="K15">
-        <v>1.021969708676693</v>
+        <v>1.045971366666708</v>
       </c>
       <c r="L15">
-        <v>1.019842635974477</v>
+        <v>1.039139049337994</v>
       </c>
       <c r="M15">
-        <v>1.027274077427053</v>
+        <v>1.051565897743443</v>
       </c>
       <c r="N15">
-        <v>1.006617629372673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016422092058725</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050670147470476</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043649529905539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.983370018123354</v>
+        <v>1.01184231054448</v>
       </c>
       <c r="D16">
-        <v>1.009923356405317</v>
+        <v>1.033304997249071</v>
       </c>
       <c r="E16">
-        <v>1.008046340297642</v>
+        <v>1.026631602571878</v>
       </c>
       <c r="F16">
-        <v>1.015685864429712</v>
+        <v>1.039096210927794</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040897461011695</v>
+        <v>1.051752255738508</v>
       </c>
       <c r="J16">
-        <v>1.012180382882176</v>
+        <v>1.039518522749143</v>
       </c>
       <c r="K16">
-        <v>1.024079565262409</v>
+        <v>1.047062884896048</v>
       </c>
       <c r="L16">
-        <v>1.022235564119152</v>
+        <v>1.04050078983631</v>
       </c>
       <c r="M16">
-        <v>1.029741702365959</v>
+        <v>1.052759000886925</v>
       </c>
       <c r="N16">
-        <v>1.007453286049918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01685748627238</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051574764469884</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044424387149247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856584014467414</v>
+        <v>1.013257032555464</v>
       </c>
       <c r="D17">
-        <v>1.011575030611726</v>
+        <v>1.034199244667441</v>
       </c>
       <c r="E17">
-        <v>1.009880047159509</v>
+        <v>1.02764066073347</v>
       </c>
       <c r="F17">
-        <v>1.017561214494848</v>
+        <v>1.039975351154947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041471291626822</v>
+        <v>1.052067649581054</v>
       </c>
       <c r="J17">
-        <v>1.013679085090257</v>
+        <v>1.04021512517009</v>
       </c>
       <c r="K17">
-        <v>1.025383106459696</v>
+        <v>1.047633079838437</v>
       </c>
       <c r="L17">
-        <v>1.023717032984801</v>
+        <v>1.04118080539051</v>
       </c>
       <c r="M17">
-        <v>1.031268182306339</v>
+        <v>1.053316982520766</v>
       </c>
       <c r="N17">
-        <v>1.007969587616327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017076327353217</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051887849722377</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044830086509603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9869813260024211</v>
+        <v>1.013899112915325</v>
       </c>
       <c r="D18">
-        <v>1.012530567154929</v>
+        <v>1.034536800698168</v>
       </c>
       <c r="E18">
-        <v>1.010941801987986</v>
+        <v>1.02795022363172</v>
       </c>
       <c r="F18">
-        <v>1.018646607709954</v>
+        <v>1.040180351084001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041801958666214</v>
+        <v>1.052132939439303</v>
       </c>
       <c r="J18">
-        <v>1.014545348467145</v>
+        <v>1.040447120331569</v>
       </c>
       <c r="K18">
-        <v>1.026136456153824</v>
+        <v>1.047784873184183</v>
       </c>
       <c r="L18">
-        <v>1.02457430121012</v>
+        <v>1.041303331432806</v>
       </c>
       <c r="M18">
-        <v>1.03215105585967</v>
+        <v>1.053339779456082</v>
       </c>
       <c r="N18">
-        <v>1.008267973797555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017120670703798</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051670431398099</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044925903226253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9874304343064335</v>
+        <v>1.013863791985199</v>
       </c>
       <c r="D19">
-        <v>1.012855068623993</v>
+        <v>1.034395146586162</v>
       </c>
       <c r="E19">
-        <v>1.011302529027678</v>
+        <v>1.027640679259169</v>
       </c>
       <c r="F19">
-        <v>1.019015285885959</v>
+        <v>1.039790321546207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041914030882551</v>
+        <v>1.051989026924014</v>
       </c>
       <c r="J19">
-        <v>1.014839402447686</v>
+        <v>1.040281454352053</v>
       </c>
       <c r="K19">
-        <v>1.026392162101822</v>
+        <v>1.047583953575739</v>
       </c>
       <c r="L19">
-        <v>1.024865464293833</v>
+        <v>1.040936685922866</v>
       </c>
       <c r="M19">
-        <v>1.032450841077206</v>
+        <v>1.05289478063774</v>
       </c>
       <c r="N19">
-        <v>1.008369254081763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01702054950828</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050996561202576</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044790172593289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9854141138179969</v>
+        <v>1.011908618207757</v>
       </c>
       <c r="D20">
-        <v>1.011398639306346</v>
+        <v>1.032890540467783</v>
       </c>
       <c r="E20">
-        <v>1.009684121349698</v>
+        <v>1.025610471613195</v>
       </c>
       <c r="F20">
-        <v>1.017360888510569</v>
+        <v>1.037758710451217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041410144766065</v>
+        <v>1.051251432470008</v>
       </c>
       <c r="J20">
-        <v>1.013519111200207</v>
+        <v>1.038988077112648</v>
       </c>
       <c r="K20">
-        <v>1.025243975453221</v>
+        <v>1.046378695302761</v>
       </c>
       <c r="L20">
-        <v>1.023558798035421</v>
+        <v>1.039217459588145</v>
       </c>
       <c r="M20">
-        <v>1.031105185555702</v>
+        <v>1.051168594362609</v>
       </c>
       <c r="N20">
-        <v>1.007914480917385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016508324079987</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049109217392939</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043941906296243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9787168607434408</v>
+        <v>1.007290650379141</v>
       </c>
       <c r="D21">
-        <v>1.006569696184099</v>
+        <v>1.029797479463793</v>
       </c>
       <c r="E21">
-        <v>1.004329001108502</v>
+        <v>1.021913388377973</v>
       </c>
       <c r="F21">
-        <v>1.011880986898129</v>
+        <v>1.034382677827496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039723855429159</v>
+        <v>1.050007199930811</v>
       </c>
       <c r="J21">
-        <v>1.009132182448551</v>
+        <v>1.036486683687049</v>
       </c>
       <c r="K21">
-        <v>1.021427663516853</v>
+        <v>1.044235496014967</v>
       </c>
       <c r="L21">
-        <v>1.019228820760965</v>
+        <v>1.036491166982213</v>
       </c>
       <c r="M21">
-        <v>1.026640712950395</v>
+        <v>1.048740680193942</v>
       </c>
       <c r="N21">
-        <v>1.006402940796691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015638530765649</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047147339321876</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042429810483423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9743907624311867</v>
+        <v>1.00434683057515</v>
       </c>
       <c r="D22">
-        <v>1.003457745367289</v>
+        <v>1.027836436463512</v>
       </c>
       <c r="E22">
-        <v>1.000886413279778</v>
+        <v>1.019593756507758</v>
       </c>
       <c r="F22">
-        <v>1.00835370010923</v>
+        <v>1.032271201907714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038625233067659</v>
+        <v>1.049213308874992</v>
       </c>
       <c r="J22">
-        <v>1.006297624053103</v>
+        <v>1.034897415293692</v>
       </c>
       <c r="K22">
-        <v>1.018961013453043</v>
+        <v>1.042875907845307</v>
       </c>
       <c r="L22">
-        <v>1.0164403305785</v>
+        <v>1.03478680032148</v>
       </c>
       <c r="M22">
-        <v>1.023761465363988</v>
+        <v>1.047229368196287</v>
       </c>
       <c r="N22">
-        <v>1.005425970475865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015087161517335</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045951247134527</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041455172075168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9766954689948277</v>
+        <v>1.005900518048741</v>
       </c>
       <c r="D23">
-        <v>1.005114889772522</v>
+        <v>1.028865251908691</v>
       </c>
       <c r="E23">
-        <v>1.002718825486397</v>
+        <v>1.02081708504494</v>
       </c>
       <c r="F23">
-        <v>1.010231623992973</v>
+        <v>1.033383777628576</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039211373880447</v>
+        <v>1.049628143040464</v>
       </c>
       <c r="J23">
-        <v>1.007807771897586</v>
+        <v>1.035731163583269</v>
       </c>
       <c r="K23">
-        <v>1.020275216604703</v>
+        <v>1.043585689358006</v>
       </c>
       <c r="L23">
-        <v>1.017925046021329</v>
+        <v>1.03568359944718</v>
       </c>
       <c r="M23">
-        <v>1.025294898139966</v>
+        <v>1.048023496480751</v>
       </c>
       <c r="N23">
-        <v>1.005946489649432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015374626305229</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.046579741452125</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04194746859519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9855245334149143</v>
+        <v>1.011919261813171</v>
       </c>
       <c r="D24">
-        <v>1.011478367172788</v>
+        <v>1.032872795601143</v>
       </c>
       <c r="E24">
-        <v>1.009772675887125</v>
+        <v>1.025581739802276</v>
       </c>
       <c r="F24">
-        <v>1.0174514333064</v>
+        <v>1.037715829180219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04143778685997</v>
+        <v>1.051228854123038</v>
       </c>
       <c r="J24">
-        <v>1.01359142088796</v>
+        <v>1.038966085775984</v>
       </c>
       <c r="K24">
-        <v>1.025306864303588</v>
+        <v>1.046346215205619</v>
       </c>
       <c r="L24">
-        <v>1.023630318713012</v>
+        <v>1.039174026633654</v>
       </c>
       <c r="M24">
-        <v>1.031178859887779</v>
+        <v>1.051111475552751</v>
       </c>
       <c r="N24">
-        <v>1.007939389785623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016492942300016</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04902364541635</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043891830166442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953087951536504</v>
+        <v>1.018672518156992</v>
       </c>
       <c r="D25">
-        <v>1.018556705740534</v>
+        <v>1.037393762580179</v>
       </c>
       <c r="E25">
-        <v>1.01765388208196</v>
+        <v>1.030978943909823</v>
       </c>
       <c r="F25">
-        <v>1.025499821663132</v>
+        <v>1.04261674717055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043863819081031</v>
+        <v>1.052994385393266</v>
       </c>
       <c r="J25">
-        <v>1.019995075069482</v>
+        <v>1.042587413734702</v>
       </c>
       <c r="K25">
-        <v>1.030873624012795</v>
+        <v>1.04943805303714</v>
       </c>
       <c r="L25">
-        <v>1.029984189020178</v>
+        <v>1.043114659040049</v>
       </c>
       <c r="M25">
-        <v>1.037714774394903</v>
+        <v>1.05458764805221</v>
       </c>
       <c r="N25">
-        <v>1.010144329237118</v>
+        <v>1.017744525619171</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051774765770997</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046075040496228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02385252665418</v>
+        <v>1.022188632356047</v>
       </c>
       <c r="D2">
-        <v>1.040863039847352</v>
+        <v>1.038659208139098</v>
       </c>
       <c r="E2">
-        <v>1.035159357818757</v>
+        <v>1.034122645917629</v>
       </c>
       <c r="F2">
-        <v>1.046403845023093</v>
+        <v>1.045008507531935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054309213953303</v>
+        <v>1.053258479748185</v>
       </c>
       <c r="J2">
-        <v>1.045342488468074</v>
+        <v>1.043725350520613</v>
       </c>
       <c r="K2">
-        <v>1.051780994145902</v>
+        <v>1.049605003103215</v>
       </c>
       <c r="L2">
-        <v>1.046149670216321</v>
+        <v>1.045126217393093</v>
       </c>
       <c r="M2">
-        <v>1.057252448622983</v>
+        <v>1.055874489337162</v>
       </c>
       <c r="N2">
-        <v>1.018691778739565</v>
+        <v>1.018577846781255</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053883741475393</v>
+        <v>1.052793198068969</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047683872613186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046153965822105</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.025097914824688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027540412339953</v>
+        <v>1.025699653515128</v>
       </c>
       <c r="D3">
-        <v>1.043351647959042</v>
+        <v>1.040950774899784</v>
       </c>
       <c r="E3">
-        <v>1.038156123757923</v>
+        <v>1.037011659873047</v>
       </c>
       <c r="F3">
-        <v>1.049117881987123</v>
+        <v>1.047591141065137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05523787667167</v>
+        <v>1.054079249213151</v>
       </c>
       <c r="J3">
-        <v>1.047307450948076</v>
+        <v>1.045513421134318</v>
       </c>
       <c r="K3">
-        <v>1.05345833046139</v>
+        <v>1.051085181585782</v>
       </c>
       <c r="L3">
-        <v>1.048323001499835</v>
+        <v>1.047191897622098</v>
       </c>
       <c r="M3">
-        <v>1.059158617936243</v>
+        <v>1.057649250687663</v>
       </c>
       <c r="N3">
-        <v>1.019369820671128</v>
+        <v>1.019065836908811</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055392317837873</v>
+        <v>1.054197777947784</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04886723421685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047197648364113</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025401804042996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029886171924836</v>
+        <v>1.027934063061783</v>
       </c>
       <c r="D4">
-        <v>1.044939048526068</v>
+        <v>1.042413564820757</v>
       </c>
       <c r="E4">
-        <v>1.040071925945809</v>
+        <v>1.038859771062139</v>
       </c>
       <c r="F4">
-        <v>1.050851667891937</v>
+        <v>1.049242032076486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055821503790538</v>
+        <v>1.054594633625865</v>
       </c>
       <c r="J4">
-        <v>1.048555096325159</v>
+        <v>1.04664923347218</v>
       </c>
       <c r="K4">
-        <v>1.054523743547905</v>
+        <v>1.05202568791786</v>
       </c>
       <c r="L4">
-        <v>1.049709626599069</v>
+        <v>1.048510767633275</v>
       </c>
       <c r="M4">
-        <v>1.06037278033446</v>
+        <v>1.058780367102178</v>
       </c>
       <c r="N4">
-        <v>1.019800267025508</v>
+        <v>1.019375854097291</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056353226035351</v>
+        <v>1.055092963625821</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049621438428343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04786361869404</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025592607097125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030866771161907</v>
+        <v>1.02886831466764</v>
       </c>
       <c r="D5">
-        <v>1.045605553879889</v>
+        <v>1.043028151572905</v>
       </c>
       <c r="E5">
-        <v>1.040874761653224</v>
+        <v>1.039634457812836</v>
       </c>
       <c r="F5">
-        <v>1.051578427910224</v>
+        <v>1.049934269349185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056065373847125</v>
+        <v>1.054810034805838</v>
       </c>
       <c r="J5">
-        <v>1.049077819725207</v>
+        <v>1.047125310677649</v>
       </c>
       <c r="K5">
-        <v>1.054971436702447</v>
+        <v>1.052421290802581</v>
       </c>
       <c r="L5">
-        <v>1.050290800004422</v>
+        <v>1.04906373826626</v>
       </c>
       <c r="M5">
-        <v>1.060881773913036</v>
+        <v>1.059254743225303</v>
       </c>
       <c r="N5">
-        <v>1.01998107540541</v>
+        <v>1.019506169947259</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056756051609266</v>
+        <v>1.055468393025209</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049945062991415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048151124943257</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025672856291592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031035589426358</v>
+        <v>1.029029092318359</v>
       </c>
       <c r="D6">
-        <v>1.045722643269736</v>
+        <v>1.043136317487065</v>
       </c>
       <c r="E6">
-        <v>1.041012733882995</v>
+        <v>1.039767534503135</v>
       </c>
       <c r="F6">
-        <v>1.051703921387153</v>
+        <v>1.05005379262983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056109231372319</v>
+        <v>1.054848957119467</v>
       </c>
       <c r="J6">
-        <v>1.049169873775643</v>
+        <v>1.047209274649385</v>
       </c>
       <c r="K6">
-        <v>1.05505176815544</v>
+        <v>1.052492669412139</v>
       </c>
       <c r="L6">
-        <v>1.050391565179244</v>
+        <v>1.049159599234837</v>
       </c>
       <c r="M6">
-        <v>1.060970705653313</v>
+        <v>1.059337688959268</v>
       </c>
       <c r="N6">
-        <v>1.020013505665077</v>
+        <v>1.019529595781225</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056826433574247</v>
+        <v>1.055534037682552</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050010491366458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048211093695159</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02568796909349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029912020098505</v>
+        <v>1.027967605843782</v>
       </c>
       <c r="D7">
-        <v>1.044962732896118</v>
+        <v>1.042442278259801</v>
       </c>
       <c r="E7">
-        <v>1.040092091907665</v>
+        <v>1.03888363320083</v>
       </c>
       <c r="F7">
-        <v>1.050871547453638</v>
+        <v>1.049265913209412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055833254581003</v>
+        <v>1.054610016992823</v>
       </c>
       <c r="J7">
-        <v>1.048574511142132</v>
+        <v>1.046676140322019</v>
       </c>
       <c r="K7">
-        <v>1.054544341751432</v>
+        <v>1.052051249792219</v>
       </c>
       <c r="L7">
-        <v>1.049726724347237</v>
+        <v>1.04853151591752</v>
       </c>
       <c r="M7">
-        <v>1.060389638969577</v>
+        <v>1.05880117791822</v>
       </c>
       <c r="N7">
-        <v>1.019808590714924</v>
+        <v>1.019410502725878</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056366568229406</v>
+        <v>1.05510943366643</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049655850719548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047903543276977</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02560041530376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02512342054571</v>
+        <v>1.023426105215469</v>
       </c>
       <c r="D8">
-        <v>1.041727314131854</v>
+        <v>1.039475142144979</v>
       </c>
       <c r="E8">
-        <v>1.03618898951935</v>
+        <v>1.035129152902374</v>
       </c>
       <c r="F8">
-        <v>1.04733851415806</v>
+        <v>1.045913100508779</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054637319098904</v>
+        <v>1.05356305666584</v>
       </c>
       <c r="J8">
-        <v>1.046027124933173</v>
+        <v>1.044375922204642</v>
       </c>
       <c r="K8">
-        <v>1.052370239182495</v>
+        <v>1.050145683398852</v>
       </c>
       <c r="L8">
-        <v>1.046900093837145</v>
+        <v>1.045853407865177</v>
       </c>
       <c r="M8">
-        <v>1.057913275930738</v>
+        <v>1.056505091738153</v>
       </c>
       <c r="N8">
-        <v>1.018930149336715</v>
+        <v>1.018836361732808</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054406732322542</v>
+        <v>1.053292269098802</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048123129850636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046561155793464</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025214198754785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016341170421132</v>
+        <v>1.015076637914593</v>
       </c>
       <c r="D9">
-        <v>1.035820791237026</v>
+        <v>1.034045316143534</v>
       </c>
       <c r="E9">
-        <v>1.029110340016843</v>
+        <v>1.028315043744445</v>
       </c>
       <c r="F9">
-        <v>1.040918650692393</v>
+        <v>1.039812962738125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0523808057851</v>
+        <v>1.05156809752962</v>
       </c>
       <c r="J9">
-        <v>1.041329789093766</v>
+        <v>1.040108008438766</v>
       </c>
       <c r="K9">
-        <v>1.048358255960028</v>
+        <v>1.046609166835493</v>
       </c>
       <c r="L9">
-        <v>1.041748140089713</v>
+        <v>1.040964845715324</v>
       </c>
       <c r="M9">
-        <v>1.053380989286437</v>
+        <v>1.052291516207583</v>
       </c>
       <c r="N9">
-        <v>1.017307129947492</v>
+        <v>1.017680276966581</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050819790290413</v>
+        <v>1.04995755701468</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045283318774097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044057241531418</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024473794303926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010312188346274</v>
+        <v>1.009388477707894</v>
       </c>
       <c r="D10">
-        <v>1.031815556518098</v>
+        <v>1.030396468487265</v>
       </c>
       <c r="E10">
-        <v>1.024353953294969</v>
+        <v>1.023763319197279</v>
       </c>
       <c r="F10">
-        <v>1.036617473272834</v>
+        <v>1.035755050581023</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050821518558324</v>
+        <v>1.050208069548599</v>
       </c>
       <c r="J10">
-        <v>1.038122555283467</v>
+        <v>1.037234491437347</v>
       </c>
       <c r="K10">
-        <v>1.045633187698527</v>
+        <v>1.044237768733695</v>
       </c>
       <c r="L10">
-        <v>1.038296984652285</v>
+        <v>1.037716377581299</v>
       </c>
       <c r="M10">
-        <v>1.050355631217359</v>
+        <v>1.049507412045517</v>
       </c>
       <c r="N10">
-        <v>1.016206063544095</v>
+        <v>1.017019333005812</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04847627386696</v>
+        <v>1.047805013166782</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043373192004515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042398856207065</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023975996615737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00813324837346</v>
+        <v>1.007362681802268</v>
       </c>
       <c r="D11">
-        <v>1.030547196206145</v>
+        <v>1.029268848745932</v>
       </c>
       <c r="E11">
-        <v>1.023036497053305</v>
+        <v>1.022520823019917</v>
       </c>
       <c r="F11">
-        <v>1.035575288462492</v>
+        <v>1.03480985853428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050442487269608</v>
+        <v>1.049909078601379</v>
       </c>
       <c r="J11">
-        <v>1.037171545758085</v>
+        <v>1.036432340220491</v>
       </c>
       <c r="K11">
-        <v>1.04491514818263</v>
+        <v>1.043659129225461</v>
       </c>
       <c r="L11">
-        <v>1.037536673236005</v>
+        <v>1.037030170021555</v>
       </c>
       <c r="M11">
-        <v>1.049856107854207</v>
+        <v>1.049103871513348</v>
       </c>
       <c r="N11">
-        <v>1.015937914428208</v>
+        <v>1.017072345180454</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04851217677443</v>
+        <v>1.047917167284481</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042898014000919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042025454452775</v>
+      </c>
+      <c r="S11">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.023908248178001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007495686570891</v>
+        <v>1.006763263899659</v>
       </c>
       <c r="D12">
-        <v>1.030251488197995</v>
+        <v>1.029004763894229</v>
       </c>
       <c r="E12">
-        <v>1.022832857747302</v>
+        <v>1.022326528298205</v>
       </c>
       <c r="F12">
-        <v>1.035499116221411</v>
+        <v>1.03475404545421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05041583877831</v>
+        <v>1.049898684195213</v>
       </c>
       <c r="J12">
-        <v>1.036986168760738</v>
+        <v>1.036284122957381</v>
       </c>
       <c r="K12">
-        <v>1.044821194196283</v>
+        <v>1.043596604876558</v>
       </c>
       <c r="L12">
-        <v>1.037535311250469</v>
+        <v>1.03703813328698</v>
       </c>
       <c r="M12">
-        <v>1.04997641006665</v>
+        <v>1.0492443862243</v>
       </c>
       <c r="N12">
-        <v>1.01592025550401</v>
+        <v>1.017165285926464</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048930322373524</v>
+        <v>1.04835149272134</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042831586799881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041981249398736</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023933649143785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,105 +1121,123 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00801936569649</v>
+        <v>1.007224168941816</v>
       </c>
       <c r="D13">
-        <v>1.030703856601398</v>
+        <v>1.029396180614522</v>
       </c>
       <c r="E13">
-        <v>1.023487810243275</v>
+        <v>1.022934182070434</v>
       </c>
       <c r="F13">
-        <v>1.036182558692043</v>
+        <v>1.035392269873187</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050673885766466</v>
+        <v>1.05011782788203</v>
       </c>
       <c r="J13">
-        <v>1.037396772164814</v>
+        <v>1.036634389773087</v>
       </c>
       <c r="K13">
-        <v>1.045223406597406</v>
+        <v>1.043938845824789</v>
       </c>
       <c r="L13">
-        <v>1.038135871924537</v>
+        <v>1.037592200726939</v>
       </c>
       <c r="M13">
-        <v>1.050606085233112</v>
+        <v>1.049829566335171</v>
       </c>
       <c r="N13">
-        <v>1.016102916471497</v>
+        <v>1.017264240272059</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049702292720446</v>
+        <v>1.049088431311965</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043113492437806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04222050709578</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024037284063853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008913677169608</v>
+        <v>1.008029335655574</v>
       </c>
       <c r="D14">
-        <v>1.031361350297305</v>
+        <v>1.029969638905487</v>
       </c>
       <c r="E14">
-        <v>1.024335119826382</v>
+        <v>1.02372406139308</v>
       </c>
       <c r="F14">
-        <v>1.037005817916597</v>
+        <v>1.036154847934438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05098413483733</v>
+        <v>1.050376421944323</v>
       </c>
       <c r="J14">
-        <v>1.037955412752875</v>
+        <v>1.037107040733005</v>
       </c>
       <c r="K14">
-        <v>1.04573134543988</v>
+        <v>1.044363927969061</v>
       </c>
       <c r="L14">
-        <v>1.038828641212233</v>
+        <v>1.038228429631153</v>
       </c>
       <c r="M14">
-        <v>1.05127814662154</v>
+        <v>1.050441812927291</v>
       </c>
       <c r="N14">
-        <v>1.016322133170499</v>
+        <v>1.017338156591941</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050405452277793</v>
+        <v>1.049744393500016</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043474023917974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042522590549597</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024146106442307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009389549654643</v>
+        <v>1.00846195083535</v>
       </c>
       <c r="D15">
-        <v>1.031692102168544</v>
+        <v>1.030259996683968</v>
       </c>
       <c r="E15">
-        <v>1.024738479829352</v>
+        <v>1.024101710958064</v>
       </c>
       <c r="F15">
-        <v>1.0373843706662</v>
+        <v>1.036504649383509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051126499048774</v>
+        <v>1.050494485452245</v>
       </c>
       <c r="J15">
-        <v>1.03822810427738</v>
+        <v>1.037337905342679</v>
       </c>
       <c r="K15">
-        <v>1.045971366666708</v>
+        <v>1.044564070788869</v>
       </c>
       <c r="L15">
-        <v>1.039139049337994</v>
+        <v>1.038513495557579</v>
       </c>
       <c r="M15">
-        <v>1.051565897743443</v>
+        <v>1.050701190852759</v>
       </c>
       <c r="N15">
-        <v>1.016422092058725</v>
+        <v>1.017362755583598</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050670147470476</v>
+        <v>1.049986679605601</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043649529905539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042670470804469</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024192473455455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01184231054448</v>
+        <v>1.010720070032498</v>
       </c>
       <c r="D16">
-        <v>1.033304997249071</v>
+        <v>1.031689980590654</v>
       </c>
       <c r="E16">
-        <v>1.026631602571878</v>
+        <v>1.025887919469225</v>
       </c>
       <c r="F16">
-        <v>1.039096210927794</v>
+        <v>1.03808887191286</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051752255738508</v>
+        <v>1.051013602327374</v>
       </c>
       <c r="J16">
-        <v>1.039518522749143</v>
+        <v>1.038439279997765</v>
       </c>
       <c r="K16">
-        <v>1.047062884896048</v>
+        <v>1.045474633611038</v>
       </c>
       <c r="L16">
-        <v>1.04050078983631</v>
+        <v>1.039769625622541</v>
       </c>
       <c r="M16">
-        <v>1.052759000886925</v>
+        <v>1.051768105437118</v>
       </c>
       <c r="N16">
-        <v>1.01685748627238</v>
+        <v>1.01744787994387</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051574764469884</v>
+        <v>1.050791534524298</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044424387149247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043317687913254</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024376751163594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013257032555464</v>
+        <v>1.012042945962116</v>
       </c>
       <c r="D17">
-        <v>1.034199244667441</v>
+        <v>1.03249533000974</v>
       </c>
       <c r="E17">
-        <v>1.02764066073347</v>
+        <v>1.026849389714458</v>
       </c>
       <c r="F17">
-        <v>1.039975351154947</v>
+        <v>1.038907364532866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052067649581054</v>
+        <v>1.051279117862114</v>
       </c>
       <c r="J17">
-        <v>1.04021512517009</v>
+        <v>1.039046070427767</v>
       </c>
       <c r="K17">
-        <v>1.047633079838437</v>
+        <v>1.045956617618848</v>
       </c>
       <c r="L17">
-        <v>1.04118080539051</v>
+        <v>1.040402478268678</v>
       </c>
       <c r="M17">
-        <v>1.053316982520766</v>
+        <v>1.052265945153325</v>
       </c>
       <c r="N17">
-        <v>1.017076327353217</v>
+        <v>1.017504080659448</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051887849722377</v>
+        <v>1.051057000364596</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044830086509603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043661268040144</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024462320263444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013899112915325</v>
+        <v>1.012661180450314</v>
       </c>
       <c r="D18">
-        <v>1.034536800698168</v>
+        <v>1.032808743134999</v>
       </c>
       <c r="E18">
-        <v>1.02795022363172</v>
+        <v>1.027152153121162</v>
       </c>
       <c r="F18">
-        <v>1.040180351084001</v>
+        <v>1.039097469350677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052132939439303</v>
+        <v>1.051333179361989</v>
       </c>
       <c r="J18">
-        <v>1.040447120331569</v>
+        <v>1.039254251793388</v>
       </c>
       <c r="K18">
-        <v>1.047784873184183</v>
+        <v>1.046084206662893</v>
       </c>
       <c r="L18">
-        <v>1.041303331432806</v>
+        <v>1.040518105055384</v>
       </c>
       <c r="M18">
-        <v>1.053339779456082</v>
+        <v>1.052273811243844</v>
       </c>
       <c r="N18">
-        <v>1.017120670703798</v>
+        <v>1.017495543559211</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051670431398099</v>
+        <v>1.050827606530106</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044925903226253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043738835521176</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024461152899997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013863791985199</v>
+        <v>1.012653645927637</v>
       </c>
       <c r="D19">
-        <v>1.034395146586162</v>
+        <v>1.032694296618818</v>
       </c>
       <c r="E19">
-        <v>1.027640679259169</v>
+        <v>1.026867334491001</v>
       </c>
       <c r="F19">
-        <v>1.039790321546207</v>
+        <v>1.038728273943077</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051989026924014</v>
+        <v>1.051207920900723</v>
       </c>
       <c r="J19">
-        <v>1.040281454352053</v>
+        <v>1.039115106647577</v>
       </c>
       <c r="K19">
-        <v>1.047583953575739</v>
+        <v>1.045909928543466</v>
       </c>
       <c r="L19">
-        <v>1.040936685922866</v>
+        <v>1.040175730244376</v>
       </c>
       <c r="M19">
-        <v>1.05289478063774</v>
+        <v>1.051849248501735</v>
       </c>
       <c r="N19">
-        <v>1.01702054950828</v>
+        <v>1.017417131047504</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050996561202576</v>
+        <v>1.050169629856377</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044790172593289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043622567082544</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024388985434965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011908618207757</v>
+        <v>1.0108677619798</v>
       </c>
       <c r="D20">
-        <v>1.032890540467783</v>
+        <v>1.031358288385607</v>
       </c>
       <c r="E20">
-        <v>1.025610471613195</v>
+        <v>1.024950611257014</v>
       </c>
       <c r="F20">
-        <v>1.037758710451217</v>
+        <v>1.036816630531653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051251432470008</v>
+        <v>1.050571658055147</v>
       </c>
       <c r="J20">
-        <v>1.038988077112648</v>
+        <v>1.037986083470986</v>
       </c>
       <c r="K20">
-        <v>1.046378695302761</v>
+        <v>1.044871275270508</v>
       </c>
       <c r="L20">
-        <v>1.039217459588145</v>
+        <v>1.038568477541831</v>
       </c>
       <c r="M20">
-        <v>1.051168594362609</v>
+        <v>1.050241587747887</v>
       </c>
       <c r="N20">
-        <v>1.016508324079987</v>
+        <v>1.01712716176019</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049109217392939</v>
+        <v>1.048375597576102</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043941906296243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04289248622413</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024112300823456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007290650379141</v>
+        <v>1.006644068571589</v>
       </c>
       <c r="D21">
-        <v>1.029797479463793</v>
+        <v>1.028634719623567</v>
       </c>
       <c r="E21">
-        <v>1.021913388377973</v>
+        <v>1.021486933591031</v>
       </c>
       <c r="F21">
-        <v>1.034382677827496</v>
+        <v>1.033703608766482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050007199930811</v>
+        <v>1.049548132537128</v>
       </c>
       <c r="J21">
-        <v>1.036486683687049</v>
+        <v>1.035866606728441</v>
       </c>
       <c r="K21">
-        <v>1.044235496014967</v>
+        <v>1.043093173939421</v>
       </c>
       <c r="L21">
-        <v>1.036491166982213</v>
+        <v>1.03607235189476</v>
       </c>
       <c r="M21">
-        <v>1.048740680193942</v>
+        <v>1.04807340329237</v>
       </c>
       <c r="N21">
-        <v>1.015638530765649</v>
+        <v>1.016968950395094</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047147339321876</v>
+        <v>1.046619239016812</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042429810483423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041638852663257</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023737324505388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00434683057515</v>
+        <v>1.003949768989484</v>
       </c>
       <c r="D22">
-        <v>1.027836436463512</v>
+        <v>1.026907868176042</v>
       </c>
       <c r="E22">
-        <v>1.019593756507758</v>
+        <v>1.019317304074921</v>
       </c>
       <c r="F22">
-        <v>1.032271201907714</v>
+        <v>1.031759324197183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049213308874992</v>
+        <v>1.048894300462895</v>
       </c>
       <c r="J22">
-        <v>1.034897415293692</v>
+        <v>1.034517576190081</v>
       </c>
       <c r="K22">
-        <v>1.042875907845307</v>
+        <v>1.041964479434672</v>
       </c>
       <c r="L22">
-        <v>1.03478680032148</v>
+        <v>1.034515554817036</v>
       </c>
       <c r="M22">
-        <v>1.047229368196287</v>
+        <v>1.046726828586177</v>
       </c>
       <c r="N22">
-        <v>1.015087161517335</v>
+        <v>1.016862235443513</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045951247134527</v>
+        <v>1.045553523598083</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041455172075168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040826163466121</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023498654255571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005900518048741</v>
+        <v>1.005356946355953</v>
       </c>
       <c r="D23">
-        <v>1.028865251908691</v>
+        <v>1.027802256401871</v>
       </c>
       <c r="E23">
-        <v>1.02081708504494</v>
+        <v>1.020452965513997</v>
       </c>
       <c r="F23">
-        <v>1.033383777628576</v>
+        <v>1.032775192049596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049628143040464</v>
+        <v>1.04922762701338</v>
       </c>
       <c r="J23">
-        <v>1.035731163583269</v>
+        <v>1.035210479349795</v>
       </c>
       <c r="K23">
-        <v>1.043585689358006</v>
+        <v>1.042541817153091</v>
       </c>
       <c r="L23">
-        <v>1.03568359944718</v>
+        <v>1.035326159773064</v>
       </c>
       <c r="M23">
-        <v>1.048023496480751</v>
+        <v>1.047425729209249</v>
       </c>
       <c r="N23">
-        <v>1.015374626305229</v>
+        <v>1.016871086875683</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046579741452125</v>
+        <v>1.046106652530516</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04194746859519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041223875213863</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023617688794649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011919261813171</v>
+        <v>1.010880807511069</v>
       </c>
       <c r="D24">
-        <v>1.032872795601143</v>
+        <v>1.031342744422942</v>
       </c>
       <c r="E24">
-        <v>1.025581739802276</v>
+        <v>1.024924587626189</v>
       </c>
       <c r="F24">
-        <v>1.037715829180219</v>
+        <v>1.03677571665671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051228854123038</v>
+        <v>1.050550885165864</v>
       </c>
       <c r="J24">
-        <v>1.038966085775984</v>
+        <v>1.037966348817799</v>
       </c>
       <c r="K24">
-        <v>1.046346215205619</v>
+        <v>1.044840929758259</v>
       </c>
       <c r="L24">
-        <v>1.039174026633654</v>
+        <v>1.03852769499766</v>
       </c>
       <c r="M24">
-        <v>1.051111475552751</v>
+        <v>1.050186387224626</v>
       </c>
       <c r="N24">
-        <v>1.016492942300016</v>
+        <v>1.017112380685306</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04902364541635</v>
+        <v>1.048291508194283</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043891830166442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042841244390306</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024098701154521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018672518156992</v>
+        <v>1.017280234752292</v>
       </c>
       <c r="D25">
-        <v>1.037393762580179</v>
+        <v>1.035482992759631</v>
       </c>
       <c r="E25">
-        <v>1.030978943909823</v>
+        <v>1.030106246318959</v>
       </c>
       <c r="F25">
-        <v>1.04261674717055</v>
+        <v>1.04141895543965</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052994385393266</v>
+        <v>1.052106002899822</v>
       </c>
       <c r="J25">
-        <v>1.042587413734702</v>
+        <v>1.041239723569945</v>
       </c>
       <c r="K25">
-        <v>1.04943805303714</v>
+        <v>1.047554365889703</v>
       </c>
       <c r="L25">
-        <v>1.043114659040049</v>
+        <v>1.042254510678037</v>
       </c>
       <c r="M25">
-        <v>1.05458764805221</v>
+        <v>1.053406604676582</v>
       </c>
       <c r="N25">
-        <v>1.017744525619171</v>
+        <v>1.017958101385284</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051774765770997</v>
+        <v>1.050840062869098</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046075040496228</v>
+        <v>1.044756603626294</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024675558465626</v>
       </c>
     </row>
   </sheetData>
